--- a/Experiment_Resulsts/SaFIN(FRIE)_HFS_Classification_Results.xlsx
+++ b/Experiment_Resulsts/SaFIN(FRIE)_HFS_Classification_Results.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\htet_predict_bank_failure\Experiment_Resulsts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2527DED9-5240-4C98-A586-F905C2702218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048819CB-C0F6-46D4-9046-D87A1DDCC9EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{59BFD352-3181-4B2E-9A02-E25DF6E8A988}"/>
+    <workbookView xWindow="28860" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{59BFD352-3181-4B2E-9A02-E25DF6E8A988}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Recon" sheetId="5" r:id="rId2"/>
     <sheet name="Increased_Draft" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="58">
   <si>
     <t>Now</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Forgetfactor = 0.99;</t>
   </si>
   <si>
-    <t>Lamda = 0.45;</t>
-  </si>
-  <si>
     <t>Rate = 0.25;</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
   </si>
   <si>
     <t>Safin_FRIE</t>
-  </si>
-  <si>
-    <t>tau = 0.2;</t>
   </si>
   <si>
     <t>threshold = 0;</t>
@@ -288,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +337,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -356,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -404,6 +404,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6C734-146C-49B9-BE90-0FF3605E587B}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,30 +744,30 @@
   <sheetData>
     <row r="1" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R2" s="32" t="s">
         <v>16</v>
@@ -771,7 +775,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="19">
         <v>549</v>
@@ -783,10 +787,10 @@
         <v>3105</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P3" s="19">
         <v>549</v>
@@ -847,10 +851,10 @@
         <v>1.52</v>
       </c>
       <c r="D5">
-        <v>5.08</v>
+        <v>6.12</v>
       </c>
       <c r="E5">
-        <v>94.92</v>
+        <v>93.88</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -868,10 +872,10 @@
         <v>1.52</v>
       </c>
       <c r="O5">
-        <v>5.08</v>
+        <v>6.12</v>
       </c>
       <c r="P5">
-        <v>94.92</v>
+        <v>93.88</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -891,10 +895,10 @@
         <v>3.04</v>
       </c>
       <c r="D6">
-        <v>5.14</v>
+        <v>5.69</v>
       </c>
       <c r="E6">
-        <v>94.86</v>
+        <v>94.31</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -912,10 +916,10 @@
         <v>3.04</v>
       </c>
       <c r="O6">
-        <v>5.14</v>
+        <v>5.69</v>
       </c>
       <c r="P6">
-        <v>94.86</v>
+        <v>94.31</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -935,10 +939,10 @@
         <v>1.65</v>
       </c>
       <c r="D7">
-        <v>7.37</v>
+        <v>9.24</v>
       </c>
       <c r="E7">
-        <v>92.63</v>
+        <v>90.76</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -956,10 +960,10 @@
         <v>3.06</v>
       </c>
       <c r="O7">
-        <v>4.92</v>
+        <v>5.61</v>
       </c>
       <c r="P7">
-        <v>95.08</v>
+        <v>94.39</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -973,43 +977,43 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7.09</v>
+        <v>8.92</v>
       </c>
       <c r="C8">
-        <v>3.18</v>
+        <v>1.81</v>
       </c>
       <c r="D8">
-        <v>5.13</v>
+        <v>5.99</v>
       </c>
       <c r="E8">
-        <v>94.87</v>
+        <v>94.01</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L8" t="s">
         <v>7</v>
       </c>
       <c r="M8">
-        <v>7.09</v>
+        <v>8.92</v>
       </c>
       <c r="N8">
-        <v>3.18</v>
+        <v>1.81</v>
       </c>
       <c r="O8">
-        <v>5.13</v>
+        <v>5.99</v>
       </c>
       <c r="P8">
-        <v>94.87</v>
+        <v>94.01</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1023,10 +1027,10 @@
         <v>2.34</v>
       </c>
       <c r="D9">
-        <v>4.5999999999999996</v>
+        <v>5.52</v>
       </c>
       <c r="E9">
-        <v>95.4</v>
+        <v>94.48</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1038,78 +1042,78 @@
         <v>8</v>
       </c>
       <c r="M9">
-        <v>7.55</v>
+        <v>8.01</v>
       </c>
       <c r="N9">
         <v>1.61</v>
       </c>
       <c r="O9">
-        <v>4.58</v>
+        <v>5.57</v>
       </c>
       <c r="P9">
-        <v>95.42</v>
+        <v>94.43</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" ref="B10:G10" si="0">AVERAGE(B5:B9)</f>
-        <v>8.581999999999999</v>
+        <v>8.9480000000000004</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
-        <v>2.3460000000000001</v>
+        <v>2.0720000000000001</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>5.4640000000000004</v>
+        <v>6.5120000000000005</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>94.535999999999987</v>
+        <v>93.488</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" ref="M10:R10" si="1">AVERAGE(M5:M9)</f>
-        <v>7.4599999999999991</v>
+        <v>7.9179999999999993</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="1"/>
-        <v>2.4820000000000002</v>
+        <v>2.2080000000000002</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" si="1"/>
-        <v>4.9700000000000006</v>
+        <v>5.7960000000000012</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="1"/>
-        <v>95.03</v>
+        <v>94.203999999999994</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="R10" s="3">
         <f t="shared" si="1"/>
-        <v>9.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -1117,7 +1121,7 @@
     </row>
     <row r="12" spans="1:18" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -1127,7 +1131,7 @@
       <c r="G12"/>
       <c r="I12" s="1"/>
       <c r="L12" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M12"/>
       <c r="N12"/>
@@ -1139,24 +1143,24 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="E13" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L13" s="2"/>
       <c r="P13" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R13" s="32" t="s">
         <v>16</v>
@@ -1164,7 +1168,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -1184,7 +1188,7 @@
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
@@ -1249,16 +1253,16 @@
         <v>15.34</v>
       </c>
       <c r="C16">
-        <v>6.07</v>
+        <v>6.17</v>
       </c>
       <c r="D16">
-        <v>10.71</v>
+        <v>12.43</v>
       </c>
       <c r="E16">
-        <v>89.29</v>
+        <v>87.57</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <v>8</v>
@@ -1276,10 +1280,10 @@
         <v>6.07</v>
       </c>
       <c r="O16">
-        <v>10.71</v>
+        <v>12.43</v>
       </c>
       <c r="P16">
-        <v>89.29</v>
+        <v>87.57</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -1299,10 +1303,10 @@
         <v>6.5</v>
       </c>
       <c r="D17">
-        <v>11.82</v>
+        <v>13.21</v>
       </c>
       <c r="E17">
-        <v>88.18</v>
+        <v>86.79</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1323,10 +1327,10 @@
         <v>6.5</v>
       </c>
       <c r="O17">
-        <v>11.82</v>
+        <v>13.21</v>
       </c>
       <c r="P17">
-        <v>88.18</v>
+        <v>86.79</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -1346,10 +1350,10 @@
         <v>10.9</v>
       </c>
       <c r="D18">
-        <v>11.06</v>
+        <v>11.22</v>
       </c>
       <c r="E18">
-        <v>88.94</v>
+        <v>88.78</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1358,25 +1362,25 @@
         <v>9</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L18" t="s">
         <v>6</v>
       </c>
       <c r="M18">
-        <v>15.82</v>
+        <v>15.05</v>
       </c>
       <c r="N18">
-        <v>6.5</v>
+        <v>7.23</v>
       </c>
       <c r="O18">
-        <v>11.16</v>
+        <v>12.5</v>
       </c>
       <c r="P18">
-        <v>88.84</v>
+        <v>87.5</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18">
         <v>7</v>
@@ -1393,10 +1397,10 @@
         <v>2.92</v>
       </c>
       <c r="D19">
-        <v>10.92</v>
+        <v>13.28</v>
       </c>
       <c r="E19">
-        <v>89.08</v>
+        <v>86.72</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1405,7 +1409,7 @@
         <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L19" t="s">
         <v>7</v>
@@ -1417,10 +1421,10 @@
         <v>2.92</v>
       </c>
       <c r="O19">
-        <v>10.92</v>
+        <v>13.28</v>
       </c>
       <c r="P19">
-        <v>89.08</v>
+        <v>86.72</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -1440,10 +1444,10 @@
         <v>2.91</v>
       </c>
       <c r="D20" s="21">
-        <v>11.4</v>
+        <v>13.19</v>
       </c>
       <c r="E20" s="21">
-        <v>88.6</v>
+        <v>86.81</v>
       </c>
       <c r="F20" s="21">
         <v>1</v>
@@ -1452,7 +1456,7 @@
         <v>9</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L20" s="20" t="s">
         <v>8</v>
@@ -1464,10 +1468,10 @@
         <v>2.91</v>
       </c>
       <c r="O20" s="21">
-        <v>11.4</v>
+        <v>13.19</v>
       </c>
       <c r="P20" s="21">
-        <v>88.6</v>
+        <v>86.81</v>
       </c>
       <c r="Q20" s="21">
         <v>1</v>
@@ -1486,49 +1490,49 @@
       </c>
       <c r="C21" s="3">
         <f t="shared" si="2"/>
-        <v>5.86</v>
+        <v>5.8800000000000008</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="2"/>
-        <v>11.182</v>
+        <v>12.666</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="2"/>
-        <v>88.818000000000012</v>
+        <v>87.334000000000003</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="2"/>
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>9</v>
       </c>
       <c r="M21" s="3">
         <f t="shared" ref="M21:R21" si="3">AVERAGE(M16:M20)</f>
-        <v>17.420000000000002</v>
+        <v>17.265999999999998</v>
       </c>
       <c r="N21" s="3">
         <f t="shared" si="3"/>
-        <v>4.9800000000000004</v>
+        <v>5.1259999999999994</v>
       </c>
       <c r="O21" s="3">
         <f t="shared" si="3"/>
-        <v>11.202</v>
+        <v>12.922000000000001</v>
       </c>
       <c r="P21" s="3">
         <f t="shared" si="3"/>
-        <v>88.798000000000002</v>
+        <v>87.078000000000003</v>
       </c>
       <c r="Q21" s="3">
         <f t="shared" si="3"/>
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="R21" s="3">
         <f t="shared" si="3"/>
@@ -1541,7 +1545,7 @@
       <c r="G22" s="19"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K22" s="21"/>
       <c r="L22" s="2"/>
@@ -1550,24 +1554,24 @@
     </row>
     <row r="23" spans="1:18" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A23" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G23" s="32" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -1583,16 +1587,16 @@
       </c>
       <c r="J24" s="30"/>
       <c r="L24" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q24" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R24" s="32" t="s">
         <v>16</v>
@@ -1618,10 +1622,10 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
@@ -1641,19 +1645,19 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>31.47</v>
+        <v>20.28</v>
       </c>
       <c r="C26">
-        <v>5.41</v>
+        <v>10.39</v>
       </c>
       <c r="D26">
-        <v>18.440000000000001</v>
+        <v>15.73</v>
       </c>
       <c r="E26">
-        <v>81.56</v>
+        <v>84.27</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26">
         <v>11</v>
@@ -1688,10 +1692,10 @@
         <v>11.02</v>
       </c>
       <c r="D27">
-        <v>17.88</v>
+        <v>20.56</v>
       </c>
       <c r="E27">
-        <v>82.12</v>
+        <v>79.44</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1709,13 +1713,13 @@
         <v>11.06</v>
       </c>
       <c r="O27">
-        <v>16.55</v>
+        <v>18.53</v>
       </c>
       <c r="P27">
-        <v>83.45</v>
+        <v>81.47</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R27">
         <v>6</v>
@@ -1726,19 +1730,19 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>29.03</v>
+        <v>40.5</v>
       </c>
       <c r="C28">
-        <v>19.21</v>
+        <v>1.25</v>
       </c>
       <c r="D28">
-        <v>24.12</v>
+        <v>29.72</v>
       </c>
       <c r="E28">
-        <v>75.88</v>
+        <v>70.28</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28">
         <v>13</v>
@@ -1753,10 +1757,10 @@
         <v>11.02</v>
       </c>
       <c r="O28">
-        <v>17.88</v>
+        <v>20.56</v>
       </c>
       <c r="P28">
-        <v>82.12</v>
+        <v>79.44</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -1770,19 +1774,19 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>23.63</v>
+        <v>25.68</v>
       </c>
       <c r="C29">
-        <v>10.32</v>
+        <v>14.2</v>
       </c>
       <c r="D29">
-        <v>16.97</v>
+        <v>20.62</v>
       </c>
       <c r="E29">
-        <v>83.03</v>
+        <v>79.38</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29">
         <v>28</v>
@@ -1791,22 +1795,22 @@
         <v>6</v>
       </c>
       <c r="M29">
-        <v>26.16</v>
+        <v>41.22</v>
       </c>
       <c r="N29">
-        <v>9.1</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="O29">
-        <v>17.63</v>
+        <v>29.86</v>
       </c>
       <c r="P29">
-        <v>82.37</v>
+        <v>70.14</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R29">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
@@ -1820,10 +1824,10 @@
         <v>16.98</v>
       </c>
       <c r="D30" s="21">
-        <v>15.78</v>
+        <v>16</v>
       </c>
       <c r="E30" s="21">
-        <v>84.22</v>
+        <v>84</v>
       </c>
       <c r="F30" s="21">
         <v>3</v>
@@ -1841,10 +1845,10 @@
         <v>11.19</v>
       </c>
       <c r="O30">
-        <v>17.75</v>
+        <v>20.2</v>
       </c>
       <c r="P30">
-        <v>82.25</v>
+        <v>79.8</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -1859,23 +1863,23 @@
       </c>
       <c r="B31" s="3">
         <f t="shared" ref="B31:G31" si="4">AVERAGE(B26:B30)</f>
-        <v>24.689999999999998</v>
+        <v>25.155999999999999</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" si="4"/>
-        <v>12.587999999999999</v>
+        <v>10.768000000000001</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" si="4"/>
-        <v>18.637999999999998</v>
+        <v>20.526</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" si="4"/>
-        <v>81.362000000000009</v>
+        <v>79.474000000000004</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="4"/>
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="4"/>
@@ -1888,13 +1892,13 @@
         <v>24.07</v>
       </c>
       <c r="N31" s="21">
-        <v>10.53</v>
+        <v>10.29</v>
       </c>
       <c r="O31" s="21">
-        <v>17.3</v>
+        <v>19.829999999999998</v>
       </c>
       <c r="P31" s="21">
-        <v>82.7</v>
+        <v>80.17</v>
       </c>
       <c r="Q31" s="21">
         <v>2</v>
@@ -1913,27 +1917,27 @@
       </c>
       <c r="M32" s="3">
         <f t="shared" ref="M32:R32" si="5">AVERAGE(M27:M31)</f>
-        <v>24.263999999999999</v>
+        <v>27.276</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" si="5"/>
-        <v>10.58</v>
+        <v>8.9439999999999991</v>
       </c>
       <c r="O32" s="3">
         <f t="shared" si="5"/>
-        <v>17.422000000000001</v>
+        <v>21.795999999999999</v>
       </c>
       <c r="P32" s="3">
         <f t="shared" si="5"/>
-        <v>82.578000000000003</v>
+        <v>78.204000000000008</v>
       </c>
       <c r="Q32" s="3">
         <f t="shared" si="5"/>
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="R32" s="3">
         <f t="shared" si="5"/>
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="21" x14ac:dyDescent="0.4">
@@ -1953,7 +1957,7 @@
     </row>
     <row r="36" spans="1:18" s="14" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -1964,7 +1968,7 @@
     </row>
     <row r="37" spans="1:18" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
@@ -1984,7 +1988,7 @@
         <v>3105</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>16</v>
@@ -1992,7 +1996,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2028,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -2042,22 +2046,22 @@
         <v>4</v>
       </c>
       <c r="B41">
-        <v>52.5</v>
+        <v>6.82</v>
       </c>
       <c r="C41">
-        <v>4.7</v>
+        <v>2.84</v>
       </c>
       <c r="D41">
-        <v>28.6</v>
+        <v>6.14</v>
       </c>
       <c r="E41">
-        <v>71.400000000000006</v>
+        <v>93.86</v>
       </c>
       <c r="F41">
         <v>9</v>
       </c>
       <c r="G41">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M41" s="6" t="s">
         <v>13</v>
@@ -2083,43 +2087,43 @@
         <v>5</v>
       </c>
       <c r="B42">
-        <v>46.61</v>
+        <v>8.82</v>
       </c>
       <c r="C42">
-        <v>1.37</v>
+        <v>2.84</v>
       </c>
       <c r="D42">
-        <v>23.99</v>
+        <v>6.25</v>
       </c>
       <c r="E42">
-        <v>76.010000000000005</v>
+        <v>93.75</v>
       </c>
       <c r="F42">
         <v>9</v>
       </c>
       <c r="G42">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="L42" t="s">
         <v>4</v>
       </c>
       <c r="M42">
-        <v>7.27</v>
+        <v>7.73</v>
       </c>
       <c r="N42">
         <v>2.84</v>
       </c>
       <c r="O42">
-        <v>5.0599999999999996</v>
+        <v>6.08</v>
       </c>
       <c r="P42">
-        <v>94.94</v>
+        <v>93.92</v>
       </c>
       <c r="Q42">
         <v>3</v>
       </c>
       <c r="R42">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
@@ -2127,43 +2131,43 @@
         <v>6</v>
       </c>
       <c r="B43">
-        <v>53.5</v>
+        <v>19.39</v>
       </c>
       <c r="C43">
-        <v>7.39</v>
+        <v>21.6</v>
       </c>
       <c r="D43">
-        <v>30.45</v>
+        <v>20.77</v>
       </c>
       <c r="E43">
-        <v>69.55</v>
+        <v>79.23</v>
       </c>
       <c r="F43">
         <v>9</v>
       </c>
       <c r="G43">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L43" t="s">
         <v>5</v>
       </c>
       <c r="M43">
-        <v>6.79</v>
+        <v>6.33</v>
       </c>
       <c r="N43">
-        <v>3.04</v>
+        <v>3.92</v>
       </c>
       <c r="O43">
-        <v>4.91</v>
+        <v>5.43</v>
       </c>
       <c r="P43">
-        <v>95.09</v>
+        <v>94.57</v>
       </c>
       <c r="Q43">
         <v>3</v>
       </c>
       <c r="R43">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
@@ -2171,43 +2175,43 @@
         <v>7</v>
       </c>
       <c r="B44">
-        <v>30.66</v>
+        <v>37.99</v>
       </c>
       <c r="C44">
-        <v>38.64</v>
+        <v>3.76</v>
       </c>
       <c r="D44">
-        <v>34.65</v>
+        <v>24.88</v>
       </c>
       <c r="E44">
-        <v>65.349999999999994</v>
+        <v>75.12</v>
       </c>
       <c r="F44">
         <v>9</v>
       </c>
       <c r="G44">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L44" t="s">
         <v>6</v>
       </c>
       <c r="M44">
-        <v>8.18</v>
+        <v>26.4</v>
       </c>
       <c r="N44">
-        <v>2.2400000000000002</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="O44">
-        <v>5.21</v>
+        <v>19.39</v>
       </c>
       <c r="P44">
-        <v>94.79</v>
+        <v>80.61</v>
       </c>
       <c r="Q44">
         <v>3</v>
       </c>
       <c r="R44">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
@@ -2215,16 +2219,16 @@
         <v>8</v>
       </c>
       <c r="B45">
-        <v>29.06</v>
+        <v>41.88</v>
       </c>
       <c r="C45">
-        <v>8.4</v>
+        <v>0.64</v>
       </c>
       <c r="D45">
-        <v>18.73</v>
+        <v>24.87</v>
       </c>
       <c r="E45">
-        <v>81.27</v>
+        <v>75.13</v>
       </c>
       <c r="F45">
         <v>9</v>
@@ -2236,28 +2240,28 @@
         <v>7</v>
       </c>
       <c r="M45">
-        <v>19.22</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="N45">
-        <v>4.49</v>
+        <v>6.45</v>
       </c>
       <c r="O45">
-        <v>11.86</v>
+        <v>7.7</v>
       </c>
       <c r="P45">
-        <v>88.14</v>
+        <v>92.3</v>
       </c>
       <c r="Q45">
         <v>3</v>
       </c>
       <c r="R45">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E46" s="2">
         <f>AVERAGE(E41:E45)</f>
-        <v>72.716000000000008</v>
+        <v>83.418000000000006</v>
       </c>
       <c r="F46">
         <f>AVERAGE(F41:F45)</f>
@@ -2265,28 +2269,28 @@
       </c>
       <c r="G46">
         <f>AVERAGE(G41:G45)</f>
-        <v>19</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="L46" t="s">
         <v>8</v>
       </c>
       <c r="M46">
-        <v>13.96</v>
+        <v>22.65</v>
       </c>
       <c r="N46">
-        <v>0.39</v>
+        <v>11.53</v>
       </c>
       <c r="O46">
-        <v>7.17</v>
+        <v>17.96</v>
       </c>
       <c r="P46">
-        <v>92.83</v>
+        <v>82.04</v>
       </c>
       <c r="Q46">
         <v>3</v>
       </c>
       <c r="R46">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
@@ -2301,7 +2305,7 @@
       <c r="G47" s="7"/>
       <c r="P47" s="2">
         <f>AVERAGE(P42:P46)</f>
-        <v>93.157999999999987</v>
+        <v>88.688000000000017</v>
       </c>
       <c r="Q47">
         <f>AVERAGE(Q42:Q46)</f>
@@ -2309,7 +2313,7 @@
       </c>
       <c r="R47">
         <f>AVERAGE(R42:R46)</f>
-        <v>6.8</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
@@ -2332,7 +2336,7 @@
     </row>
     <row r="49" spans="1:18" ht="21" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -2365,7 +2369,7 @@
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
       <c r="L50" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M50" s="14"/>
       <c r="N50" s="14"/>
@@ -2376,7 +2380,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -2418,7 +2422,7 @@
       </c>
       <c r="K52" s="21"/>
       <c r="L52" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
@@ -2432,22 +2436,22 @@
         <v>4</v>
       </c>
       <c r="B53">
-        <v>19.41</v>
+        <v>17.55</v>
       </c>
       <c r="C53">
-        <v>3.41</v>
+        <v>11.56</v>
       </c>
       <c r="D53">
-        <v>11.41</v>
+        <v>15.3</v>
       </c>
       <c r="E53">
-        <v>88.59</v>
+        <v>84.7</v>
       </c>
       <c r="F53">
         <v>9</v>
       </c>
       <c r="G53">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="J53" s="29" t="s">
         <v>18</v>
@@ -2477,22 +2481,22 @@
         <v>5</v>
       </c>
       <c r="B54">
-        <v>14.1</v>
+        <v>42.56</v>
       </c>
       <c r="C54">
-        <v>10.11</v>
+        <v>3.39</v>
       </c>
       <c r="D54">
-        <v>12.11</v>
+        <v>29.52</v>
       </c>
       <c r="E54">
-        <v>87.89</v>
+        <v>70.48</v>
       </c>
       <c r="F54">
         <v>9</v>
       </c>
       <c r="G54">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J54" t="s">
         <v>19</v>
@@ -2501,22 +2505,22 @@
         <v>4</v>
       </c>
       <c r="M54">
-        <v>12.77</v>
+        <v>15.69</v>
       </c>
       <c r="N54">
-        <v>11.75</v>
+        <v>5.9</v>
       </c>
       <c r="O54">
-        <v>12.26</v>
+        <v>11.7</v>
       </c>
       <c r="P54">
-        <v>87.74</v>
+        <v>88.3</v>
       </c>
       <c r="Q54">
         <v>3</v>
       </c>
       <c r="R54">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
@@ -2524,22 +2528,22 @@
         <v>6</v>
       </c>
       <c r="B55">
-        <v>12.53</v>
+        <v>25.58</v>
       </c>
       <c r="C55">
-        <v>9.2799999999999994</v>
+        <v>1.77</v>
       </c>
       <c r="D55">
-        <v>10.91</v>
+        <v>20.71</v>
       </c>
       <c r="E55">
-        <v>89.09</v>
+        <v>79.290000000000006</v>
       </c>
       <c r="F55">
         <v>9</v>
       </c>
       <c r="G55">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J55" t="s">
         <v>20</v>
@@ -2548,22 +2552,22 @@
         <v>5</v>
       </c>
       <c r="M55">
-        <v>17.95</v>
+        <v>18.21</v>
       </c>
       <c r="N55">
-        <v>5.6</v>
+        <v>5.89</v>
       </c>
       <c r="O55">
-        <v>11.77</v>
+        <v>13.09</v>
       </c>
       <c r="P55">
-        <v>88.23</v>
+        <v>86.91</v>
       </c>
       <c r="Q55">
         <v>3</v>
       </c>
       <c r="R55">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
@@ -2571,46 +2575,46 @@
         <v>7</v>
       </c>
       <c r="B56">
-        <v>15.1</v>
+        <v>65.63</v>
       </c>
       <c r="C56">
-        <v>4.55</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D56">
-        <v>9.83</v>
+        <v>41.03</v>
       </c>
       <c r="E56">
-        <v>90.17</v>
+        <v>58.97</v>
       </c>
       <c r="F56">
         <v>9</v>
       </c>
       <c r="G56">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J56" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="L56" t="s">
         <v>6</v>
       </c>
       <c r="M56">
-        <v>15.35</v>
+        <v>14.83</v>
       </c>
       <c r="N56">
-        <v>5.84</v>
+        <v>7.66</v>
       </c>
       <c r="O56">
-        <v>10.6</v>
+        <v>12.54</v>
       </c>
       <c r="P56">
-        <v>89.4</v>
+        <v>87.46</v>
       </c>
       <c r="Q56">
         <v>3</v>
       </c>
       <c r="R56">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
@@ -2618,25 +2622,25 @@
         <v>8</v>
       </c>
       <c r="B57">
-        <v>26.6</v>
+        <v>25</v>
       </c>
       <c r="C57">
-        <v>9.2200000000000006</v>
+        <v>32.42</v>
       </c>
       <c r="D57">
-        <v>17.91</v>
+        <v>29</v>
       </c>
       <c r="E57">
-        <v>82.09</v>
+        <v>71</v>
       </c>
       <c r="F57">
         <v>9</v>
       </c>
       <c r="G57">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L57" t="s">
         <v>7</v>
@@ -2645,25 +2649,25 @@
         <v>19.010000000000002</v>
       </c>
       <c r="N57">
-        <v>2.89</v>
+        <v>2.84</v>
       </c>
       <c r="O57">
-        <v>10.95</v>
+        <v>13.25</v>
       </c>
       <c r="P57">
-        <v>89.05</v>
+        <v>86.75</v>
       </c>
       <c r="Q57">
         <v>3</v>
       </c>
       <c r="R57">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E58" s="2">
         <f>AVERAGE(E53:E57)</f>
-        <v>87.566000000000003</v>
+        <v>72.888000000000005</v>
       </c>
       <c r="F58">
         <f>AVERAGE(F53:F57)</f>
@@ -2671,31 +2675,31 @@
       </c>
       <c r="G58">
         <f>AVERAGE(G53:G57)</f>
-        <v>18</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="J58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L58" t="s">
         <v>8</v>
       </c>
       <c r="M58">
-        <v>15.69</v>
+        <v>19.95</v>
       </c>
       <c r="N58">
-        <v>5.75</v>
+        <v>2.93</v>
       </c>
       <c r="O58">
-        <v>10.72</v>
+        <v>13.22</v>
       </c>
       <c r="P58">
-        <v>89.28</v>
+        <v>86.78</v>
       </c>
       <c r="Q58">
         <v>3</v>
       </c>
       <c r="R58">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
@@ -2709,11 +2713,11 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="J59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P59" s="2">
         <f>AVERAGE(P54:P58)</f>
-        <v>88.740000000000009</v>
+        <v>87.239999999999981</v>
       </c>
       <c r="Q59">
         <f>AVERAGE(Q54:Q58)</f>
@@ -2721,7 +2725,7 @@
       </c>
       <c r="R59">
         <f>AVERAGE(R54:R58)</f>
-        <v>7.4</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
@@ -2734,7 +2738,7 @@
       <c r="G60" s="16"/>
       <c r="I60" s="21"/>
       <c r="J60" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K60" s="21"/>
       <c r="L60" s="7" t="s">
@@ -2749,7 +2753,7 @@
     </row>
     <row r="61" spans="1:18" ht="21" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -2762,7 +2766,7 @@
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
       <c r="J61" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K61" s="16"/>
       <c r="L61" s="16"/>
@@ -2784,11 +2788,11 @@
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K62" s="14"/>
       <c r="L62" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M62" s="14"/>
       <c r="N62" s="14"/>
@@ -2801,7 +2805,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -2837,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
@@ -2851,22 +2855,22 @@
         <v>4</v>
       </c>
       <c r="B65">
-        <v>36.43</v>
+        <v>26.79</v>
       </c>
       <c r="C65">
-        <v>4.9400000000000004</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="D65">
-        <v>20.68</v>
+        <v>21.37</v>
       </c>
       <c r="E65">
-        <v>79.319999999999993</v>
+        <v>78.63</v>
       </c>
       <c r="F65">
         <v>9</v>
       </c>
       <c r="G65">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M65" s="6" t="s">
         <v>13</v>
@@ -2892,43 +2896,43 @@
         <v>5</v>
       </c>
       <c r="B66">
-        <v>28.21</v>
+        <v>62.86</v>
       </c>
       <c r="C66">
-        <v>8.61</v>
+        <v>3.77</v>
       </c>
       <c r="D66">
-        <v>18.41</v>
+        <v>40.06</v>
       </c>
       <c r="E66">
-        <v>81.59</v>
+        <v>59.94</v>
       </c>
       <c r="F66">
         <v>9</v>
       </c>
       <c r="G66">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L66" t="s">
         <v>4</v>
       </c>
       <c r="M66">
-        <v>22.5</v>
+        <v>21.43</v>
       </c>
       <c r="N66">
-        <v>10.71</v>
+        <v>11.5</v>
       </c>
       <c r="O66">
-        <v>16.61</v>
+        <v>18.07</v>
       </c>
       <c r="P66">
-        <v>83.39</v>
+        <v>81.93</v>
       </c>
       <c r="Q66">
         <v>3</v>
       </c>
       <c r="R66">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
@@ -2936,22 +2940,22 @@
         <v>6</v>
       </c>
       <c r="B67">
-        <v>46.21</v>
+        <v>31.05</v>
       </c>
       <c r="C67">
-        <v>1.27</v>
+        <v>33.76</v>
       </c>
       <c r="D67">
-        <v>23.74</v>
+        <v>32.42</v>
       </c>
       <c r="E67">
-        <v>76.260000000000005</v>
+        <v>67.58</v>
       </c>
       <c r="F67">
         <v>9</v>
       </c>
       <c r="G67">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="L67" t="s">
         <v>5</v>
@@ -2960,19 +2964,19 @@
         <v>23.93</v>
       </c>
       <c r="N67">
-        <v>11.06</v>
+        <v>11.55</v>
       </c>
       <c r="O67">
-        <v>17.489999999999998</v>
+        <v>20</v>
       </c>
       <c r="P67">
-        <v>82.51</v>
+        <v>80</v>
       </c>
       <c r="Q67">
         <v>3</v>
       </c>
       <c r="R67">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
@@ -2980,43 +2984,43 @@
         <v>7</v>
       </c>
       <c r="B68">
-        <v>80.989999999999995</v>
+        <v>30.63</v>
       </c>
       <c r="C68">
-        <v>2.21</v>
+        <v>6.13</v>
       </c>
       <c r="D68">
-        <v>41.6</v>
+        <v>23.53</v>
       </c>
       <c r="E68">
-        <v>58.4</v>
+        <v>76.47</v>
       </c>
       <c r="F68">
         <v>9</v>
       </c>
       <c r="G68">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L68" t="s">
         <v>6</v>
       </c>
       <c r="M68">
-        <v>23.1</v>
+        <v>40.43</v>
       </c>
       <c r="N68">
-        <v>10.99</v>
+        <v>1.27</v>
       </c>
       <c r="O68">
-        <v>17.05</v>
+        <v>29.46</v>
       </c>
       <c r="P68">
-        <v>82.95</v>
+        <v>70.540000000000006</v>
       </c>
       <c r="Q68">
         <v>3</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
@@ -3024,49 +3028,49 @@
         <v>8</v>
       </c>
       <c r="B69">
-        <v>24.65</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="C69">
-        <v>9.77</v>
+        <v>17.04</v>
       </c>
       <c r="D69">
-        <v>17.21</v>
+        <v>18.25</v>
       </c>
       <c r="E69">
-        <v>82.79</v>
+        <v>81.75</v>
       </c>
       <c r="F69">
         <v>9</v>
       </c>
       <c r="G69">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L69" t="s">
         <v>7</v>
       </c>
       <c r="M69">
-        <v>23.94</v>
+        <v>28.87</v>
       </c>
       <c r="N69">
-        <v>11.23</v>
+        <v>6.72</v>
       </c>
       <c r="O69">
-        <v>17.579999999999998</v>
+        <v>23.24</v>
       </c>
       <c r="P69">
-        <v>82.42</v>
+        <v>76.760000000000005</v>
       </c>
       <c r="Q69">
         <v>3</v>
       </c>
       <c r="R69">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E70" s="24">
         <f>AVERAGE(E65:E69)</f>
-        <v>75.671999999999997</v>
+        <v>72.873999999999995</v>
       </c>
       <c r="F70">
         <f>AVERAGE(F65:F69)</f>
@@ -3074,28 +3078,28 @@
       </c>
       <c r="G70">
         <f>AVERAGE(G65:G69)</f>
-        <v>19.8</v>
+        <v>27.4</v>
       </c>
       <c r="L70" t="s">
         <v>8</v>
       </c>
       <c r="M70">
-        <v>24.65</v>
+        <v>23.96</v>
       </c>
       <c r="N70">
-        <v>8.74</v>
+        <v>10.56</v>
       </c>
       <c r="O70">
-        <v>16.7</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="P70">
-        <v>83.3</v>
+        <v>80.33</v>
       </c>
       <c r="Q70">
         <v>3</v>
       </c>
       <c r="R70">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
@@ -3110,7 +3114,7 @@
       <c r="G71" s="7"/>
       <c r="P71" s="24">
         <f>AVERAGE(P66:P70)</f>
-        <v>82.914000000000016</v>
+        <v>77.912000000000006</v>
       </c>
       <c r="Q71">
         <f>AVERAGE(Q66:Q70)</f>
@@ -3118,7 +3122,7 @@
       </c>
       <c r="R71">
         <f>AVERAGE(R66:R70)</f>
-        <v>3.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
@@ -3140,108 +3144,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D07C55-6007-C646-9152-6264139E81A7}">
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="9" max="9" width="11.5546875" style="37"/>
     <col min="12" max="12" width="14.77734375" customWidth="1"/>
+    <col min="20" max="20" width="11.5546875" style="37"/>
+    <col min="21" max="21" width="11.5546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" s="32" t="s">
-        <v>52</v>
+      <c r="S2" s="32"/>
+      <c r="V2" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="Z2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="19">
-        <v>549</v>
+        <v>483</v>
       </c>
       <c r="F3">
-        <v>2556</v>
+        <v>2921</v>
       </c>
       <c r="G3" s="19">
-        <v>3105</v>
+        <v>3404</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P3" s="19">
-        <v>549</v>
+        <v>483</v>
       </c>
       <c r="Q3">
-        <v>2556</v>
+        <v>2921</v>
       </c>
       <c r="R3" s="19">
-        <v>3105</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X3" s="19">
-        <v>549</v>
-      </c>
-      <c r="Y3">
-        <v>2556</v>
+        <v>3404</v>
+      </c>
+      <c r="S3" s="19"/>
+      <c r="V3" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="Z3" s="19">
-        <v>3105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+        <v>690</v>
+      </c>
+      <c r="AA3">
+        <v>2934</v>
+      </c>
+      <c r="AB3" s="19">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B4" s="32" t="s">
         <v>13</v>
       </c>
@@ -3278,434 +3287,435 @@
       <c r="R4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="32" t="s">
+      <c r="S4" s="32"/>
+      <c r="W4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="32" t="s">
+      <c r="X4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="W4" s="32" t="s">
+      <c r="Y4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="32" t="s">
+      <c r="Z4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Y4" s="32" t="s">
+      <c r="AA4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB4" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>8.64</v>
+        <v>17.57</v>
       </c>
       <c r="C5">
-        <v>1.52</v>
+        <v>7.23</v>
       </c>
       <c r="D5">
-        <v>5.08</v>
+        <v>14.49</v>
       </c>
       <c r="E5">
-        <v>94.92</v>
+        <v>85.51</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
       </c>
       <c r="M5">
-        <v>8.64</v>
+        <v>16.54</v>
       </c>
       <c r="N5">
-        <v>1.52</v>
+        <v>6.76</v>
       </c>
       <c r="O5">
-        <v>5.08</v>
+        <v>13.77</v>
       </c>
       <c r="P5">
-        <v>94.92</v>
+        <v>86.23</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>16</v>
-      </c>
-      <c r="T5" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" t="s">
         <v>4</v>
       </c>
-      <c r="U5">
-        <v>8.64</v>
-      </c>
-      <c r="V5">
-        <v>1.52</v>
-      </c>
       <c r="W5">
-        <v>5.08</v>
+        <v>20.11</v>
       </c>
       <c r="X5">
-        <v>94.92</v>
+        <v>5.41</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>15.04</v>
       </c>
       <c r="Z5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+        <v>84.96</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7.24</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="C6">
-        <v>3.04</v>
+        <v>6.25</v>
       </c>
       <c r="D6">
-        <v>5.14</v>
+        <v>13.59</v>
       </c>
       <c r="E6">
-        <v>94.86</v>
+        <v>86.41</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L6" t="s">
         <v>5</v>
       </c>
       <c r="M6">
-        <v>7.24</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="N6">
-        <v>3.04</v>
+        <v>3.98</v>
       </c>
       <c r="O6">
-        <v>5.14</v>
+        <v>13.17</v>
       </c>
       <c r="P6">
-        <v>94.86</v>
+        <v>86.83</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="V6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>22.46</v>
+      </c>
+      <c r="X6">
+        <v>4.13</v>
+      </c>
+      <c r="Y6">
+        <v>16.12</v>
+      </c>
+      <c r="Z6">
+        <v>83.88</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
         <v>8</v>
       </c>
-      <c r="T6" t="s">
-        <v>5</v>
-      </c>
-      <c r="U6">
-        <v>7.24</v>
-      </c>
-      <c r="V6">
-        <v>3.04</v>
-      </c>
-      <c r="W6">
-        <v>5.14</v>
-      </c>
-      <c r="X6">
-        <v>94.86</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>13.08</v>
+        <v>15.28</v>
       </c>
       <c r="C7">
-        <v>1.65</v>
+        <v>7.36</v>
       </c>
       <c r="D7">
-        <v>7.37</v>
+        <v>12.09</v>
       </c>
       <c r="E7">
-        <v>92.63</v>
+        <v>87.91</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L7" t="s">
         <v>6</v>
       </c>
       <c r="M7">
-        <v>6.78</v>
+        <v>17.36</v>
       </c>
       <c r="N7">
-        <v>3.06</v>
+        <v>3.89</v>
       </c>
       <c r="O7">
-        <v>4.92</v>
+        <v>12.16</v>
       </c>
       <c r="P7">
-        <v>95.08</v>
+        <v>87.84</v>
       </c>
       <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>8</v>
+      </c>
+      <c r="V7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <v>25.36</v>
+      </c>
+      <c r="X7">
+        <v>5.88</v>
+      </c>
+      <c r="Y7">
+        <v>20.23</v>
+      </c>
+      <c r="Z7">
+        <v>79.77</v>
+      </c>
+      <c r="AA7">
         <v>2</v>
       </c>
-      <c r="R7">
-        <v>10</v>
-      </c>
-      <c r="T7" t="s">
-        <v>6</v>
-      </c>
-      <c r="U7">
-        <v>6.78</v>
-      </c>
-      <c r="V7">
-        <v>3.06</v>
-      </c>
-      <c r="W7">
-        <v>4.92</v>
-      </c>
-      <c r="X7">
-        <v>95.08</v>
-      </c>
-      <c r="Y7">
+      <c r="AB7">
         <v>2</v>
       </c>
-      <c r="Z7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7.09</v>
+        <v>17.88</v>
       </c>
       <c r="C8">
-        <v>3.18</v>
+        <v>6.8</v>
       </c>
       <c r="D8">
-        <v>5.13</v>
+        <v>14.01</v>
       </c>
       <c r="E8">
-        <v>94.87</v>
+        <v>85.99</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L8" t="s">
         <v>7</v>
       </c>
       <c r="M8">
-        <v>7.09</v>
+        <v>17.62</v>
       </c>
       <c r="N8">
-        <v>3.18</v>
+        <v>5.56</v>
       </c>
       <c r="O8">
-        <v>5.13</v>
+        <v>13.52</v>
       </c>
       <c r="P8">
-        <v>94.87</v>
+        <v>86.48</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8">
-        <v>8</v>
-      </c>
-      <c r="T8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" t="s">
         <v>7</v>
       </c>
-      <c r="U8">
-        <v>7.09</v>
-      </c>
-      <c r="V8">
-        <v>3.18</v>
-      </c>
       <c r="W8">
-        <v>5.13</v>
+        <v>18.3</v>
       </c>
       <c r="X8">
-        <v>94.87</v>
+        <v>5.2</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>13.62</v>
       </c>
       <c r="Z8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+        <v>86.38</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6.86</v>
+        <v>18.09</v>
       </c>
       <c r="C9">
-        <v>2.34</v>
+        <v>5.65</v>
       </c>
       <c r="D9">
-        <v>4.5999999999999996</v>
+        <v>13.87</v>
       </c>
       <c r="E9">
-        <v>95.4</v>
+        <v>86.13</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L9" t="s">
         <v>8</v>
       </c>
       <c r="M9">
-        <v>7.55</v>
+        <v>21.45</v>
       </c>
       <c r="N9">
-        <v>1.61</v>
+        <v>5.82</v>
       </c>
       <c r="O9">
-        <v>4.58</v>
+        <v>16.8</v>
       </c>
       <c r="P9">
-        <v>95.42</v>
+        <v>83.2</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
       <c r="R9">
-        <v>6</v>
-      </c>
-      <c r="T9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" t="s">
         <v>8</v>
       </c>
-      <c r="U9">
-        <v>7.55</v>
-      </c>
-      <c r="V9">
-        <v>1.61</v>
-      </c>
       <c r="W9">
-        <v>4.58</v>
+        <v>5.8</v>
       </c>
       <c r="X9">
-        <v>95.42</v>
+        <v>75.290000000000006</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>44.65</v>
       </c>
       <c r="Z9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+        <v>55.35</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="3">
-        <f t="shared" ref="B10:G10" si="0">AVERAGE(B5:B9)</f>
-        <v>8.581999999999999</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="0"/>
-        <v>2.3460000000000001</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>5.4640000000000004</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>94.535999999999987</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>10.6</v>
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <f>AVERAGE(B5:B9)</f>
+        <v>17.184000000000001</v>
+      </c>
+      <c r="C10">
+        <f>AVERAGE(C5:C9)</f>
+        <v>6.6579999999999995</v>
+      </c>
+      <c r="D10">
+        <f>AVERAGE(D5:D9)</f>
+        <v>13.61</v>
+      </c>
+      <c r="E10" s="24">
+        <f>AVERAGE(E5:E9)</f>
+        <v>86.390000000000015</v>
+      </c>
+      <c r="F10">
+        <f>AVERAGE(F5:F9)</f>
+        <v>1.2</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE(G5:G9)</f>
+        <v>8</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" ref="M10:R10" si="1">AVERAGE(M5:M9)</f>
-        <v>7.4599999999999991</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" si="1"/>
-        <v>2.4820000000000002</v>
-      </c>
-      <c r="O10" s="3">
-        <f t="shared" si="1"/>
-        <v>4.9700000000000006</v>
-      </c>
-      <c r="P10" s="3">
-        <f t="shared" si="1"/>
-        <v>95.03</v>
-      </c>
-      <c r="Q10" s="3">
-        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="M10">
+        <f>AVERAGE(M5:M9)</f>
+        <v>18.324000000000002</v>
+      </c>
+      <c r="N10">
+        <f>AVERAGE(N5:N9)</f>
+        <v>5.202</v>
+      </c>
+      <c r="O10">
+        <f>AVERAGE(O5:O9)</f>
+        <v>13.883999999999997</v>
+      </c>
+      <c r="P10" s="24">
+        <f>AVERAGE(P5:P9)</f>
+        <v>86.116</v>
+      </c>
+      <c r="Q10">
+        <f>AVERAGE(Q5:Q9)</f>
         <v>1.2</v>
       </c>
-      <c r="R10" s="3">
-        <f t="shared" si="1"/>
-        <v>9.6</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="U10" s="3">
-        <f t="shared" ref="U10" si="2">AVERAGE(U5:U9)</f>
-        <v>7.4599999999999991</v>
-      </c>
-      <c r="V10" s="3">
-        <f t="shared" ref="V10" si="3">AVERAGE(V5:V9)</f>
-        <v>2.4820000000000002</v>
-      </c>
-      <c r="W10" s="3">
-        <f t="shared" ref="W10" si="4">AVERAGE(W5:W9)</f>
-        <v>4.9700000000000006</v>
-      </c>
-      <c r="X10" s="3">
-        <f t="shared" ref="X10" si="5">AVERAGE(X5:X9)</f>
-        <v>95.03</v>
-      </c>
-      <c r="Y10" s="3">
-        <f t="shared" ref="Y10" si="6">AVERAGE(Y5:Y9)</f>
-        <v>1.2</v>
-      </c>
-      <c r="Z10" s="3">
-        <f t="shared" ref="Z10" si="7">AVERAGE(Z5:Z9)</f>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R10">
+        <f>AVERAGE(R5:R9)</f>
+        <v>6.2</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10">
+        <f>AVERAGE(W5:W9)</f>
+        <v>18.405999999999999</v>
+      </c>
+      <c r="X10">
+        <f>AVERAGE(X5:X9)</f>
+        <v>19.181999999999999</v>
+      </c>
+      <c r="Y10">
+        <f>AVERAGE(Y5:Y9)</f>
+        <v>21.931999999999999</v>
+      </c>
+      <c r="Z10" s="24">
+        <f>AVERAGE(Z5:Z9)</f>
+        <v>78.067999999999998</v>
+      </c>
+      <c r="AA10">
+        <f>AVERAGE(AA5:AA9)</f>
+        <v>1.6</v>
+      </c>
+      <c r="AB10">
+        <f>AVERAGE(AB5:AB9)</f>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -3714,7 +3724,6 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
@@ -3724,17 +3733,18 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
+      <c r="S11" s="16"/>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
-    </row>
-    <row r="12" spans="1:26" ht="21" x14ac:dyDescent="0.4">
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+    </row>
+    <row r="12" spans="1:28" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -3742,111 +3752,114 @@
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P12" s="32"/>
       <c r="Q12" s="32"/>
       <c r="R12" s="32"/>
-      <c r="T12" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="V12" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="Z12" s="32"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="E13" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="40"/>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L13" s="2"/>
       <c r="P13" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R13" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T13" s="2"/>
-      <c r="X13" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y13" s="32" t="s">
+      <c r="S13" s="32"/>
+      <c r="V13" s="2"/>
+      <c r="Z13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA13" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB13" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="Z13" s="32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="34">
-        <v>475</v>
+        <v>358</v>
       </c>
       <c r="F14" s="34">
-        <v>2573</v>
+        <v>2713</v>
       </c>
       <c r="G14" s="34">
-        <v>3048</v>
-      </c>
-      <c r="I14" s="20"/>
+        <v>3071</v>
+      </c>
+      <c r="I14" s="40"/>
       <c r="J14" s="21" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
       <c r="P14" s="34">
-        <v>475</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="34">
-        <v>2573</v>
+        <v>2713</v>
       </c>
       <c r="R14" s="34">
-        <v>3048</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
+        <v>3071</v>
+      </c>
+      <c r="S14" s="34"/>
+      <c r="V14" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="W14" s="32"/>
-      <c r="X14" s="34">
-        <v>475</v>
-      </c>
-      <c r="Y14" s="34">
-        <v>2573</v>
-      </c>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
       <c r="Z14" s="34">
-        <v>3048</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+        <v>686</v>
+      </c>
+      <c r="AA14" s="34">
+        <v>2934</v>
+      </c>
+      <c r="AB14" s="34">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B15" s="32" t="s">
         <v>13</v>
       </c>
@@ -3887,46 +3900,47 @@
       <c r="R15" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="U15" s="32" t="s">
+      <c r="S15" s="32"/>
+      <c r="W15" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="V15" s="32" t="s">
+      <c r="X15" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="W15" s="32" t="s">
+      <c r="Y15" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="X15" s="32" t="s">
+      <c r="Z15" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Y15" s="32" t="s">
+      <c r="AA15" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="Z15" s="32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB15" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16">
-        <v>15.34</v>
+        <v>25.09</v>
       </c>
       <c r="C16">
-        <v>6.07</v>
+        <v>11.3</v>
       </c>
       <c r="D16">
-        <v>10.71</v>
+        <v>21.6</v>
       </c>
       <c r="E16">
-        <v>89.29</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -3935,66 +3949,66 @@
         <v>4</v>
       </c>
       <c r="M16">
-        <v>15.34</v>
+        <v>30.66</v>
       </c>
       <c r="N16">
-        <v>6.07</v>
+        <v>6.27</v>
       </c>
       <c r="O16">
-        <v>10.71</v>
+        <v>21.46</v>
       </c>
       <c r="P16">
-        <v>89.29</v>
+        <v>78.540000000000006</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>8</v>
       </c>
-      <c r="T16" t="s">
+      <c r="V16" t="s">
         <v>4</v>
       </c>
-      <c r="U16">
-        <v>15.34</v>
-      </c>
-      <c r="V16">
-        <v>6.07</v>
-      </c>
       <c r="W16">
-        <v>10.71</v>
+        <v>21.49</v>
       </c>
       <c r="X16">
-        <v>89.29</v>
+        <v>9.42</v>
       </c>
       <c r="Y16">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="Z16">
+        <v>83.06</v>
+      </c>
+      <c r="AA16">
         <v>2</v>
       </c>
-      <c r="Z16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17">
-        <v>17.14</v>
+        <v>38.81</v>
       </c>
       <c r="C17">
-        <v>6.5</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="D17">
-        <v>11.82</v>
+        <v>25.87</v>
       </c>
       <c r="E17">
-        <v>88.18</v>
+        <v>74.13</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
@@ -4003,152 +4017,152 @@
         <v>5</v>
       </c>
       <c r="M17">
-        <v>17.14</v>
+        <v>24.48</v>
       </c>
       <c r="N17">
-        <v>6.5</v>
+        <v>10.69</v>
       </c>
       <c r="O17">
-        <v>11.82</v>
+        <v>20.32</v>
       </c>
       <c r="P17">
-        <v>88.18</v>
+        <v>79.680000000000007</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>11</v>
-      </c>
-      <c r="T17" t="s">
+        <v>6</v>
+      </c>
+      <c r="V17" t="s">
         <v>5</v>
       </c>
-      <c r="U17">
-        <v>17.14</v>
-      </c>
-      <c r="V17">
-        <v>6.5</v>
-      </c>
       <c r="W17">
-        <v>11.82</v>
+        <v>22.63</v>
       </c>
       <c r="X17">
-        <v>88.18</v>
+        <v>11.41</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>20.07</v>
       </c>
       <c r="Z17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+        <v>79.930000000000007</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18">
-        <v>11.22</v>
+        <v>33.22</v>
       </c>
       <c r="C18">
-        <v>10.9</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>11.06</v>
+        <v>24.13</v>
       </c>
       <c r="E18">
-        <v>88.94</v>
+        <v>75.87</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L18" t="s">
         <v>6</v>
       </c>
       <c r="M18">
-        <v>15.82</v>
+        <v>24.56</v>
       </c>
       <c r="N18">
-        <v>6.5</v>
+        <v>11.79</v>
       </c>
       <c r="O18">
-        <v>11.16</v>
+        <v>20.86</v>
       </c>
       <c r="P18">
-        <v>88.84</v>
+        <v>79.14</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18">
-        <v>7</v>
-      </c>
-      <c r="T18" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" t="s">
         <v>6</v>
       </c>
-      <c r="U18">
-        <v>15.82</v>
-      </c>
-      <c r="V18">
-        <v>6.5</v>
-      </c>
       <c r="W18">
-        <v>11.16</v>
+        <v>24.95</v>
       </c>
       <c r="X18">
-        <v>88.84</v>
+        <v>10.23</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>19.36</v>
       </c>
       <c r="Z18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+        <v>80.64</v>
+      </c>
+      <c r="AA18">
+        <v>2</v>
+      </c>
+      <c r="AB18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>18.91</v>
+        <v>24.48</v>
       </c>
       <c r="C19">
-        <v>2.92</v>
+        <v>11.71</v>
       </c>
       <c r="D19">
-        <v>10.92</v>
+        <v>20.28</v>
       </c>
       <c r="E19">
-        <v>89.08</v>
+        <v>79.72</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L19" t="s">
         <v>7</v>
       </c>
       <c r="M19">
-        <v>18.91</v>
+        <v>25.09</v>
       </c>
       <c r="N19">
-        <v>2.92</v>
+        <v>10.79</v>
       </c>
       <c r="O19">
-        <v>10.92</v>
+        <v>21.25</v>
       </c>
       <c r="P19">
-        <v>89.08</v>
+        <v>78.75</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4156,218 +4170,219 @@
       <c r="R19">
         <v>8</v>
       </c>
-      <c r="T19" t="s">
+      <c r="V19" t="s">
         <v>7</v>
       </c>
-      <c r="U19">
-        <v>18.91</v>
-      </c>
-      <c r="V19">
-        <v>2.92</v>
-      </c>
       <c r="W19">
-        <v>10.92</v>
+        <v>23.86</v>
       </c>
       <c r="X19">
-        <v>89.08</v>
+        <v>10.65</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>19.88</v>
       </c>
       <c r="Z19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+        <v>80.12</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="21">
-        <v>19.89</v>
-      </c>
-      <c r="C20" s="21">
-        <v>2.91</v>
-      </c>
-      <c r="D20" s="21">
-        <v>11.4</v>
-      </c>
-      <c r="E20" s="21">
-        <v>88.6</v>
-      </c>
-      <c r="F20" s="21">
-        <v>1</v>
-      </c>
-      <c r="G20" s="21">
-        <v>9</v>
+      <c r="B20">
+        <v>24.04</v>
+      </c>
+      <c r="C20">
+        <v>11.57</v>
+      </c>
+      <c r="D20">
+        <v>20.21</v>
+      </c>
+      <c r="E20">
+        <v>79.790000000000006</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L20" s="20" t="s">
         <v>8</v>
       </c>
       <c r="M20" s="21">
-        <v>19.89</v>
+        <v>21.33</v>
       </c>
       <c r="N20" s="21">
-        <v>2.91</v>
+        <v>14.47</v>
       </c>
       <c r="O20" s="21">
-        <v>11.4</v>
+        <v>19</v>
       </c>
       <c r="P20" s="21">
-        <v>88.6</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="21">
         <v>1</v>
       </c>
       <c r="R20" s="21">
-        <v>9</v>
-      </c>
-      <c r="T20" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="21"/>
+      <c r="V20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="U20" s="21">
-        <v>19.89</v>
-      </c>
-      <c r="V20" s="21">
-        <v>2.91</v>
-      </c>
       <c r="W20" s="21">
-        <v>11.4</v>
+        <v>24.04</v>
       </c>
       <c r="X20" s="21">
-        <v>88.6</v>
+        <v>11.25</v>
       </c>
       <c r="Y20" s="21">
-        <v>1</v>
+        <v>20.22</v>
       </c>
       <c r="Z20" s="21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+        <v>79.78</v>
+      </c>
+      <c r="AA20" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="3">
-        <f t="shared" ref="B21:G21" si="8">AVERAGE(B16:B20)</f>
-        <v>16.5</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" si="8"/>
-        <v>5.86</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="8"/>
-        <v>11.182</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="8"/>
-        <v>88.818000000000012</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="8"/>
-        <v>1.4</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="8"/>
-        <v>9</v>
+      <c r="B21">
+        <f>AVERAGE(B16:B20)</f>
+        <v>29.128000000000004</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGE(C16:C20)</f>
+        <v>9.9740000000000002</v>
+      </c>
+      <c r="D21">
+        <f>AVERAGE(D16:D20)</f>
+        <v>22.417999999999999</v>
+      </c>
+      <c r="E21" s="24">
+        <f>AVERAGE(E16:E20)</f>
+        <v>77.582000000000008</v>
+      </c>
+      <c r="F21">
+        <f>AVERAGE(F16:F20)</f>
+        <v>1.2</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(G16:G20)</f>
+        <v>6.2</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>9</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" ref="M21:R21" si="9">AVERAGE(M16:M20)</f>
-        <v>17.420000000000002</v>
+        <f t="shared" ref="M21:R21" si="0">AVERAGE(M16:M20)</f>
+        <v>25.224</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="9"/>
-        <v>4.9800000000000004</v>
+        <f t="shared" si="0"/>
+        <v>10.802</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="9"/>
-        <v>11.202</v>
+        <f t="shared" si="0"/>
+        <v>20.577999999999999</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="9"/>
-        <v>88.798000000000002</v>
+        <f t="shared" si="0"/>
+        <v>79.421999999999997</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="9"/>
-        <v>8.6</v>
-      </c>
-      <c r="T21" s="5" t="s">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
+      </c>
+      <c r="S21" s="3"/>
+      <c r="V21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U21" s="3">
-        <f t="shared" ref="U21" si="10">AVERAGE(U16:U20)</f>
-        <v>17.420000000000002</v>
-      </c>
-      <c r="V21" s="3">
-        <f t="shared" ref="V21" si="11">AVERAGE(V16:V20)</f>
-        <v>4.9800000000000004</v>
-      </c>
       <c r="W21" s="3">
-        <f t="shared" ref="W21" si="12">AVERAGE(W16:W20)</f>
-        <v>11.202</v>
+        <f t="shared" ref="W21" si="1">AVERAGE(W16:W20)</f>
+        <v>23.393999999999998</v>
       </c>
       <c r="X21" s="3">
-        <f t="shared" ref="X21" si="13">AVERAGE(X16:X20)</f>
-        <v>88.798000000000002</v>
+        <f t="shared" ref="X21" si="2">AVERAGE(X16:X20)</f>
+        <v>10.592000000000001</v>
       </c>
       <c r="Y21" s="3">
-        <f t="shared" ref="Y21" si="14">AVERAGE(Y16:Y20)</f>
-        <v>1.2</v>
+        <f t="shared" ref="Y21" si="3">AVERAGE(Y16:Y20)</f>
+        <v>19.294</v>
       </c>
       <c r="Z21" s="3">
-        <f t="shared" ref="Z21" si="15">AVERAGE(Z16:Z20)</f>
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Z21" si="4">AVERAGE(Z16:Z20)</f>
+        <v>80.705999999999989</v>
+      </c>
+      <c r="AA21" s="3">
+        <f t="shared" ref="AA21" si="5">AVERAGE(AA16:AA20)</f>
+        <v>1.4</v>
+      </c>
+      <c r="AB21" s="3">
+        <f t="shared" ref="AB21" si="6">AVERAGE(AB16:AB20)</f>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="E22" s="19"/>
       <c r="G22" s="19"/>
-      <c r="I22" s="21"/>
       <c r="J22" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K22" s="21"/>
       <c r="L22" s="2"/>
       <c r="P22" s="19"/>
       <c r="R22" s="19"/>
-      <c r="T22" s="2"/>
-      <c r="X22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="V22" s="2"/>
       <c r="Z22" s="19"/>
-    </row>
-    <row r="23" spans="1:26" ht="21" x14ac:dyDescent="0.4">
+      <c r="AB22" s="19"/>
+    </row>
+    <row r="23" spans="1:28" ht="21" x14ac:dyDescent="0.4">
       <c r="A23" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G23" s="32" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
       <c r="J23" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
@@ -4377,57 +4392,59 @@
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
+      <c r="S23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
-    </row>
-    <row r="24" spans="1:26" ht="21" x14ac:dyDescent="0.4">
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+    </row>
+    <row r="24" spans="1:28" ht="21" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E24" s="34">
-        <v>359</v>
+        <v>255</v>
       </c>
       <c r="F24" s="34">
-        <v>2586</v>
+        <v>2594</v>
       </c>
       <c r="G24" s="34">
-        <v>2945</v>
+        <v>2849</v>
       </c>
       <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="I24" s="38"/>
       <c r="J24" s="30"/>
       <c r="K24" s="14"/>
       <c r="L24" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P24" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q24" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R24" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T24" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="X24" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y24" s="32" t="s">
-        <v>52</v>
+      <c r="S24" s="32"/>
+      <c r="V24" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="Z24" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA24" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB24" s="32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B25" s="32" t="s">
         <v>13</v>
       </c>
@@ -4447,60 +4464,61 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
       <c r="O25" s="32"/>
       <c r="P25" s="34">
-        <v>359</v>
+        <v>255</v>
       </c>
       <c r="Q25" s="34">
-        <v>2586</v>
+        <v>2594</v>
       </c>
       <c r="R25" s="34">
-        <v>2945</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
+        <v>2849</v>
+      </c>
+      <c r="S25" s="34"/>
+      <c r="V25" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="W25" s="32"/>
-      <c r="X25" s="34">
-        <v>359</v>
-      </c>
-      <c r="Y25" s="34">
-        <v>2586</v>
-      </c>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
       <c r="Z25" s="34">
-        <v>2945</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+      <c r="AA25" s="34">
+        <v>2934</v>
+      </c>
+      <c r="AB25" s="34">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26">
-        <v>31.47</v>
+        <v>45.59</v>
       </c>
       <c r="C26">
-        <v>5.41</v>
+        <v>5.45</v>
       </c>
       <c r="D26">
-        <v>18.440000000000001</v>
+        <v>32.270000000000003</v>
       </c>
       <c r="E26">
-        <v>81.56</v>
+        <v>67.73</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M26" s="32" t="s">
         <v>13</v>
@@ -4520,61 +4538,62 @@
       <c r="R26" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="U26" s="32" t="s">
+      <c r="S26" s="32"/>
+      <c r="W26" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="V26" s="32" t="s">
+      <c r="X26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="W26" s="32" t="s">
+      <c r="Y26" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="X26" s="32" t="s">
+      <c r="Z26" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Y26" s="32" t="s">
+      <c r="AA26" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="Z26" s="32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB26" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27">
-        <v>24.74</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="C27">
-        <v>11.02</v>
+        <v>10.84</v>
       </c>
       <c r="D27">
-        <v>17.88</v>
+        <v>31.48</v>
       </c>
       <c r="E27">
-        <v>82.12</v>
+        <v>68.52</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L27" t="s">
         <v>4</v>
       </c>
       <c r="M27">
-        <v>22.03</v>
+        <v>41.18</v>
       </c>
       <c r="N27">
-        <v>11.06</v>
+        <v>10.31</v>
       </c>
       <c r="O27">
-        <v>16.55</v>
+        <v>30.46</v>
       </c>
       <c r="P27">
-        <v>83.45</v>
+        <v>69.540000000000006</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -4582,295 +4601,296 @@
       <c r="R27">
         <v>6</v>
       </c>
-      <c r="T27" t="s">
+      <c r="V27" t="s">
         <v>4</v>
       </c>
-      <c r="U27">
-        <v>22.03</v>
-      </c>
-      <c r="V27">
-        <v>11.06</v>
-      </c>
       <c r="W27">
-        <v>16.55</v>
+        <v>28.36</v>
       </c>
       <c r="X27">
-        <v>83.45</v>
+        <v>17.21</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>23.58</v>
       </c>
       <c r="Z27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+        <v>76.42</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28">
-        <v>29.03</v>
+        <v>42.65</v>
       </c>
       <c r="C28">
-        <v>19.21</v>
+        <v>11.18</v>
       </c>
       <c r="D28">
-        <v>24.12</v>
+        <v>32.69</v>
       </c>
       <c r="E28">
-        <v>75.88</v>
+        <v>67.31</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L28" t="s">
         <v>5</v>
       </c>
       <c r="M28">
-        <v>24.74</v>
+        <v>42.65</v>
       </c>
       <c r="N28">
-        <v>11.02</v>
+        <v>7.23</v>
       </c>
       <c r="O28">
-        <v>17.88</v>
+        <v>30.18</v>
       </c>
       <c r="P28">
-        <v>82.12</v>
+        <v>69.819999999999993</v>
       </c>
       <c r="Q28">
         <v>1</v>
       </c>
       <c r="R28">
+        <v>7</v>
+      </c>
+      <c r="V28" t="s">
+        <v>5</v>
+      </c>
+      <c r="W28">
+        <v>31.34</v>
+      </c>
+      <c r="X28">
+        <v>11.55</v>
+      </c>
+      <c r="Y28">
+        <v>25.09</v>
+      </c>
+      <c r="Z28">
+        <v>74.91</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
         <v>4</v>
       </c>
-      <c r="T28" t="s">
-        <v>5</v>
-      </c>
-      <c r="U28">
-        <v>24.74</v>
-      </c>
-      <c r="V28">
-        <v>11.02</v>
-      </c>
-      <c r="W28">
-        <v>17.88</v>
-      </c>
-      <c r="X28">
-        <v>82.12</v>
-      </c>
-      <c r="Y28">
-        <v>1</v>
-      </c>
-      <c r="Z28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29">
-        <v>23.63</v>
+        <v>37.75</v>
       </c>
       <c r="C29">
-        <v>10.32</v>
+        <v>11.04</v>
       </c>
       <c r="D29">
-        <v>16.97</v>
+        <v>29.9</v>
       </c>
       <c r="E29">
-        <v>83.03</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="L29" t="s">
         <v>6</v>
       </c>
       <c r="M29">
-        <v>26.16</v>
+        <v>31.37</v>
       </c>
       <c r="N29">
-        <v>9.1</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="O29">
-        <v>17.63</v>
+        <v>29.22</v>
       </c>
       <c r="P29">
-        <v>82.37</v>
+        <v>70.78</v>
       </c>
       <c r="Q29">
         <v>1</v>
       </c>
       <c r="R29">
-        <v>3</v>
-      </c>
-      <c r="T29" t="s">
         <v>6</v>
       </c>
-      <c r="U29">
-        <v>26.16</v>
-      </c>
-      <c r="V29">
-        <v>9.1</v>
+      <c r="V29" t="s">
+        <v>6</v>
       </c>
       <c r="W29">
-        <v>17.63</v>
+        <v>31.34</v>
       </c>
       <c r="X29">
-        <v>82.37</v>
+        <v>10.14</v>
       </c>
       <c r="Y29">
-        <v>1</v>
+        <v>25.22</v>
       </c>
       <c r="Z29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+        <v>74.78</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="21">
-        <v>14.58</v>
-      </c>
-      <c r="C30" s="21">
-        <v>16.98</v>
-      </c>
-      <c r="D30" s="21">
-        <v>15.78</v>
-      </c>
-      <c r="E30" s="21">
-        <v>84.22</v>
-      </c>
-      <c r="F30" s="21">
-        <v>3</v>
-      </c>
-      <c r="G30" s="21">
-        <v>10</v>
+      <c r="B30">
+        <v>44.61</v>
+      </c>
+      <c r="C30">
+        <v>6.27</v>
+      </c>
+      <c r="D30">
+        <v>31.86</v>
+      </c>
+      <c r="E30">
+        <v>68.14</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
       </c>
       <c r="L30" t="s">
         <v>7</v>
       </c>
       <c r="M30">
-        <v>24.32</v>
+        <v>41.18</v>
       </c>
       <c r="N30">
-        <v>11.19</v>
+        <v>9.06</v>
       </c>
       <c r="O30">
-        <v>17.75</v>
+        <v>28.14</v>
       </c>
       <c r="P30">
-        <v>82.25</v>
+        <v>71.86</v>
       </c>
       <c r="Q30">
         <v>1</v>
       </c>
       <c r="R30">
-        <v>8</v>
-      </c>
-      <c r="T30" t="s">
+        <v>5</v>
+      </c>
+      <c r="V30" t="s">
         <v>7</v>
       </c>
-      <c r="U30">
-        <v>24.32</v>
-      </c>
-      <c r="V30">
-        <v>11.19</v>
-      </c>
       <c r="W30">
-        <v>17.75</v>
+        <v>36.01</v>
       </c>
       <c r="X30">
-        <v>82.25</v>
+        <v>10.44</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>28.45</v>
       </c>
       <c r="Z30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+        <v>71.55</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="3">
-        <f t="shared" ref="B31:G31" si="16">AVERAGE(B26:B30)</f>
-        <v>24.689999999999998</v>
-      </c>
-      <c r="C31" s="3">
-        <f t="shared" si="16"/>
-        <v>12.587999999999999</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" si="16"/>
-        <v>18.637999999999998</v>
-      </c>
-      <c r="E31" s="3">
-        <f t="shared" si="16"/>
-        <v>81.362000000000009</v>
-      </c>
-      <c r="F31" s="3">
-        <f t="shared" si="16"/>
-        <v>2.4</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="16"/>
-        <v>13.2</v>
+      <c r="B31">
+        <f>AVERAGE(B26:B30)</f>
+        <v>42.160000000000004</v>
+      </c>
+      <c r="C31">
+        <f>AVERAGE(C26:C30)</f>
+        <v>8.9559999999999995</v>
+      </c>
+      <c r="D31">
+        <f>AVERAGE(D26:D30)</f>
+        <v>31.639999999999997</v>
+      </c>
+      <c r="E31" s="24">
+        <f>AVERAGE(E26:E30)</f>
+        <v>68.359999999999985</v>
+      </c>
+      <c r="F31">
+        <f>AVERAGE(F26:F30)</f>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f>AVERAGE(G26:G30)</f>
+        <v>5.2</v>
       </c>
       <c r="L31" s="20" t="s">
         <v>8</v>
       </c>
       <c r="M31" s="21">
-        <v>24.07</v>
+        <v>42.65</v>
       </c>
       <c r="N31" s="21">
-        <v>10.53</v>
+        <v>6.22</v>
       </c>
       <c r="O31" s="21">
-        <v>17.3</v>
+        <v>30.47</v>
       </c>
       <c r="P31" s="21">
-        <v>82.7</v>
+        <v>69.53</v>
       </c>
       <c r="Q31" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R31" s="21">
-        <v>6</v>
-      </c>
-      <c r="T31" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="S31" s="21"/>
+      <c r="V31" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="U31" s="21">
-        <v>24.07</v>
-      </c>
-      <c r="V31" s="21">
-        <v>10.53</v>
-      </c>
       <c r="W31" s="21">
-        <v>17.3</v>
+        <v>44.22</v>
       </c>
       <c r="X31" s="21">
-        <v>82.7</v>
+        <v>18.920000000000002</v>
       </c>
       <c r="Y31" s="21">
-        <v>2</v>
+        <v>33.17</v>
       </c>
       <c r="Z31" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="21" x14ac:dyDescent="0.4">
+        <v>66.83</v>
+      </c>
+      <c r="AA31" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="33"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
@@ -4879,55 +4899,56 @@
         <v>9</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" ref="M32:R32" si="17">AVERAGE(M27:M31)</f>
-        <v>24.263999999999999</v>
+        <f t="shared" ref="M32:R32" si="7">AVERAGE(M27:M31)</f>
+        <v>39.805999999999997</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="17"/>
-        <v>10.58</v>
+        <f t="shared" si="7"/>
+        <v>10.526</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" si="17"/>
-        <v>17.422000000000001</v>
+        <f t="shared" si="7"/>
+        <v>29.693999999999999</v>
       </c>
       <c r="P32" s="3">
-        <f t="shared" si="17"/>
-        <v>82.578000000000003</v>
+        <f t="shared" si="7"/>
+        <v>70.305999999999997</v>
       </c>
       <c r="Q32" s="3">
-        <f t="shared" si="17"/>
-        <v>1.2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>5.4</v>
       </c>
-      <c r="T32" s="5" t="s">
+      <c r="S32" s="3"/>
+      <c r="V32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U32" s="3">
-        <f t="shared" ref="U32" si="18">AVERAGE(U27:U31)</f>
-        <v>24.263999999999999</v>
-      </c>
-      <c r="V32" s="3">
-        <f t="shared" ref="V32" si="19">AVERAGE(V27:V31)</f>
-        <v>10.58</v>
-      </c>
       <c r="W32" s="3">
-        <f t="shared" ref="W32" si="20">AVERAGE(W27:W31)</f>
-        <v>17.422000000000001</v>
+        <f t="shared" ref="W32" si="8">AVERAGE(W27:W31)</f>
+        <v>34.254000000000005</v>
       </c>
       <c r="X32" s="3">
-        <f t="shared" ref="X32" si="21">AVERAGE(X27:X31)</f>
-        <v>82.578000000000003</v>
+        <f t="shared" ref="X32" si="9">AVERAGE(X27:X31)</f>
+        <v>13.652000000000001</v>
       </c>
       <c r="Y32" s="3">
-        <f t="shared" ref="Y32" si="22">AVERAGE(Y27:Y31)</f>
-        <v>1.2</v>
+        <f t="shared" ref="Y32" si="10">AVERAGE(Y27:Y31)</f>
+        <v>27.101999999999997</v>
       </c>
       <c r="Z32" s="3">
-        <f t="shared" ref="Z32" si="23">AVERAGE(Z27:Z31)</f>
-        <v>5.4</v>
+        <f t="shared" ref="Z32" si="11">AVERAGE(Z27:Z31)</f>
+        <v>72.897999999999996</v>
+      </c>
+      <c r="AA32" s="3">
+        <f t="shared" ref="AA32" si="12">AVERAGE(AA27:AA31)</f>
+        <v>1</v>
+      </c>
+      <c r="AB32" s="3">
+        <f t="shared" ref="AB32" si="13">AVERAGE(AB27:AB31)</f>
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>
@@ -4940,7 +4961,7 @@
   <dimension ref="A1:AE54"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4952,7 +4973,7 @@
   <sheetData>
     <row r="1" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -4960,10 +4981,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
@@ -4973,7 +4994,7 @@
       </c>
       <c r="M2" s="15"/>
       <c r="N2" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>16</v>
@@ -4983,7 +5004,7 @@
       </c>
       <c r="U2" s="15"/>
       <c r="V2" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>16</v>
@@ -5002,7 +5023,7 @@
       </c>
       <c r="M3" s="4"/>
       <c r="N3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O3" s="19">
         <v>3071</v>
@@ -5012,7 +5033,7 @@
       </c>
       <c r="U3" s="4"/>
       <c r="V3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W3" s="19">
         <v>2849</v>
@@ -5108,10 +5129,10 @@
         <v>7.23</v>
       </c>
       <c r="D6">
-        <v>12.4</v>
+        <v>14.49</v>
       </c>
       <c r="E6">
-        <v>87.6</v>
+        <v>85.51</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -5129,10 +5150,10 @@
         <v>11.3</v>
       </c>
       <c r="L6">
-        <v>18.190000000000001</v>
+        <v>21.6</v>
       </c>
       <c r="M6">
-        <v>81.81</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -5150,10 +5171,10 @@
         <v>5.45</v>
       </c>
       <c r="T6">
-        <v>25.52</v>
+        <v>32.270000000000003</v>
       </c>
       <c r="U6">
-        <v>74.48</v>
+        <v>67.73</v>
       </c>
       <c r="V6">
         <v>1</v>
@@ -5170,19 +5191,19 @@
         <v>17.100000000000001</v>
       </c>
       <c r="C7">
-        <v>6.16</v>
+        <v>6.25</v>
       </c>
       <c r="D7">
-        <v>11.63</v>
+        <v>13.59</v>
       </c>
       <c r="E7">
-        <v>88.37</v>
+        <v>86.41</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>
@@ -5194,10 +5215,10 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="L7">
-        <v>23.55</v>
+        <v>25.87</v>
       </c>
       <c r="M7">
-        <v>76.45</v>
+        <v>74.13</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -5215,10 +5236,10 @@
         <v>10.84</v>
       </c>
       <c r="T7">
-        <v>25.52</v>
+        <v>31.48</v>
       </c>
       <c r="U7">
-        <v>74.48</v>
+        <v>68.52</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -5238,10 +5259,10 @@
         <v>7.36</v>
       </c>
       <c r="D8">
-        <v>11.32</v>
+        <v>12.09</v>
       </c>
       <c r="E8">
-        <v>88.68</v>
+        <v>87.91</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -5259,10 +5280,10 @@
         <v>7</v>
       </c>
       <c r="L8">
-        <v>20.11</v>
+        <v>24.13</v>
       </c>
       <c r="M8">
-        <v>79.89</v>
+        <v>75.87</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -5280,10 +5301,10 @@
         <v>11.18</v>
       </c>
       <c r="T8">
-        <v>26.91</v>
+        <v>32.69</v>
       </c>
       <c r="U8">
-        <v>73.09</v>
+        <v>67.31</v>
       </c>
       <c r="V8">
         <v>1</v>
@@ -5303,10 +5324,10 @@
         <v>6.8</v>
       </c>
       <c r="D9">
-        <v>12.34</v>
+        <v>14.01</v>
       </c>
       <c r="E9">
-        <v>87.66</v>
+        <v>85.99</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -5324,10 +5345,10 @@
         <v>11.71</v>
       </c>
       <c r="L9">
-        <v>18.09</v>
+        <v>20.28</v>
       </c>
       <c r="M9">
-        <v>81.91</v>
+        <v>79.72</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -5345,10 +5366,10 @@
         <v>11.04</v>
       </c>
       <c r="T9">
-        <v>24.39</v>
+        <v>29.9</v>
       </c>
       <c r="U9">
-        <v>75.61</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="V9">
         <v>1</v>
@@ -5368,10 +5389,10 @@
         <v>5.65</v>
       </c>
       <c r="D10">
-        <v>11.87</v>
+        <v>13.87</v>
       </c>
       <c r="E10">
-        <v>88.13</v>
+        <v>86.13</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -5389,13 +5410,13 @@
         <v>11.57</v>
       </c>
       <c r="L10">
-        <v>17.809999999999999</v>
+        <v>20.21</v>
       </c>
       <c r="M10">
-        <v>82.19</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <v>4</v>
@@ -5410,10 +5431,10 @@
         <v>6.27</v>
       </c>
       <c r="T10">
-        <v>25.44</v>
+        <v>31.86</v>
       </c>
       <c r="U10">
-        <v>74.56</v>
+        <v>68.14</v>
       </c>
       <c r="V10">
         <v>1</v>
@@ -5423,33 +5444,69 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f>AVERAGE(B6:B10)</f>
+        <v>17.184000000000001</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(C6:C10)</f>
+        <v>6.6579999999999995</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE(D6:D10)</f>
+        <v>13.61</v>
+      </c>
       <c r="E11" s="24">
         <f>AVERAGE(E6:E10)</f>
-        <v>88.087999999999994</v>
+        <v>86.390000000000015</v>
       </c>
       <c r="F11">
         <f>AVERAGE(F6:F10)</f>
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G11">
         <f>AVERAGE(G6:G10)</f>
-        <v>8.1999999999999993</v>
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <f>AVERAGE(J6:J10)</f>
+        <v>29.128000000000004</v>
+      </c>
+      <c r="K11">
+        <f>AVERAGE(K6:K10)</f>
+        <v>9.9740000000000002</v>
+      </c>
+      <c r="L11">
+        <f>AVERAGE(L6:L10)</f>
+        <v>22.417999999999999</v>
       </c>
       <c r="M11" s="24">
         <f>AVERAGE(M6:M10)</f>
-        <v>80.449999999999989</v>
+        <v>77.582000000000008</v>
       </c>
       <c r="N11">
         <f>AVERAGE(N6:N10)</f>
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O11">
         <f>AVERAGE(O6:O10)</f>
         <v>6.2</v>
       </c>
+      <c r="R11">
+        <f>AVERAGE(R6:R10)</f>
+        <v>42.160000000000004</v>
+      </c>
+      <c r="S11">
+        <f>AVERAGE(S6:S10)</f>
+        <v>8.9559999999999995</v>
+      </c>
+      <c r="T11">
+        <f>AVERAGE(T6:T10)</f>
+        <v>31.639999999999997</v>
+      </c>
       <c r="U11" s="24">
         <f>AVERAGE(U6:U10)</f>
-        <v>74.444000000000003</v>
+        <v>68.359999999999985</v>
       </c>
       <c r="V11">
         <f>AVERAGE(V6:V10)</f>
@@ -5494,20 +5551,24 @@
     </row>
     <row r="14" spans="1:31" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="15"/>
+      <c r="F14" s="14">
+        <f>AVERAGE(J6:L10)</f>
+        <v>20.506666666666664</v>
+      </c>
       <c r="I14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M14" s="15"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U14" s="15"/>
       <c r="AA14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AE14" s="15"/>
     </row>
@@ -5516,10 +5577,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G15" s="19">
         <v>3404</v>
@@ -5528,10 +5589,10 @@
         <v>12</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O15" s="19">
         <v>3071</v>
@@ -5541,10 +5602,10 @@
         <v>12</v>
       </c>
       <c r="U15" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W15" s="19">
         <v>2849</v>
@@ -6061,7 +6122,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="9"/>
       <c r="N29" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O29" t="s">
         <v>0</v>
@@ -6072,7 +6133,7 @@
       <c r="T29" s="7"/>
       <c r="U29" s="9"/>
       <c r="V29" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W29" t="s">
         <v>0</v>
@@ -6083,10 +6144,10 @@
         <v>12</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G30" s="19">
         <v>3624</v>
@@ -6096,7 +6157,7 @@
       </c>
       <c r="M30" s="4"/>
       <c r="N30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O30" s="19">
         <v>3620</v>
@@ -6106,7 +6167,7 @@
       </c>
       <c r="U30" s="4"/>
       <c r="V30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W30" s="19">
         <v>3604</v>
@@ -6605,37 +6666,37 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment_Resulsts/SaFIN(FRIE)_HFS_Classification_Results.xlsx
+++ b/Experiment_Resulsts/SaFIN(FRIE)_HFS_Classification_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\htet_predict_bank_failure\Experiment_Resulsts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htetnaing/Development/htet_predict_bank_failure/Experiment_Resulsts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048819CB-C0F6-46D4-9046-D87A1DDCC9EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E3C3F4-E14F-074B-8EAE-D095550A3E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{59BFD352-3181-4B2E-9A02-E25DF6E8A988}"/>
+    <workbookView xWindow="32320" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{59BFD352-3181-4B2E-9A02-E25DF6E8A988}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="59">
   <si>
     <t>Now</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Full_Recon</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -724,30 +727,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6C734-146C-49B9-BE90-0FF3605E587B}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" customWidth="1"/>
-    <col min="12" max="12" width="20.109375" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="15.88671875" customWidth="1"/>
-    <col min="18" max="18" width="11.109375" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" customWidth="1"/>
+    <col min="18" max="18" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>51</v>
       </c>
@@ -773,7 +776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -802,7 +805,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
         <v>13</v>
       </c>
@@ -840,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -884,7 +887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -928,7 +931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -972,7 +975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
@@ -1116,10 +1119,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="1:18" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>51</v>
       </c>
@@ -1140,7 +1143,7 @@
       <c r="Q12" s="32"/>
       <c r="R12" s="32"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="E13" s="32" t="s">
         <v>49</v>
@@ -1166,7 +1169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
         <v>13</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1361,6 +1364,9 @@
       <c r="G18">
         <v>9</v>
       </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
       <c r="J18" t="s">
         <v>32</v>
       </c>
@@ -1386,7 +1392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1433,7 +1439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>8</v>
       </c>
@@ -1480,7 +1486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -1539,7 +1545,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="E22" s="19"/>
       <c r="G22" s="19"/>
@@ -1552,7 +1558,7 @@
       <c r="P22" s="19"/>
       <c r="R22" s="19"/>
     </row>
-    <row r="23" spans="1:18" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>51</v>
       </c>
@@ -1569,7 +1575,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B25" s="32" t="s">
         <v>13</v>
       </c>
@@ -1640,7 +1646,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1681,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1769,7 +1775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -1857,7 +1863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
@@ -1907,7 +1913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
@@ -1940,13 +1946,13 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="21" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="L33" s="33"/>
       <c r="P33" s="32"/>
       <c r="Q33" s="32"/>
       <c r="R33" s="32"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1955,7 +1961,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:18" s="14" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" s="14" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
         <v>30</v>
       </c>
@@ -1966,7 +1972,7 @@
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:18" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="21" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -1994,7 +2000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>25</v>
       </c>
@@ -2012,7 +2018,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
         <v>13</v>
       </c>
@@ -2041,7 +2047,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2082,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2126,7 +2132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -2170,7 +2176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2214,7 +2220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2258,7 +2264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E46" s="2">
         <f>AVERAGE(E41:E45)</f>
         <v>83.418000000000006</v>
@@ -2293,7 +2299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>9</v>
       </c>
@@ -2316,7 +2322,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -2334,7 +2340,7 @@
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
     </row>
-    <row r="49" spans="1:18" ht="21" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
@@ -2356,7 +2362,7 @@
       <c r="Q49" s="16"/>
       <c r="R49" s="16"/>
     </row>
-    <row r="50" spans="1:18" ht="21" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
@@ -2378,7 +2384,7 @@
       <c r="Q50" s="14"/>
       <c r="R50" s="14"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>28</v>
       </c>
@@ -2397,7 +2403,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
         <v>13</v>
       </c>
@@ -2431,7 +2437,7 @@
       <c r="Q52" s="12"/>
       <c r="R52" s="12"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2476,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2523,7 +2529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -2570,7 +2576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2617,7 +2623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2664,7 +2670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E58" s="2">
         <f>AVERAGE(E53:E57)</f>
         <v>72.888000000000005</v>
@@ -2702,7 +2708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>9</v>
       </c>
@@ -2728,7 +2734,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -2751,7 +2757,7 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
     </row>
-    <row r="61" spans="1:18" ht="21" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>26</v>
       </c>
@@ -2777,7 +2783,7 @@
       <c r="Q61" s="16"/>
       <c r="R61" s="16"/>
     </row>
-    <row r="62" spans="1:18" ht="21" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>12</v>
       </c>
@@ -2803,7 +2809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>29</v>
       </c>
@@ -2821,7 +2827,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
         <v>13</v>
       </c>
@@ -2850,7 +2856,7 @@
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -2891,7 +2897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -2979,7 +2985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -3023,7 +3029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E70" s="24">
         <f>AVERAGE(E65:E69)</f>
         <v>72.873999999999995</v>
@@ -3102,7 +3108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>9</v>
       </c>
@@ -3125,7 +3131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L72" s="7" t="s">
         <v>9</v>
       </c>
@@ -3147,18 +3153,18 @@
   <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="11.5546875" style="37"/>
-    <col min="12" max="12" width="14.77734375" customWidth="1"/>
-    <col min="20" max="20" width="11.5546875" style="37"/>
-    <col min="21" max="21" width="11.5546875" style="21"/>
+    <col min="9" max="9" width="11.5" style="37"/>
+    <col min="12" max="12" width="14.83203125" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="37"/>
+    <col min="21" max="21" width="11.5" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -3169,7 +3175,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>54</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -3250,7 +3256,7 @@
         <v>3624</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
         <v>13</v>
       </c>
@@ -3307,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3372,7 +3378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3437,7 +3443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3502,7 +3508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3567,7 +3573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3632,90 +3638,90 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B10">
-        <f>AVERAGE(B5:B9)</f>
+      <c r="B10" s="5">
+        <f t="shared" ref="B10:G10" si="0">AVERAGE(B5:B9)</f>
         <v>17.184000000000001</v>
       </c>
-      <c r="C10">
-        <f>AVERAGE(C5:C9)</f>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
         <v>6.6579999999999995</v>
       </c>
-      <c r="D10">
-        <f>AVERAGE(D5:D9)</f>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
         <v>13.61</v>
       </c>
-      <c r="E10" s="24">
-        <f>AVERAGE(E5:E9)</f>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
         <v>86.390000000000015</v>
       </c>
-      <c r="F10">
-        <f>AVERAGE(F5:F9)</f>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="G10">
-        <f>AVERAGE(G5:G9)</f>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M10">
-        <f>AVERAGE(M5:M9)</f>
+      <c r="M10" s="5">
+        <f t="shared" ref="M10:R10" si="1">AVERAGE(M5:M9)</f>
         <v>18.324000000000002</v>
       </c>
-      <c r="N10">
-        <f>AVERAGE(N5:N9)</f>
+      <c r="N10" s="5">
+        <f t="shared" si="1"/>
         <v>5.202</v>
       </c>
-      <c r="O10">
-        <f>AVERAGE(O5:O9)</f>
+      <c r="O10" s="5">
+        <f t="shared" si="1"/>
         <v>13.883999999999997</v>
       </c>
-      <c r="P10" s="24">
-        <f>AVERAGE(P5:P9)</f>
+      <c r="P10" s="5">
+        <f t="shared" si="1"/>
         <v>86.116</v>
       </c>
-      <c r="Q10">
-        <f>AVERAGE(Q5:Q9)</f>
+      <c r="Q10" s="5">
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="R10">
-        <f>AVERAGE(R5:R9)</f>
+      <c r="R10" s="5">
+        <f t="shared" si="1"/>
         <v>6.2</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="W10">
-        <f>AVERAGE(W5:W9)</f>
+      <c r="W10" s="5">
+        <f t="shared" ref="W10:AB10" si="2">AVERAGE(W5:W9)</f>
         <v>18.405999999999999</v>
       </c>
-      <c r="X10">
-        <f>AVERAGE(X5:X9)</f>
+      <c r="X10" s="5">
+        <f t="shared" si="2"/>
         <v>19.181999999999999</v>
       </c>
-      <c r="Y10">
-        <f>AVERAGE(Y5:Y9)</f>
+      <c r="Y10" s="5">
+        <f t="shared" si="2"/>
         <v>21.931999999999999</v>
       </c>
-      <c r="Z10" s="24">
-        <f>AVERAGE(Z5:Z9)</f>
+      <c r="Z10" s="5">
+        <f t="shared" si="2"/>
         <v>78.067999999999998</v>
       </c>
-      <c r="AA10">
-        <f>AVERAGE(AA5:AA9)</f>
+      <c r="AA10" s="5">
+        <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="AB10">
-        <f>AVERAGE(AB5:AB9)</f>
+      <c r="AB10" s="5">
+        <f t="shared" si="2"/>
         <v>8.4</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -3742,7 +3748,7 @@
       <c r="AA11" s="16"/>
       <c r="AB11" s="16"/>
     </row>
-    <row r="12" spans="1:28" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>54</v>
       </c>
@@ -3769,7 +3775,7 @@
       <c r="AA12" s="32"/>
       <c r="AB12" s="32"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="E13" s="32" t="s">
         <v>49</v>
@@ -3806,7 +3812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -3859,7 +3865,7 @@
         <v>3620</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
         <v>13</v>
       </c>
@@ -3920,7 +3926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -3988,7 +3994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -4056,7 +4062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -4124,7 +4130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4192,7 +4198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>8</v>
       </c>
@@ -4261,32 +4267,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B21">
-        <f>AVERAGE(B16:B20)</f>
+      <c r="B21" s="5">
+        <f t="shared" ref="B21:G21" si="3">AVERAGE(B16:B20)</f>
         <v>29.128000000000004</v>
       </c>
-      <c r="C21">
-        <f>AVERAGE(C16:C20)</f>
+      <c r="C21" s="5">
+        <f t="shared" si="3"/>
         <v>9.9740000000000002</v>
       </c>
-      <c r="D21">
-        <f>AVERAGE(D16:D20)</f>
+      <c r="D21" s="5">
+        <f t="shared" si="3"/>
         <v>22.417999999999999</v>
       </c>
-      <c r="E21" s="24">
-        <f>AVERAGE(E16:E20)</f>
+      <c r="E21" s="5">
+        <f t="shared" si="3"/>
         <v>77.582000000000008</v>
       </c>
-      <c r="F21">
-        <f>AVERAGE(F16:F20)</f>
+      <c r="F21" s="5">
+        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="G21">
-        <f>AVERAGE(G16:G20)</f>
+      <c r="G21" s="5">
+        <f t="shared" si="3"/>
         <v>6.2</v>
       </c>
       <c r="J21" t="s">
@@ -4295,60 +4301,60 @@
       <c r="L21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M21" s="3">
-        <f t="shared" ref="M21:R21" si="0">AVERAGE(M16:M20)</f>
+      <c r="M21" s="5">
+        <f t="shared" ref="M21:R21" si="4">AVERAGE(M16:M20)</f>
         <v>25.224</v>
       </c>
-      <c r="N21" s="3">
-        <f t="shared" si="0"/>
+      <c r="N21" s="5">
+        <f t="shared" si="4"/>
         <v>10.802</v>
       </c>
-      <c r="O21" s="3">
-        <f t="shared" si="0"/>
+      <c r="O21" s="5">
+        <f t="shared" si="4"/>
         <v>20.577999999999999</v>
       </c>
-      <c r="P21" s="3">
-        <f t="shared" si="0"/>
+      <c r="P21" s="5">
+        <f t="shared" si="4"/>
         <v>79.421999999999997</v>
       </c>
-      <c r="Q21" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q21" s="5">
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
-      <c r="R21" s="3">
-        <f t="shared" si="0"/>
+      <c r="R21" s="5">
+        <f t="shared" si="4"/>
         <v>6.2</v>
       </c>
       <c r="S21" s="3"/>
       <c r="V21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="W21" s="3">
-        <f t="shared" ref="W21" si="1">AVERAGE(W16:W20)</f>
+      <c r="W21" s="5">
+        <f t="shared" ref="W21" si="5">AVERAGE(W16:W20)</f>
         <v>23.393999999999998</v>
       </c>
-      <c r="X21" s="3">
-        <f t="shared" ref="X21" si="2">AVERAGE(X16:X20)</f>
+      <c r="X21" s="5">
+        <f t="shared" ref="X21" si="6">AVERAGE(X16:X20)</f>
         <v>10.592000000000001</v>
       </c>
-      <c r="Y21" s="3">
-        <f t="shared" ref="Y21" si="3">AVERAGE(Y16:Y20)</f>
+      <c r="Y21" s="5">
+        <f t="shared" ref="Y21" si="7">AVERAGE(Y16:Y20)</f>
         <v>19.294</v>
       </c>
-      <c r="Z21" s="3">
-        <f t="shared" ref="Z21" si="4">AVERAGE(Z16:Z20)</f>
+      <c r="Z21" s="5">
+        <f t="shared" ref="Z21" si="8">AVERAGE(Z16:Z20)</f>
         <v>80.705999999999989</v>
       </c>
-      <c r="AA21" s="3">
-        <f t="shared" ref="AA21" si="5">AVERAGE(AA16:AA20)</f>
+      <c r="AA21" s="5">
+        <f t="shared" ref="AA21" si="9">AVERAGE(AA16:AA20)</f>
         <v>1.4</v>
       </c>
-      <c r="AB21" s="3">
-        <f t="shared" ref="AB21" si="6">AVERAGE(AB16:AB20)</f>
+      <c r="AB21" s="5">
+        <f t="shared" ref="AB21" si="10">AVERAGE(AB16:AB20)</f>
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="E22" s="19"/>
       <c r="G22" s="19"/>
@@ -4364,7 +4370,7 @@
       <c r="Z22" s="19"/>
       <c r="AB22" s="19"/>
     </row>
-    <row r="23" spans="1:28" ht="21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>54</v>
       </c>
@@ -4401,7 +4407,7 @@
       <c r="AA23" s="16"/>
       <c r="AB23" s="16"/>
     </row>
-    <row r="24" spans="1:28" ht="21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -4444,7 +4450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B25" s="32" t="s">
         <v>13</v>
       </c>
@@ -4498,7 +4504,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -4558,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -4623,7 +4629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -4688,7 +4694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -4753,7 +4759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -4818,32 +4824,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B31">
-        <f>AVERAGE(B26:B30)</f>
+      <c r="B31" s="5">
+        <f t="shared" ref="B31:G31" si="11">AVERAGE(B26:B30)</f>
         <v>42.160000000000004</v>
       </c>
-      <c r="C31">
-        <f>AVERAGE(C26:C30)</f>
+      <c r="C31" s="5">
+        <f t="shared" si="11"/>
         <v>8.9559999999999995</v>
       </c>
-      <c r="D31">
-        <f>AVERAGE(D26:D30)</f>
+      <c r="D31" s="5">
+        <f t="shared" si="11"/>
         <v>31.639999999999997</v>
       </c>
-      <c r="E31" s="24">
-        <f>AVERAGE(E26:E30)</f>
+      <c r="E31" s="5">
+        <f t="shared" si="11"/>
         <v>68.359999999999985</v>
       </c>
-      <c r="F31">
-        <f>AVERAGE(F26:F30)</f>
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <f>AVERAGE(G26:G30)</f>
+      <c r="F31" s="5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="11"/>
         <v>5.2</v>
       </c>
       <c r="L31" s="20" t="s">
@@ -4890,7 +4896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
@@ -4898,56 +4904,56 @@
       <c r="L32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M32" s="3">
-        <f t="shared" ref="M32:R32" si="7">AVERAGE(M27:M31)</f>
+      <c r="M32" s="5">
+        <f t="shared" ref="M32:R32" si="12">AVERAGE(M27:M31)</f>
         <v>39.805999999999997</v>
       </c>
-      <c r="N32" s="3">
-        <f t="shared" si="7"/>
+      <c r="N32" s="5">
+        <f t="shared" si="12"/>
         <v>10.526</v>
       </c>
-      <c r="O32" s="3">
-        <f t="shared" si="7"/>
+      <c r="O32" s="5">
+        <f t="shared" si="12"/>
         <v>29.693999999999999</v>
       </c>
-      <c r="P32" s="3">
-        <f t="shared" si="7"/>
+      <c r="P32" s="5">
+        <f t="shared" si="12"/>
         <v>70.305999999999997</v>
       </c>
-      <c r="Q32" s="3">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="R32" s="3">
-        <f t="shared" si="7"/>
+      <c r="Q32" s="5">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="R32" s="5">
+        <f t="shared" si="12"/>
         <v>5.4</v>
       </c>
       <c r="S32" s="3"/>
       <c r="V32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="W32" s="3">
-        <f t="shared" ref="W32" si="8">AVERAGE(W27:W31)</f>
+      <c r="W32" s="5">
+        <f t="shared" ref="W32" si="13">AVERAGE(W27:W31)</f>
         <v>34.254000000000005</v>
       </c>
-      <c r="X32" s="3">
-        <f t="shared" ref="X32" si="9">AVERAGE(X27:X31)</f>
+      <c r="X32" s="5">
+        <f t="shared" ref="X32" si="14">AVERAGE(X27:X31)</f>
         <v>13.652000000000001</v>
       </c>
-      <c r="Y32" s="3">
-        <f t="shared" ref="Y32" si="10">AVERAGE(Y27:Y31)</f>
+      <c r="Y32" s="5">
+        <f t="shared" ref="Y32" si="15">AVERAGE(Y27:Y31)</f>
         <v>27.101999999999997</v>
       </c>
-      <c r="Z32" s="3">
-        <f t="shared" ref="Z32" si="11">AVERAGE(Z27:Z31)</f>
+      <c r="Z32" s="5">
+        <f t="shared" ref="Z32" si="16">AVERAGE(Z27:Z31)</f>
         <v>72.897999999999996</v>
       </c>
-      <c r="AA32" s="3">
-        <f t="shared" ref="AA32" si="12">AVERAGE(AA27:AA31)</f>
-        <v>1</v>
-      </c>
-      <c r="AB32" s="3">
-        <f t="shared" ref="AB32" si="13">AVERAGE(AB27:AB31)</f>
+      <c r="AA32" s="5">
+        <f t="shared" ref="AA32" si="17">AVERAGE(AA27:AA31)</f>
+        <v>1</v>
+      </c>
+      <c r="AB32" s="5">
+        <f t="shared" ref="AB32" si="18">AVERAGE(AB27:AB31)</f>
         <v>6.6</v>
       </c>
     </row>
@@ -4964,19 +4970,19 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -5010,7 +5016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -5039,7 +5045,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -5062,7 +5068,7 @@
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
@@ -5118,7 +5124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5183,7 +5189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5248,7 +5254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5313,7 +5319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5378,7 +5384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5443,81 +5449,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B11">
-        <f>AVERAGE(B6:B10)</f>
+        <f t="shared" ref="B11:G11" si="0">AVERAGE(B6:B10)</f>
         <v>17.184000000000001</v>
       </c>
       <c r="C11">
-        <f>AVERAGE(C6:C10)</f>
+        <f t="shared" si="0"/>
         <v>6.6579999999999995</v>
       </c>
       <c r="D11">
-        <f>AVERAGE(D6:D10)</f>
+        <f t="shared" si="0"/>
         <v>13.61</v>
       </c>
       <c r="E11" s="24">
-        <f>AVERAGE(E6:E10)</f>
+        <f t="shared" si="0"/>
         <v>86.390000000000015</v>
       </c>
       <c r="F11">
-        <f>AVERAGE(F6:F10)</f>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="G11">
-        <f>AVERAGE(G6:G10)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J11">
-        <f>AVERAGE(J6:J10)</f>
+        <f t="shared" ref="J11:O11" si="1">AVERAGE(J6:J10)</f>
         <v>29.128000000000004</v>
       </c>
       <c r="K11">
-        <f>AVERAGE(K6:K10)</f>
+        <f t="shared" si="1"/>
         <v>9.9740000000000002</v>
       </c>
       <c r="L11">
-        <f>AVERAGE(L6:L10)</f>
+        <f t="shared" si="1"/>
         <v>22.417999999999999</v>
       </c>
       <c r="M11" s="24">
-        <f>AVERAGE(M6:M10)</f>
+        <f t="shared" si="1"/>
         <v>77.582000000000008</v>
       </c>
       <c r="N11">
-        <f>AVERAGE(N6:N10)</f>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="O11">
-        <f>AVERAGE(O6:O10)</f>
+        <f t="shared" si="1"/>
         <v>6.2</v>
       </c>
       <c r="R11">
-        <f>AVERAGE(R6:R10)</f>
+        <f t="shared" ref="R11:W11" si="2">AVERAGE(R6:R10)</f>
         <v>42.160000000000004</v>
       </c>
       <c r="S11">
-        <f>AVERAGE(S6:S10)</f>
+        <f t="shared" si="2"/>
         <v>8.9559999999999995</v>
       </c>
       <c r="T11">
-        <f>AVERAGE(T6:T10)</f>
+        <f t="shared" si="2"/>
         <v>31.639999999999997</v>
       </c>
       <c r="U11" s="24">
-        <f>AVERAGE(U6:U10)</f>
+        <f t="shared" si="2"/>
         <v>68.359999999999985</v>
       </c>
       <c r="V11">
-        <f>AVERAGE(V6:V10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W11">
-        <f>AVERAGE(W6:W10)</f>
+        <f t="shared" si="2"/>
         <v>5.2</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -5546,10 +5552,10 @@
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
     </row>
-    <row r="13" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="1:31" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -5572,7 +5578,7 @@
       </c>
       <c r="AE14" s="15"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -5611,7 +5617,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -5638,7 +5644,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
@@ -5697,7 +5703,7 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -5762,7 +5768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -5827,7 +5833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -5892,7 +5898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -5957,7 +5963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -6022,7 +6028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E23" s="24">
         <f>AVERAGE(E18:E22)</f>
         <v>88.426000000000016</v>
@@ -6060,7 +6066,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>9</v>
       </c>
@@ -6093,10 +6099,10 @@
       <c r="Y24" s="21"/>
       <c r="Z24" s="21"/>
     </row>
-    <row r="25" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E25" s="17"/>
     </row>
-    <row r="28" spans="1:26" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:26" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -6106,7 +6112,7 @@
       </c>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -6139,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
@@ -6173,7 +6179,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -6196,7 +6202,7 @@
       <c r="V31" s="23"/>
       <c r="W31" s="23"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>13</v>
       </c>
@@ -6252,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -6317,7 +6323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -6382,7 +6388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -6447,7 +6453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -6512,7 +6518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -6577,7 +6583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E38" s="2">
         <f>AVERAGE(E33:E37)</f>
         <v>79.33</v>
@@ -6615,7 +6621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>9</v>
       </c>
@@ -6644,57 +6650,57 @@
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>43</v>
       </c>

--- a/Experiment_Resulsts/SaFIN(FRIE)_HFS_Classification_Results.xlsx
+++ b/Experiment_Resulsts/SaFIN(FRIE)_HFS_Classification_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htetnaing/Development/htet_predict_bank_failure/Experiment_Resulsts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E3C3F4-E14F-074B-8EAE-D095550A3E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB6F649-E497-0E4F-8409-0393A3E61F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32320" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{59BFD352-3181-4B2E-9A02-E25DF6E8A988}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="60">
   <si>
     <t>Now</t>
   </si>
@@ -206,10 +206,13 @@
     <t>Increased_Recon</t>
   </si>
   <si>
-    <t>Full_Recon</t>
+    <t>`</t>
   </si>
   <si>
-    <t>`</t>
+    <t>Full_Recon_Anfis</t>
+  </si>
+  <si>
+    <t>Full_Recon_Denfis</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1368,7 @@
         <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J18" t="s">
         <v>32</v>
@@ -3150,10 +3153,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D07C55-6007-C646-9152-6264139E81A7}">
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3162,9 +3165,10 @@
     <col min="12" max="12" width="14.83203125" customWidth="1"/>
     <col min="20" max="20" width="11.5" style="37"/>
     <col min="21" max="21" width="11.5" style="21"/>
+    <col min="30" max="30" width="11.5" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -3172,10 +3176,13 @@
         <v>56</v>
       </c>
       <c r="V1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>54</v>
       </c>
@@ -3213,8 +3220,20 @@
       <c r="AB2" s="32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL2" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -3255,8 +3274,20 @@
       <c r="AB3" s="19">
         <v>3624</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ3" s="19">
+        <v>690</v>
+      </c>
+      <c r="AK3">
+        <v>2934</v>
+      </c>
+      <c r="AL3" s="19">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
         <v>13</v>
       </c>
@@ -3312,8 +3343,26 @@
       <c r="AB4" s="32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AG4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3377,8 +3426,29 @@
       <c r="AB5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5">
+        <v>20.11</v>
+      </c>
+      <c r="AH5">
+        <v>5.41</v>
+      </c>
+      <c r="AI5">
+        <v>15.04</v>
+      </c>
+      <c r="AJ5">
+        <v>84.96</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3442,8 +3512,29 @@
       <c r="AB6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG6">
+        <v>22.46</v>
+      </c>
+      <c r="AH6">
+        <v>4.13</v>
+      </c>
+      <c r="AI6">
+        <v>16.12</v>
+      </c>
+      <c r="AJ6">
+        <v>83.88</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3507,8 +3598,29 @@
       <c r="AB7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG7">
+        <v>25.36</v>
+      </c>
+      <c r="AH7">
+        <v>5.88</v>
+      </c>
+      <c r="AI7">
+        <v>20.23</v>
+      </c>
+      <c r="AJ7">
+        <v>79.77</v>
+      </c>
+      <c r="AK7">
+        <v>2</v>
+      </c>
+      <c r="AL7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3572,8 +3684,29 @@
       <c r="AB8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG8">
+        <v>18.3</v>
+      </c>
+      <c r="AH8">
+        <v>5.2</v>
+      </c>
+      <c r="AI8">
+        <v>13.62</v>
+      </c>
+      <c r="AJ8">
+        <v>86.38</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3637,8 +3770,29 @@
       <c r="AB9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG9">
+        <v>5.8</v>
+      </c>
+      <c r="AH9">
+        <v>75.290000000000006</v>
+      </c>
+      <c r="AI9">
+        <v>44.65</v>
+      </c>
+      <c r="AJ9">
+        <v>55.35</v>
+      </c>
+      <c r="AK9">
+        <v>3</v>
+      </c>
+      <c r="AL9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
@@ -3720,8 +3874,35 @@
         <f t="shared" si="2"/>
         <v>8.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG10" s="5">
+        <f t="shared" ref="AG10:AL10" si="3">AVERAGE(AG5:AG9)</f>
+        <v>18.405999999999999</v>
+      </c>
+      <c r="AH10" s="5">
+        <f t="shared" si="3"/>
+        <v>19.181999999999999</v>
+      </c>
+      <c r="AI10" s="5">
+        <f t="shared" si="3"/>
+        <v>21.931999999999999</v>
+      </c>
+      <c r="AJ10" s="5">
+        <f t="shared" si="3"/>
+        <v>78.067999999999998</v>
+      </c>
+      <c r="AK10" s="5">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="AL10" s="5">
+        <f t="shared" si="3"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -3747,8 +3928,15 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="16"/>
       <c r="AB11" s="16"/>
-    </row>
-    <row r="12" spans="1:28" ht="21" x14ac:dyDescent="0.25">
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+    </row>
+    <row r="12" spans="1:38" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>54</v>
       </c>
@@ -3774,8 +3962,14 @@
       <c r="Z12" s="32"/>
       <c r="AA12" s="32"/>
       <c r="AB12" s="32"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="E13" s="32" t="s">
         <v>49</v>
@@ -3811,8 +4005,18 @@
       <c r="AB13" s="32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF13" s="2"/>
+      <c r="AJ13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK13" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL13" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -3864,8 +4068,23 @@
       <c r="AB14" s="34">
         <v>3620</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="34">
+        <v>686</v>
+      </c>
+      <c r="AK14" s="34">
+        <v>2934</v>
+      </c>
+      <c r="AL14" s="34">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
         <v>13</v>
       </c>
@@ -3925,8 +4144,26 @@
       <c r="AB15" s="32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AG15" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI15" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ15" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL15" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -3993,8 +4230,29 @@
       <c r="AB16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG16">
+        <v>21.49</v>
+      </c>
+      <c r="AH16">
+        <v>9.42</v>
+      </c>
+      <c r="AI16">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="AJ16">
+        <v>83.06</v>
+      </c>
+      <c r="AK16">
+        <v>2</v>
+      </c>
+      <c r="AL16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -4061,8 +4319,29 @@
       <c r="AB17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG17">
+        <v>22.63</v>
+      </c>
+      <c r="AH17">
+        <v>11.41</v>
+      </c>
+      <c r="AI17">
+        <v>20.07</v>
+      </c>
+      <c r="AJ17">
+        <v>79.930000000000007</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -4129,8 +4408,29 @@
       <c r="AB18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG18">
+        <v>24.95</v>
+      </c>
+      <c r="AH18">
+        <v>10.23</v>
+      </c>
+      <c r="AI18">
+        <v>19.36</v>
+      </c>
+      <c r="AJ18">
+        <v>80.64</v>
+      </c>
+      <c r="AK18">
+        <v>2</v>
+      </c>
+      <c r="AL18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4197,8 +4497,29 @@
       <c r="AB19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG19">
+        <v>23.86</v>
+      </c>
+      <c r="AH19">
+        <v>10.65</v>
+      </c>
+      <c r="AI19">
+        <v>19.88</v>
+      </c>
+      <c r="AJ19">
+        <v>80.12</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>8</v>
       </c>
@@ -4266,33 +4587,54 @@
       <c r="AB20" s="21">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG20" s="21">
+        <v>24.04</v>
+      </c>
+      <c r="AH20" s="21">
+        <v>11.25</v>
+      </c>
+      <c r="AI20" s="21">
+        <v>20.22</v>
+      </c>
+      <c r="AJ20" s="21">
+        <v>79.78</v>
+      </c>
+      <c r="AK20" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="5">
-        <f t="shared" ref="B21:G21" si="3">AVERAGE(B16:B20)</f>
+        <f t="shared" ref="B21:G21" si="4">AVERAGE(B16:B20)</f>
         <v>29.128000000000004</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.9740000000000002</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.417999999999999</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77.582000000000008</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.2</v>
       </c>
       <c r="J21" t="s">
@@ -4302,27 +4644,27 @@
         <v>9</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" ref="M21:R21" si="4">AVERAGE(M16:M20)</f>
+        <f t="shared" ref="M21:R21" si="5">AVERAGE(M16:M20)</f>
         <v>25.224</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.802</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.577999999999999</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>79.421999999999997</v>
       </c>
       <c r="Q21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2</v>
       </c>
       <c r="S21" s="3"/>
@@ -4330,31 +4672,58 @@
         <v>9</v>
       </c>
       <c r="W21" s="5">
-        <f t="shared" ref="W21" si="5">AVERAGE(W16:W20)</f>
+        <f t="shared" ref="W21" si="6">AVERAGE(W16:W20)</f>
         <v>23.393999999999998</v>
       </c>
       <c r="X21" s="5">
-        <f t="shared" ref="X21" si="6">AVERAGE(X16:X20)</f>
+        <f t="shared" ref="X21" si="7">AVERAGE(X16:X20)</f>
         <v>10.592000000000001</v>
       </c>
       <c r="Y21" s="5">
-        <f t="shared" ref="Y21" si="7">AVERAGE(Y16:Y20)</f>
+        <f t="shared" ref="Y21" si="8">AVERAGE(Y16:Y20)</f>
         <v>19.294</v>
       </c>
       <c r="Z21" s="5">
-        <f t="shared" ref="Z21" si="8">AVERAGE(Z16:Z20)</f>
+        <f t="shared" ref="Z21" si="9">AVERAGE(Z16:Z20)</f>
         <v>80.705999999999989</v>
       </c>
       <c r="AA21" s="5">
-        <f t="shared" ref="AA21" si="9">AVERAGE(AA16:AA20)</f>
+        <f t="shared" ref="AA21" si="10">AVERAGE(AA16:AA20)</f>
         <v>1.4</v>
       </c>
       <c r="AB21" s="5">
-        <f t="shared" ref="AB21" si="10">AVERAGE(AB16:AB20)</f>
+        <f t="shared" ref="AB21" si="11">AVERAGE(AB16:AB20)</f>
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG21" s="5">
+        <f t="shared" ref="AG21:AL21" si="12">AVERAGE(AG16:AG20)</f>
+        <v>23.393999999999998</v>
+      </c>
+      <c r="AH21" s="5">
+        <f t="shared" si="12"/>
+        <v>10.592000000000001</v>
+      </c>
+      <c r="AI21" s="5">
+        <f t="shared" si="12"/>
+        <v>19.294</v>
+      </c>
+      <c r="AJ21" s="5">
+        <f t="shared" si="12"/>
+        <v>80.705999999999989</v>
+      </c>
+      <c r="AK21" s="5">
+        <f t="shared" si="12"/>
+        <v>1.4</v>
+      </c>
+      <c r="AL21" s="5">
+        <f t="shared" si="12"/>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="E22" s="19"/>
       <c r="G22" s="19"/>
@@ -4369,8 +4738,11 @@
       <c r="V22" s="2"/>
       <c r="Z22" s="19"/>
       <c r="AB22" s="19"/>
-    </row>
-    <row r="23" spans="1:28" ht="21" x14ac:dyDescent="0.25">
+      <c r="AF22" s="2"/>
+      <c r="AJ22" s="19"/>
+      <c r="AL22" s="19"/>
+    </row>
+    <row r="23" spans="1:38" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>54</v>
       </c>
@@ -4406,8 +4778,15 @@
       <c r="Z23" s="16"/>
       <c r="AA23" s="16"/>
       <c r="AB23" s="16"/>
-    </row>
-    <row r="24" spans="1:28" ht="21" x14ac:dyDescent="0.25">
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="16"/>
+    </row>
+    <row r="24" spans="1:38" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -4449,8 +4828,20 @@
       <c r="AB24" s="32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF24" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ24" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK24" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL24" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B25" s="32" t="s">
         <v>13</v>
       </c>
@@ -4503,8 +4894,23 @@
       <c r="AB25" s="34">
         <v>3604</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="34">
+        <v>670</v>
+      </c>
+      <c r="AK25" s="34">
+        <v>2934</v>
+      </c>
+      <c r="AL25" s="34">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -4563,8 +4969,26 @@
       <c r="AB26" s="32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AG26" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH26" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI26" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ26" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL26" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -4628,8 +5052,29 @@
       <c r="AB27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG27">
+        <v>28.36</v>
+      </c>
+      <c r="AH27">
+        <v>17.21</v>
+      </c>
+      <c r="AI27">
+        <v>23.58</v>
+      </c>
+      <c r="AJ27">
+        <v>76.42</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -4693,8 +5138,29 @@
       <c r="AB28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG28">
+        <v>31.34</v>
+      </c>
+      <c r="AH28">
+        <v>11.55</v>
+      </c>
+      <c r="AI28">
+        <v>25.09</v>
+      </c>
+      <c r="AJ28">
+        <v>74.91</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -4758,8 +5224,29 @@
       <c r="AB29">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG29">
+        <v>31.34</v>
+      </c>
+      <c r="AH29">
+        <v>10.14</v>
+      </c>
+      <c r="AI29">
+        <v>25.22</v>
+      </c>
+      <c r="AJ29">
+        <v>74.78</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -4823,33 +5310,54 @@
       <c r="AB30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG30">
+        <v>36.01</v>
+      </c>
+      <c r="AH30">
+        <v>10.44</v>
+      </c>
+      <c r="AI30">
+        <v>28.45</v>
+      </c>
+      <c r="AJ30">
+        <v>71.55</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="5">
-        <f t="shared" ref="B31:G31" si="11">AVERAGE(B26:B30)</f>
+        <f t="shared" ref="B31:G31" si="13">AVERAGE(B26:B30)</f>
         <v>42.160000000000004</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.9559999999999995</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31.639999999999997</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>68.359999999999985</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.2</v>
       </c>
       <c r="L31" s="20" t="s">
@@ -4895,8 +5403,29 @@
       <c r="AB31" s="21">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" ht="21" x14ac:dyDescent="0.25">
+      <c r="AF31" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG31" s="21">
+        <v>44.22</v>
+      </c>
+      <c r="AH31" s="21">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="AI31" s="21">
+        <v>33.17</v>
+      </c>
+      <c r="AJ31" s="21">
+        <v>66.83</v>
+      </c>
+      <c r="AK31" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
@@ -4905,27 +5434,27 @@
         <v>9</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" ref="M32:R32" si="12">AVERAGE(M27:M31)</f>
+        <f t="shared" ref="M32:R32" si="14">AVERAGE(M27:M31)</f>
         <v>39.805999999999997</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10.526</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>29.693999999999999</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>70.305999999999997</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.4</v>
       </c>
       <c r="S32" s="3"/>
@@ -4933,27 +5462,54 @@
         <v>9</v>
       </c>
       <c r="W32" s="5">
-        <f t="shared" ref="W32" si="13">AVERAGE(W27:W31)</f>
+        <f t="shared" ref="W32" si="15">AVERAGE(W27:W31)</f>
         <v>34.254000000000005</v>
       </c>
       <c r="X32" s="5">
-        <f t="shared" ref="X32" si="14">AVERAGE(X27:X31)</f>
+        <f t="shared" ref="X32" si="16">AVERAGE(X27:X31)</f>
         <v>13.652000000000001</v>
       </c>
       <c r="Y32" s="5">
-        <f t="shared" ref="Y32" si="15">AVERAGE(Y27:Y31)</f>
+        <f t="shared" ref="Y32" si="17">AVERAGE(Y27:Y31)</f>
         <v>27.101999999999997</v>
       </c>
       <c r="Z32" s="5">
-        <f t="shared" ref="Z32" si="16">AVERAGE(Z27:Z31)</f>
+        <f t="shared" ref="Z32" si="18">AVERAGE(Z27:Z31)</f>
         <v>72.897999999999996</v>
       </c>
       <c r="AA32" s="5">
-        <f t="shared" ref="AA32" si="17">AVERAGE(AA27:AA31)</f>
+        <f t="shared" ref="AA32" si="19">AVERAGE(AA27:AA31)</f>
         <v>1</v>
       </c>
       <c r="AB32" s="5">
-        <f t="shared" ref="AB32" si="18">AVERAGE(AB27:AB31)</f>
+        <f t="shared" ref="AB32" si="20">AVERAGE(AB27:AB31)</f>
+        <v>6.6</v>
+      </c>
+      <c r="AF32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG32" s="5">
+        <f t="shared" ref="AG32:AL32" si="21">AVERAGE(AG27:AG31)</f>
+        <v>34.254000000000005</v>
+      </c>
+      <c r="AH32" s="5">
+        <f t="shared" si="21"/>
+        <v>13.652000000000001</v>
+      </c>
+      <c r="AI32" s="5">
+        <f t="shared" si="21"/>
+        <v>27.101999999999997</v>
+      </c>
+      <c r="AJ32" s="5">
+        <f t="shared" si="21"/>
+        <v>72.897999999999996</v>
+      </c>
+      <c r="AK32" s="5">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AL32" s="5">
+        <f t="shared" si="21"/>
         <v>6.6</v>
       </c>
     </row>

--- a/Experiment_Resulsts/SaFIN(FRIE)_HFS_Classification_Results.xlsx
+++ b/Experiment_Resulsts/SaFIN(FRIE)_HFS_Classification_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htetnaing/Development/htet_predict_bank_failure/Experiment_Resulsts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\htet_predict_bank_failure\Experiment_Resulsts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB6F649-E497-0E4F-8409-0393A3E61F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D9EC5F-0A14-42DE-A536-2E877E934A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32320" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{59BFD352-3181-4B2E-9A02-E25DF6E8A988}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{59BFD352-3181-4B2E-9A02-E25DF6E8A988}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="4" r:id="rId1"/>
@@ -730,30 +730,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6C734-146C-49B9-BE90-0FF3605E587B}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="D10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" customWidth="1"/>
+    <col min="12" max="12" width="20.109375" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" customWidth="1"/>
-    <col min="18" max="18" width="11.1640625" customWidth="1"/>
+    <col min="17" max="17" width="15.77734375" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="33" t="s">
         <v>51</v>
       </c>
@@ -779,7 +779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -808,7 +808,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="32" t="s">
         <v>13</v>
       </c>
@@ -846,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -890,7 +890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -934,7 +934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -978,7 +978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
@@ -1122,10 +1122,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="1:18" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="35" t="s">
         <v>51</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="Q12" s="32"/>
       <c r="R12" s="32"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="E13" s="32" t="s">
         <v>49</v>
@@ -1172,7 +1172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B15" s="32" t="s">
         <v>13</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="E22" s="19"/>
       <c r="G22" s="19"/>
@@ -1561,7 +1561,7 @@
       <c r="P22" s="19"/>
       <c r="R22" s="19"/>
     </row>
-    <row r="23" spans="1:18" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A23" s="33" t="s">
         <v>51</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="32" t="s">
         <v>13</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="33"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
@@ -1949,13 +1949,13 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="21" x14ac:dyDescent="0.4">
       <c r="L33" s="33"/>
       <c r="P33" s="32"/>
       <c r="Q33" s="32"/>
       <c r="R33" s="32"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1964,7 +1964,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:18" s="14" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" s="14" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>30</v>
       </c>
@@ -1975,7 +1975,7 @@
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:18" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="21" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>25</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>13</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E46" s="2">
         <f>AVERAGE(E41:E45)</f>
         <v>83.418000000000006</v>
@@ -2302,7 +2302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>9</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -2343,7 +2343,7 @@
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
     </row>
-    <row r="49" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="21" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
@@ -2365,7 +2365,7 @@
       <c r="Q49" s="16"/>
       <c r="R49" s="16"/>
     </row>
-    <row r="50" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="21" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
@@ -2387,7 +2387,7 @@
       <c r="Q50" s="14"/>
       <c r="R50" s="14"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>28</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B52" s="6" t="s">
         <v>13</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="Q52" s="12"/>
       <c r="R52" s="12"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E58" s="2">
         <f>AVERAGE(E53:E57)</f>
         <v>72.888000000000005</v>
@@ -2711,7 +2711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>9</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -2760,7 +2760,7 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
     </row>
-    <row r="61" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="21" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>26</v>
       </c>
@@ -2786,7 +2786,7 @@
       <c r="Q61" s="16"/>
       <c r="R61" s="16"/>
     </row>
-    <row r="62" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="21" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>12</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>29</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B64" s="6" t="s">
         <v>13</v>
       </c>
@@ -2859,7 +2859,7 @@
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E70" s="24">
         <f>AVERAGE(E65:E69)</f>
         <v>72.873999999999995</v>
@@ -3111,7 +3111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>9</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L72" s="7" t="s">
         <v>9</v>
       </c>
@@ -3155,20 +3155,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D07C55-6007-C646-9152-6264139E81A7}">
   <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+    <sheetView tabSelected="1" topLeftCell="U10" workbookViewId="0">
+      <selection activeCell="AH24" sqref="AH24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="11.5" style="37"/>
-    <col min="12" max="12" width="14.83203125" customWidth="1"/>
-    <col min="20" max="20" width="11.5" style="37"/>
-    <col min="21" max="21" width="11.5" style="21"/>
-    <col min="30" max="30" width="11.5" style="37"/>
+    <col min="9" max="9" width="11.44140625" style="37"/>
+    <col min="12" max="12" width="14.77734375" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" style="37"/>
+    <col min="21" max="21" width="11.44140625" style="21"/>
+    <col min="30" max="30" width="11.44140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="33" t="s">
         <v>54</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>3624</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B4" s="32" t="s">
         <v>13</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3430,25 +3430,25 @@
         <v>4</v>
       </c>
       <c r="AG5">
-        <v>20.11</v>
+        <v>74.459999999999994</v>
       </c>
       <c r="AH5">
-        <v>5.41</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="AI5">
-        <v>15.04</v>
+        <v>54.2</v>
       </c>
       <c r="AJ5">
-        <v>84.96</v>
+        <v>45.8</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3516,16 +3516,16 @@
         <v>5</v>
       </c>
       <c r="AG6">
-        <v>22.46</v>
+        <v>17.03</v>
       </c>
       <c r="AH6">
-        <v>4.13</v>
+        <v>5.75</v>
       </c>
       <c r="AI6">
-        <v>16.12</v>
+        <v>13.41</v>
       </c>
       <c r="AJ6">
-        <v>83.88</v>
+        <v>86.59</v>
       </c>
       <c r="AK6">
         <v>1</v>
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3602,25 +3602,25 @@
         <v>6</v>
       </c>
       <c r="AG7">
-        <v>25.36</v>
+        <v>19.75</v>
       </c>
       <c r="AH7">
-        <v>5.88</v>
+        <v>3.11</v>
       </c>
       <c r="AI7">
-        <v>20.23</v>
+        <v>13.82</v>
       </c>
       <c r="AJ7">
-        <v>79.77</v>
+        <v>86.18</v>
       </c>
       <c r="AK7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3688,25 +3688,25 @@
         <v>7</v>
       </c>
       <c r="AG8">
-        <v>18.3</v>
+        <v>20.11</v>
       </c>
       <c r="AH8">
-        <v>5.2</v>
+        <v>2.77</v>
       </c>
       <c r="AI8">
-        <v>13.62</v>
+        <v>13.17</v>
       </c>
       <c r="AJ8">
-        <v>86.38</v>
+        <v>86.83</v>
       </c>
       <c r="AK8">
         <v>1</v>
       </c>
       <c r="AL8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3774,25 +3774,25 @@
         <v>8</v>
       </c>
       <c r="AG9">
-        <v>5.8</v>
+        <v>18.66</v>
       </c>
       <c r="AH9">
-        <v>75.290000000000006</v>
+        <v>3.28</v>
       </c>
       <c r="AI9">
-        <v>44.65</v>
+        <v>13.31</v>
       </c>
       <c r="AJ9">
-        <v>55.35</v>
+        <v>86.69</v>
       </c>
       <c r="AK9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
@@ -3879,30 +3879,30 @@
       </c>
       <c r="AG10" s="5">
         <f t="shared" ref="AG10:AL10" si="3">AVERAGE(AG5:AG9)</f>
-        <v>18.405999999999999</v>
+        <v>30.001999999999999</v>
       </c>
       <c r="AH10" s="5">
         <f t="shared" si="3"/>
-        <v>19.181999999999999</v>
+        <v>6.2200000000000006</v>
       </c>
       <c r="AI10" s="5">
         <f t="shared" si="3"/>
-        <v>21.931999999999999</v>
+        <v>21.582000000000001</v>
       </c>
       <c r="AJ10" s="5">
         <f t="shared" si="3"/>
-        <v>78.067999999999998</v>
+        <v>78.417999999999992</v>
       </c>
       <c r="AK10" s="5">
         <f t="shared" si="3"/>
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AL10" s="5">
         <f t="shared" si="3"/>
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -3936,7 +3936,7 @@
       <c r="AK11" s="16"/>
       <c r="AL11" s="16"/>
     </row>
-    <row r="12" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="33" t="s">
         <v>54</v>
       </c>
@@ -3969,7 +3969,7 @@
       <c r="AK12" s="32"/>
       <c r="AL12" s="32"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="E13" s="32" t="s">
         <v>49</v>
@@ -4016,7 +4016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>3620</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B15" s="32" t="s">
         <v>13</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -4234,25 +4234,25 @@
         <v>4</v>
       </c>
       <c r="AG16">
-        <v>21.49</v>
+        <v>20.95</v>
       </c>
       <c r="AH16">
-        <v>9.42</v>
+        <v>9.5</v>
       </c>
       <c r="AI16">
-        <v>16.940000000000001</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="AJ16">
-        <v>83.06</v>
+        <v>83.51</v>
       </c>
       <c r="AK16">
         <v>2</v>
       </c>
       <c r="AL16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -4323,25 +4323,25 @@
         <v>5</v>
       </c>
       <c r="AG17">
-        <v>22.63</v>
+        <v>22.81</v>
       </c>
       <c r="AH17">
-        <v>11.41</v>
+        <v>5.28</v>
       </c>
       <c r="AI17">
-        <v>20.07</v>
+        <v>16.79</v>
       </c>
       <c r="AJ17">
-        <v>79.930000000000007</v>
+        <v>83.21</v>
       </c>
       <c r="AK17">
         <v>1</v>
       </c>
       <c r="AL17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -4412,25 +4412,25 @@
         <v>6</v>
       </c>
       <c r="AG18">
-        <v>24.95</v>
+        <v>22.77</v>
       </c>
       <c r="AH18">
-        <v>10.23</v>
+        <v>6.09</v>
       </c>
       <c r="AI18">
-        <v>19.36</v>
+        <v>16.21</v>
       </c>
       <c r="AJ18">
-        <v>80.64</v>
+        <v>83.79</v>
       </c>
       <c r="AK18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4501,25 +4501,25 @@
         <v>7</v>
       </c>
       <c r="AG19">
-        <v>23.86</v>
+        <v>22.77</v>
       </c>
       <c r="AH19">
-        <v>10.65</v>
+        <v>8.86</v>
       </c>
       <c r="AI19">
-        <v>19.88</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="AJ19">
-        <v>80.12</v>
+        <v>82.58</v>
       </c>
       <c r="AK19">
         <v>1</v>
       </c>
       <c r="AL19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>8</v>
       </c>
@@ -4591,25 +4591,25 @@
         <v>8</v>
       </c>
       <c r="AG20" s="21">
-        <v>24.04</v>
+        <v>22.59</v>
       </c>
       <c r="AH20" s="21">
-        <v>11.25</v>
+        <v>5.45</v>
       </c>
       <c r="AI20" s="21">
-        <v>20.22</v>
+        <v>16.21</v>
       </c>
       <c r="AJ20" s="21">
-        <v>79.78</v>
+        <v>83.79</v>
       </c>
       <c r="AK20" s="21">
         <v>1</v>
       </c>
       <c r="AL20" s="21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -4700,30 +4700,30 @@
       </c>
       <c r="AG21" s="5">
         <f t="shared" ref="AG21:AL21" si="12">AVERAGE(AG16:AG20)</f>
-        <v>23.393999999999998</v>
+        <v>22.378</v>
       </c>
       <c r="AH21" s="5">
         <f t="shared" si="12"/>
-        <v>10.592000000000001</v>
+        <v>7.0359999999999996</v>
       </c>
       <c r="AI21" s="5">
         <f t="shared" si="12"/>
-        <v>19.294</v>
+        <v>16.624000000000002</v>
       </c>
       <c r="AJ21" s="5">
         <f t="shared" si="12"/>
-        <v>80.705999999999989</v>
+        <v>83.376000000000005</v>
       </c>
       <c r="AK21" s="5">
         <f t="shared" si="12"/>
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AL21" s="5">
         <f t="shared" si="12"/>
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="E22" s="19"/>
       <c r="G22" s="19"/>
@@ -4742,7 +4742,7 @@
       <c r="AJ22" s="19"/>
       <c r="AL22" s="19"/>
     </row>
-    <row r="23" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="21" x14ac:dyDescent="0.4">
       <c r="A23" s="33" t="s">
         <v>54</v>
       </c>
@@ -4786,7 +4786,7 @@
       <c r="AK23" s="16"/>
       <c r="AL23" s="16"/>
     </row>
-    <row r="24" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="21" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B25" s="32" t="s">
         <v>13</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -5056,25 +5056,25 @@
         <v>4</v>
       </c>
       <c r="AG27">
-        <v>28.36</v>
+        <v>25</v>
       </c>
       <c r="AH27">
-        <v>17.21</v>
+        <v>6.73</v>
       </c>
       <c r="AI27">
-        <v>23.58</v>
+        <v>18.84</v>
       </c>
       <c r="AJ27">
-        <v>76.42</v>
+        <v>81.16</v>
       </c>
       <c r="AK27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -5142,25 +5142,25 @@
         <v>5</v>
       </c>
       <c r="AG28">
-        <v>31.34</v>
+        <v>27.05</v>
       </c>
       <c r="AH28">
-        <v>11.55</v>
+        <v>6.35</v>
       </c>
       <c r="AI28">
-        <v>25.09</v>
+        <v>19.96</v>
       </c>
       <c r="AJ28">
-        <v>74.91</v>
+        <v>80.040000000000006</v>
       </c>
       <c r="AK28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -5228,25 +5228,25 @@
         <v>6</v>
       </c>
       <c r="AG29">
-        <v>31.34</v>
+        <v>29.29</v>
       </c>
       <c r="AH29">
-        <v>10.14</v>
+        <v>5.45</v>
       </c>
       <c r="AI29">
-        <v>25.22</v>
+        <v>22.16</v>
       </c>
       <c r="AJ29">
-        <v>74.78</v>
+        <v>77.84</v>
       </c>
       <c r="AK29">
         <v>1</v>
       </c>
       <c r="AL29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -5314,16 +5314,16 @@
         <v>7</v>
       </c>
       <c r="AG30">
-        <v>36.01</v>
+        <v>25.37</v>
       </c>
       <c r="AH30">
-        <v>10.44</v>
+        <v>10.48</v>
       </c>
       <c r="AI30">
-        <v>28.45</v>
+        <v>19.78</v>
       </c>
       <c r="AJ30">
-        <v>71.55</v>
+        <v>80.22</v>
       </c>
       <c r="AK30">
         <v>1</v>
@@ -5332,7 +5332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
@@ -5407,25 +5407,25 @@
         <v>8</v>
       </c>
       <c r="AG31" s="21">
-        <v>44.22</v>
+        <v>28.73</v>
       </c>
       <c r="AH31" s="21">
-        <v>18.920000000000002</v>
+        <v>5.62</v>
       </c>
       <c r="AI31" s="21">
-        <v>33.17</v>
+        <v>21.46</v>
       </c>
       <c r="AJ31" s="21">
-        <v>66.83</v>
+        <v>78.540000000000006</v>
       </c>
       <c r="AK31" s="21">
         <v>1</v>
       </c>
       <c r="AL31" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="33"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
@@ -5490,27 +5490,27 @@
       </c>
       <c r="AG32" s="5">
         <f t="shared" ref="AG32:AL32" si="21">AVERAGE(AG27:AG31)</f>
-        <v>34.254000000000005</v>
+        <v>27.088000000000001</v>
       </c>
       <c r="AH32" s="5">
         <f t="shared" si="21"/>
-        <v>13.652000000000001</v>
+        <v>6.9260000000000002</v>
       </c>
       <c r="AI32" s="5">
         <f t="shared" si="21"/>
-        <v>27.101999999999997</v>
+        <v>20.439999999999998</v>
       </c>
       <c r="AJ32" s="5">
         <f t="shared" si="21"/>
-        <v>72.897999999999996</v>
+        <v>79.56</v>
       </c>
       <c r="AK32" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AL32" s="5">
         <f t="shared" si="21"/>
-        <v>6.6</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -5522,23 +5522,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBC2BF5-CA36-4037-80F7-043C0B98B69C}">
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -5624,7 +5624,7 @@
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B11">
         <f t="shared" ref="B11:G11" si="0">AVERAGE(B6:B10)</f>
         <v>17.184000000000001</v>
@@ -6079,7 +6079,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -6108,10 +6108,10 @@
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
     </row>
-    <row r="13" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="1:31" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="AE14" s="15"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -6200,7 +6200,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
@@ -6259,7 +6259,7 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E23" s="24">
         <f>AVERAGE(E18:E22)</f>
         <v>88.426000000000016</v>
@@ -6622,7 +6622,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>9</v>
       </c>
@@ -6655,10 +6655,10 @@
       <c r="Y24" s="21"/>
       <c r="Z24" s="21"/>
     </row>
-    <row r="25" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E25" s="17"/>
     </row>
-    <row r="28" spans="1:26" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -6758,7 +6758,7 @@
       <c r="V31" s="23"/>
       <c r="W31" s="23"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>13</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E38" s="2">
         <f>AVERAGE(E33:E37)</f>
         <v>79.33</v>
@@ -7177,7 +7177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>9</v>
       </c>
@@ -7206,57 +7206,57 @@
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>43</v>
       </c>

--- a/Experiment_Resulsts/SaFIN(FRIE)_HFS_Classification_Results.xlsx
+++ b/Experiment_Resulsts/SaFIN(FRIE)_HFS_Classification_Results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\htet_predict_bank_failure\Experiment_Resulsts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D9EC5F-0A14-42DE-A536-2E877E934A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FE7CDE-5F73-4108-A62E-924BBD754FE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{59BFD352-3181-4B2E-9A02-E25DF6E8A988}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="4" r:id="rId1"/>
-    <sheet name="Recon" sheetId="5" r:id="rId2"/>
+    <sheet name="Original_vs_Recon_3_Feat" sheetId="6" r:id="rId2"/>
     <sheet name="Increased_Draft" sheetId="1" r:id="rId3"/>
+    <sheet name="Recon" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="60">
   <si>
     <t>Now</t>
   </si>
@@ -362,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -414,6 +415,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,7 +732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6C734-146C-49B9-BE90-0FF3605E587B}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -3152,11 +3154,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D07C55-6007-C646-9152-6264139E81A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67566EC8-2D20-4A2C-89CA-FD459545D209}">
   <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U10" workbookViewId="0">
-      <selection activeCell="AH24" sqref="AH24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" activeCellId="1" sqref="G11 H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3237,14 +3239,9 @@
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="19">
-        <v>483</v>
-      </c>
-      <c r="F3">
-        <v>2921</v>
-      </c>
+      <c r="E3" s="19"/>
       <c r="G3" s="19">
-        <v>3404</v>
+        <v>3487</v>
       </c>
       <c r="J3" t="s">
         <v>34</v>
@@ -3367,22 +3364,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>17.57</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="C5">
-        <v>7.23</v>
+        <v>3.21</v>
       </c>
       <c r="D5">
-        <v>14.49</v>
+        <v>6.68</v>
       </c>
       <c r="E5">
-        <v>85.51</v>
+        <v>93.32</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
@@ -3453,19 +3450,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>17.100000000000001</v>
+        <v>22.32</v>
       </c>
       <c r="C6">
-        <v>6.25</v>
+        <v>0.98</v>
       </c>
       <c r="D6">
-        <v>13.59</v>
+        <v>18.66</v>
       </c>
       <c r="E6">
-        <v>86.41</v>
+        <v>81.34</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -3539,22 +3536,22 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>15.28</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="C7">
-        <v>7.36</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D7">
-        <v>12.09</v>
+        <v>6.01</v>
       </c>
       <c r="E7">
-        <v>87.91</v>
+        <v>93.99</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L7" t="s">
         <v>6</v>
@@ -3625,22 +3622,22 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>17.88</v>
+        <v>13.59</v>
       </c>
       <c r="C8">
-        <v>6.8</v>
+        <v>0.77</v>
       </c>
       <c r="D8">
-        <v>14.01</v>
+        <v>12.45</v>
       </c>
       <c r="E8">
-        <v>85.99</v>
+        <v>87.55</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
         <v>7</v>
@@ -3711,16 +3708,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>18.09</v>
+        <v>7.35</v>
       </c>
       <c r="C9">
-        <v>5.65</v>
+        <v>3.21</v>
       </c>
       <c r="D9">
-        <v>13.87</v>
+        <v>6.1</v>
       </c>
       <c r="E9">
-        <v>86.13</v>
+        <v>93.9</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3797,108 +3794,108 @@
         <v>46</v>
       </c>
       <c r="B10" s="5">
-        <f t="shared" ref="B10:G10" si="0">AVERAGE(B5:B9)</f>
-        <v>17.184000000000001</v>
+        <f>AVERAGE(B5:B9)</f>
+        <v>12.17</v>
       </c>
       <c r="C10" s="5">
+        <f>AVERAGE(C5:C9)</f>
+        <v>2.036</v>
+      </c>
+      <c r="D10" s="5">
+        <f>AVERAGE(D5:D9)</f>
+        <v>9.98</v>
+      </c>
+      <c r="E10" s="5">
+        <f>AVERAGE(E5:E9)</f>
+        <v>90.02000000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <f>AVERAGE(F5:F9)</f>
+        <v>1.4</v>
+      </c>
+      <c r="G10" s="5">
+        <f>AVERAGE(G5:G9)</f>
+        <v>9.4</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" ref="M10:R10" si="0">AVERAGE(M5:M9)</f>
+        <v>18.324000000000002</v>
+      </c>
+      <c r="N10" s="5">
         <f t="shared" si="0"/>
-        <v>6.6579999999999995</v>
-      </c>
-      <c r="D10" s="5">
+        <v>5.202</v>
+      </c>
+      <c r="O10" s="5">
         <f t="shared" si="0"/>
-        <v>13.61</v>
-      </c>
-      <c r="E10" s="5">
+        <v>13.883999999999997</v>
+      </c>
+      <c r="P10" s="5">
         <f t="shared" si="0"/>
-        <v>86.390000000000015</v>
-      </c>
-      <c r="F10" s="5">
+        <v>86.116</v>
+      </c>
+      <c r="Q10" s="5">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="G10" s="5">
+      <c r="R10" s="5">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" ref="M10:R10" si="1">AVERAGE(M5:M9)</f>
-        <v>18.324000000000002</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" si="1"/>
-        <v>5.202</v>
-      </c>
-      <c r="O10" s="5">
-        <f t="shared" si="1"/>
-        <v>13.883999999999997</v>
-      </c>
-      <c r="P10" s="5">
-        <f t="shared" si="1"/>
-        <v>86.116</v>
-      </c>
-      <c r="Q10" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="R10" s="5">
-        <f t="shared" si="1"/>
         <v>6.2</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>46</v>
       </c>
       <c r="W10" s="5">
-        <f t="shared" ref="W10:AB10" si="2">AVERAGE(W5:W9)</f>
+        <f t="shared" ref="W10:AB10" si="1">AVERAGE(W5:W9)</f>
         <v>18.405999999999999</v>
       </c>
       <c r="X10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19.181999999999999</v>
       </c>
       <c r="Y10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21.931999999999999</v>
       </c>
       <c r="Z10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>78.067999999999998</v>
       </c>
       <c r="AA10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
       <c r="AB10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.4</v>
       </c>
       <c r="AF10" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="5">
-        <f t="shared" ref="AG10:AL10" si="3">AVERAGE(AG5:AG9)</f>
+        <f t="shared" ref="AG10:AL10" si="2">AVERAGE(AG5:AG9)</f>
         <v>30.001999999999999</v>
       </c>
       <c r="AH10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.2200000000000006</v>
       </c>
       <c r="AI10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21.582000000000001</v>
       </c>
       <c r="AJ10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>78.417999999999992</v>
       </c>
       <c r="AK10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
       <c r="AL10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.6</v>
       </c>
     </row>
@@ -4023,14 +4020,10 @@
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
-      <c r="E14" s="34">
-        <v>358</v>
-      </c>
-      <c r="F14" s="34">
-        <v>2713</v>
-      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="34">
-        <v>3071</v>
+        <v>3321</v>
       </c>
       <c r="I14" s="40"/>
       <c r="J14" s="21" t="s">
@@ -4168,22 +4161,22 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>25.09</v>
+        <v>22.4</v>
       </c>
       <c r="C16">
-        <v>11.3</v>
+        <v>7.39</v>
       </c>
       <c r="D16">
-        <v>21.6</v>
+        <v>17.66</v>
       </c>
       <c r="E16">
-        <v>78.400000000000006</v>
+        <v>82.34</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -4257,22 +4250,22 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>38.81</v>
+        <v>18.28</v>
       </c>
       <c r="C17">
-        <v>8.2899999999999991</v>
+        <v>6.16</v>
       </c>
       <c r="D17">
-        <v>25.87</v>
+        <v>13.8</v>
       </c>
       <c r="E17">
-        <v>74.13</v>
+        <v>86.2</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
@@ -4346,22 +4339,22 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>33.22</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>6.21</v>
       </c>
       <c r="D18">
-        <v>24.13</v>
+        <v>13.32</v>
       </c>
       <c r="E18">
-        <v>75.87</v>
+        <v>86.68</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J18" t="s">
         <v>32</v>
@@ -4435,22 +4428,22 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>24.48</v>
+        <v>17.75</v>
       </c>
       <c r="C19">
-        <v>11.71</v>
+        <v>5.9</v>
       </c>
       <c r="D19">
-        <v>20.28</v>
+        <v>13.98</v>
       </c>
       <c r="E19">
-        <v>79.72</v>
+        <v>86.02</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J19" t="s">
         <v>21</v>
@@ -4520,26 +4513,26 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="41" t="s">
         <v>8</v>
       </c>
       <c r="B20">
-        <v>24.04</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="C20">
-        <v>11.57</v>
+        <v>5.63</v>
       </c>
       <c r="D20">
-        <v>20.21</v>
+        <v>12.46</v>
       </c>
       <c r="E20">
-        <v>79.790000000000006</v>
+        <v>87.54</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J20" t="s">
         <v>22</v>
@@ -4614,28 +4607,28 @@
         <v>9</v>
       </c>
       <c r="B21" s="5">
-        <f t="shared" ref="B21:G21" si="4">AVERAGE(B16:B20)</f>
-        <v>29.128000000000004</v>
+        <f>AVERAGE(B16:B20)</f>
+        <v>18.317999999999998</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="4"/>
-        <v>9.9740000000000002</v>
+        <f>AVERAGE(C16:C20)</f>
+        <v>6.2580000000000009</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="4"/>
-        <v>22.417999999999999</v>
+        <f>AVERAGE(D16:D20)</f>
+        <v>14.244</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="4"/>
-        <v>77.582000000000008</v>
+        <f>AVERAGE(E16:E20)</f>
+        <v>85.756</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(F16:F20)</f>
         <v>1.2</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="4"/>
-        <v>6.2</v>
+        <f>AVERAGE(G16:G20)</f>
+        <v>6.6</v>
       </c>
       <c r="J21" t="s">
         <v>23</v>
@@ -4644,27 +4637,27 @@
         <v>9</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" ref="M21:R21" si="5">AVERAGE(M16:M20)</f>
+        <f t="shared" ref="M21:R21" si="3">AVERAGE(M16:M20)</f>
         <v>25.224</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10.802</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>20.577999999999999</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>79.421999999999997</v>
       </c>
       <c r="Q21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.2</v>
       </c>
       <c r="S21" s="3"/>
@@ -4672,54 +4665,54 @@
         <v>9</v>
       </c>
       <c r="W21" s="5">
-        <f t="shared" ref="W21" si="6">AVERAGE(W16:W20)</f>
+        <f t="shared" ref="W21:AB21" si="4">AVERAGE(W16:W20)</f>
         <v>23.393999999999998</v>
       </c>
       <c r="X21" s="5">
-        <f t="shared" ref="X21" si="7">AVERAGE(X16:X20)</f>
+        <f t="shared" si="4"/>
         <v>10.592000000000001</v>
       </c>
       <c r="Y21" s="5">
-        <f t="shared" ref="Y21" si="8">AVERAGE(Y16:Y20)</f>
+        <f t="shared" si="4"/>
         <v>19.294</v>
       </c>
       <c r="Z21" s="5">
-        <f t="shared" ref="Z21" si="9">AVERAGE(Z16:Z20)</f>
+        <f t="shared" si="4"/>
         <v>80.705999999999989</v>
       </c>
       <c r="AA21" s="5">
-        <f t="shared" ref="AA21" si="10">AVERAGE(AA16:AA20)</f>
+        <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
       <c r="AB21" s="5">
-        <f t="shared" ref="AB21" si="11">AVERAGE(AB16:AB20)</f>
+        <f t="shared" si="4"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="AF21" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AG21" s="5">
-        <f t="shared" ref="AG21:AL21" si="12">AVERAGE(AG16:AG20)</f>
+        <f t="shared" ref="AG21:AL21" si="5">AVERAGE(AG16:AG20)</f>
         <v>22.378</v>
       </c>
       <c r="AH21" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>7.0359999999999996</v>
       </c>
       <c r="AI21" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>16.624000000000002</v>
       </c>
       <c r="AJ21" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>83.376000000000005</v>
       </c>
       <c r="AK21" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="AL21" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>8.6</v>
       </c>
     </row>
@@ -4790,14 +4783,10 @@
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="34">
-        <v>255</v>
-      </c>
-      <c r="F24" s="34">
-        <v>2594</v>
-      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="34">
-        <v>2849</v>
+        <v>2993</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="38"/>
@@ -4915,22 +4904,22 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>45.59</v>
+        <v>29.58</v>
       </c>
       <c r="C26">
-        <v>5.45</v>
+        <v>12.18</v>
       </c>
       <c r="D26">
-        <v>32.270000000000003</v>
+        <v>24.99</v>
       </c>
       <c r="E26">
-        <v>67.73</v>
+        <v>75.010000000000005</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M26" s="32" t="s">
         <v>13</v>
@@ -4993,22 +4982,22 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>40.200000000000003</v>
+        <v>28.52</v>
       </c>
       <c r="C27">
-        <v>10.84</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="D27">
-        <v>31.48</v>
+        <v>21.95</v>
       </c>
       <c r="E27">
-        <v>68.52</v>
+        <v>78.05</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L27" t="s">
         <v>4</v>
@@ -5079,22 +5068,22 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>42.65</v>
+        <v>25.35</v>
       </c>
       <c r="C28">
-        <v>11.18</v>
+        <v>11.52</v>
       </c>
       <c r="D28">
-        <v>32.69</v>
+        <v>21.5</v>
       </c>
       <c r="E28">
-        <v>67.31</v>
+        <v>78.5</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L28" t="s">
         <v>5</v>
@@ -5165,22 +5154,22 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>37.75</v>
+        <v>23.24</v>
       </c>
       <c r="C29">
-        <v>11.04</v>
+        <v>11.71</v>
       </c>
       <c r="D29">
-        <v>29.9</v>
+        <v>19.68</v>
       </c>
       <c r="E29">
-        <v>70.099999999999994</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L29" t="s">
         <v>6</v>
@@ -5247,26 +5236,26 @@
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="41" t="s">
         <v>8</v>
       </c>
       <c r="B30">
-        <v>44.61</v>
+        <v>28.62</v>
       </c>
       <c r="C30">
-        <v>6.27</v>
+        <v>7.53</v>
       </c>
       <c r="D30">
-        <v>31.86</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="E30">
-        <v>68.14</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L30" t="s">
         <v>7</v>
@@ -5337,27 +5326,27 @@
         <v>9</v>
       </c>
       <c r="B31" s="5">
-        <f t="shared" ref="B31:G31" si="13">AVERAGE(B26:B30)</f>
-        <v>42.160000000000004</v>
+        <f>AVERAGE(B26:B30)</f>
+        <v>27.061999999999994</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="13"/>
-        <v>8.9559999999999995</v>
+        <f>AVERAGE(C26:C30)</f>
+        <v>10.464</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="13"/>
-        <v>31.639999999999997</v>
+        <f>AVERAGE(D26:D30)</f>
+        <v>21.626000000000001</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="13"/>
-        <v>68.359999999999985</v>
+        <f>AVERAGE(E26:E30)</f>
+        <v>78.373999999999995</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f>AVERAGE(F26:F30)</f>
+        <v>1.4</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(G26:G30)</f>
         <v>5.2</v>
       </c>
       <c r="L31" s="20" t="s">
@@ -5434,27 +5423,27 @@
         <v>9</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" ref="M32:R32" si="14">AVERAGE(M27:M31)</f>
+        <f t="shared" ref="M32:R32" si="6">AVERAGE(M27:M31)</f>
         <v>39.805999999999997</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>10.526</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>29.693999999999999</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>70.305999999999997</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>5.4</v>
       </c>
       <c r="S32" s="3"/>
@@ -5462,59 +5451,60 @@
         <v>9</v>
       </c>
       <c r="W32" s="5">
-        <f t="shared" ref="W32" si="15">AVERAGE(W27:W31)</f>
+        <f t="shared" ref="W32:AB32" si="7">AVERAGE(W27:W31)</f>
         <v>34.254000000000005</v>
       </c>
       <c r="X32" s="5">
-        <f t="shared" ref="X32" si="16">AVERAGE(X27:X31)</f>
+        <f t="shared" si="7"/>
         <v>13.652000000000001</v>
       </c>
       <c r="Y32" s="5">
-        <f t="shared" ref="Y32" si="17">AVERAGE(Y27:Y31)</f>
+        <f t="shared" si="7"/>
         <v>27.101999999999997</v>
       </c>
       <c r="Z32" s="5">
-        <f t="shared" ref="Z32" si="18">AVERAGE(Z27:Z31)</f>
+        <f t="shared" si="7"/>
         <v>72.897999999999996</v>
       </c>
       <c r="AA32" s="5">
-        <f t="shared" ref="AA32" si="19">AVERAGE(AA27:AA31)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AB32" s="5">
-        <f t="shared" ref="AB32" si="20">AVERAGE(AB27:AB31)</f>
+        <f t="shared" si="7"/>
         <v>6.6</v>
       </c>
       <c r="AF32" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AG32" s="5">
-        <f t="shared" ref="AG32:AL32" si="21">AVERAGE(AG27:AG31)</f>
+        <f t="shared" ref="AG32:AL32" si="8">AVERAGE(AG27:AG31)</f>
         <v>27.088000000000001</v>
       </c>
       <c r="AH32" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="8"/>
         <v>6.9260000000000002</v>
       </c>
       <c r="AI32" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="8"/>
         <v>20.439999999999998</v>
       </c>
       <c r="AJ32" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="8"/>
         <v>79.56</v>
       </c>
       <c r="AK32" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="8"/>
         <v>1.4</v>
       </c>
       <c r="AL32" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="8"/>
         <v>8.1999999999999993</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5522,7 +5512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBC2BF5-CA36-4037-80F7-043C0B98B69C}">
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -7265,4 +7255,2371 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D07C55-6007-C646-9152-6264139E81A7}">
+  <dimension ref="A1:AL32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="11.44140625" style="37"/>
+    <col min="12" max="12" width="14.77734375" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" style="37"/>
+    <col min="21" max="21" width="11.44140625" style="21"/>
+    <col min="30" max="30" width="11.44140625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="32"/>
+      <c r="V2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL2" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="19">
+        <v>483</v>
+      </c>
+      <c r="F3">
+        <v>2921</v>
+      </c>
+      <c r="G3" s="19">
+        <v>3404</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="19">
+        <v>483</v>
+      </c>
+      <c r="Q3">
+        <v>2921</v>
+      </c>
+      <c r="R3" s="19">
+        <v>3404</v>
+      </c>
+      <c r="S3" s="19"/>
+      <c r="V3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="19">
+        <v>690</v>
+      </c>
+      <c r="AA3">
+        <v>2934</v>
+      </c>
+      <c r="AB3" s="19">
+        <v>3624</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ3" s="19">
+        <v>690</v>
+      </c>
+      <c r="AK3">
+        <v>2934</v>
+      </c>
+      <c r="AL3" s="19">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="32"/>
+      <c r="W4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>17.57</v>
+      </c>
+      <c r="C5">
+        <v>7.23</v>
+      </c>
+      <c r="D5">
+        <v>14.49</v>
+      </c>
+      <c r="E5">
+        <v>85.51</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>16.54</v>
+      </c>
+      <c r="N5">
+        <v>6.76</v>
+      </c>
+      <c r="O5">
+        <v>13.77</v>
+      </c>
+      <c r="P5">
+        <v>86.23</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>8</v>
+      </c>
+      <c r="V5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>20.11</v>
+      </c>
+      <c r="X5">
+        <v>5.41</v>
+      </c>
+      <c r="Y5">
+        <v>15.04</v>
+      </c>
+      <c r="Z5">
+        <v>84.96</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>12</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5">
+        <v>74.459999999999994</v>
+      </c>
+      <c r="AH5">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="AI5">
+        <v>54.2</v>
+      </c>
+      <c r="AJ5">
+        <v>45.8</v>
+      </c>
+      <c r="AK5">
+        <v>2</v>
+      </c>
+      <c r="AL5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C6">
+        <v>6.25</v>
+      </c>
+      <c r="D6">
+        <v>13.59</v>
+      </c>
+      <c r="E6">
+        <v>86.41</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="N6">
+        <v>3.98</v>
+      </c>
+      <c r="O6">
+        <v>13.17</v>
+      </c>
+      <c r="P6">
+        <v>86.83</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="V6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>22.46</v>
+      </c>
+      <c r="X6">
+        <v>4.13</v>
+      </c>
+      <c r="Y6">
+        <v>16.12</v>
+      </c>
+      <c r="Z6">
+        <v>83.88</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>8</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG6">
+        <v>17.03</v>
+      </c>
+      <c r="AH6">
+        <v>5.75</v>
+      </c>
+      <c r="AI6">
+        <v>13.41</v>
+      </c>
+      <c r="AJ6">
+        <v>86.59</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>15.28</v>
+      </c>
+      <c r="C7">
+        <v>7.36</v>
+      </c>
+      <c r="D7">
+        <v>12.09</v>
+      </c>
+      <c r="E7">
+        <v>87.91</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="L7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>17.36</v>
+      </c>
+      <c r="N7">
+        <v>3.89</v>
+      </c>
+      <c r="O7">
+        <v>12.16</v>
+      </c>
+      <c r="P7">
+        <v>87.84</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>8</v>
+      </c>
+      <c r="V7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <v>25.36</v>
+      </c>
+      <c r="X7">
+        <v>5.88</v>
+      </c>
+      <c r="Y7">
+        <v>20.23</v>
+      </c>
+      <c r="Z7">
+        <v>79.77</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG7">
+        <v>19.75</v>
+      </c>
+      <c r="AH7">
+        <v>3.11</v>
+      </c>
+      <c r="AI7">
+        <v>13.82</v>
+      </c>
+      <c r="AJ7">
+        <v>86.18</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>17.88</v>
+      </c>
+      <c r="C8">
+        <v>6.8</v>
+      </c>
+      <c r="D8">
+        <v>14.01</v>
+      </c>
+      <c r="E8">
+        <v>85.99</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>17.62</v>
+      </c>
+      <c r="N8">
+        <v>5.56</v>
+      </c>
+      <c r="O8">
+        <v>13.52</v>
+      </c>
+      <c r="P8">
+        <v>86.48</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="V8" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <v>18.3</v>
+      </c>
+      <c r="X8">
+        <v>5.2</v>
+      </c>
+      <c r="Y8">
+        <v>13.62</v>
+      </c>
+      <c r="Z8">
+        <v>86.38</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>10</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG8">
+        <v>20.11</v>
+      </c>
+      <c r="AH8">
+        <v>2.77</v>
+      </c>
+      <c r="AI8">
+        <v>13.17</v>
+      </c>
+      <c r="AJ8">
+        <v>86.83</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>18.09</v>
+      </c>
+      <c r="C9">
+        <v>5.65</v>
+      </c>
+      <c r="D9">
+        <v>13.87</v>
+      </c>
+      <c r="E9">
+        <v>86.13</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>21.45</v>
+      </c>
+      <c r="N9">
+        <v>5.82</v>
+      </c>
+      <c r="O9">
+        <v>16.8</v>
+      </c>
+      <c r="P9">
+        <v>83.2</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="V9" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9">
+        <v>5.8</v>
+      </c>
+      <c r="X9">
+        <v>75.290000000000006</v>
+      </c>
+      <c r="Y9">
+        <v>44.65</v>
+      </c>
+      <c r="Z9">
+        <v>55.35</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <v>10</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG9">
+        <v>18.66</v>
+      </c>
+      <c r="AH9">
+        <v>3.28</v>
+      </c>
+      <c r="AI9">
+        <v>13.31</v>
+      </c>
+      <c r="AJ9">
+        <v>86.69</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" ref="B10:G10" si="0">AVERAGE(B5:B9)</f>
+        <v>17.184000000000001</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>6.6579999999999995</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>13.61</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>86.390000000000015</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" ref="M10:R10" si="1">AVERAGE(M5:M9)</f>
+        <v>18.324000000000002</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="1"/>
+        <v>5.202</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="1"/>
+        <v>13.883999999999997</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="1"/>
+        <v>86.116</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="1"/>
+        <v>6.2</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="5">
+        <f t="shared" ref="W10:AB10" si="2">AVERAGE(W5:W9)</f>
+        <v>18.405999999999999</v>
+      </c>
+      <c r="X10" s="5">
+        <f t="shared" si="2"/>
+        <v>19.181999999999999</v>
+      </c>
+      <c r="Y10" s="5">
+        <f t="shared" si="2"/>
+        <v>21.931999999999999</v>
+      </c>
+      <c r="Z10" s="5">
+        <f t="shared" si="2"/>
+        <v>78.067999999999998</v>
+      </c>
+      <c r="AA10" s="5">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="AB10" s="5">
+        <f t="shared" si="2"/>
+        <v>8.4</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG10" s="5">
+        <f t="shared" ref="AG10:AL10" si="3">AVERAGE(AG5:AG9)</f>
+        <v>30.001999999999999</v>
+      </c>
+      <c r="AH10" s="5">
+        <f t="shared" si="3"/>
+        <v>6.2200000000000006</v>
+      </c>
+      <c r="AI10" s="5">
+        <f t="shared" si="3"/>
+        <v>21.582000000000001</v>
+      </c>
+      <c r="AJ10" s="5">
+        <f t="shared" si="3"/>
+        <v>78.417999999999992</v>
+      </c>
+      <c r="AK10" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="AL10" s="5">
+        <f t="shared" si="3"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+    </row>
+    <row r="12" spans="1:38" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="V12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AF12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="E13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="40"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="P13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="R13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="32"/>
+      <c r="V13" s="2"/>
+      <c r="Z13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA13" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF13" s="2"/>
+      <c r="AJ13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK13" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL13" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="34">
+        <v>358</v>
+      </c>
+      <c r="F14" s="34">
+        <v>2713</v>
+      </c>
+      <c r="G14" s="34">
+        <v>3071</v>
+      </c>
+      <c r="I14" s="40"/>
+      <c r="J14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="34">
+        <v>358</v>
+      </c>
+      <c r="Q14" s="34">
+        <v>2713</v>
+      </c>
+      <c r="R14" s="34">
+        <v>3071</v>
+      </c>
+      <c r="S14" s="34"/>
+      <c r="V14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="34">
+        <v>686</v>
+      </c>
+      <c r="AA14" s="34">
+        <v>2934</v>
+      </c>
+      <c r="AB14" s="34">
+        <v>3620</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="34">
+        <v>686</v>
+      </c>
+      <c r="AK14" s="34">
+        <v>2934</v>
+      </c>
+      <c r="AL14" s="34">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B15" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="M15" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" s="32"/>
+      <c r="W15" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y15" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB15" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI15" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ15" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL15" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>25.09</v>
+      </c>
+      <c r="C16">
+        <v>11.3</v>
+      </c>
+      <c r="D16">
+        <v>21.6</v>
+      </c>
+      <c r="E16">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>30.66</v>
+      </c>
+      <c r="N16">
+        <v>6.27</v>
+      </c>
+      <c r="O16">
+        <v>21.46</v>
+      </c>
+      <c r="P16">
+        <v>78.540000000000006</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>8</v>
+      </c>
+      <c r="V16" t="s">
+        <v>4</v>
+      </c>
+      <c r="W16">
+        <v>21.49</v>
+      </c>
+      <c r="X16">
+        <v>9.42</v>
+      </c>
+      <c r="Y16">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="Z16">
+        <v>83.06</v>
+      </c>
+      <c r="AA16">
+        <v>2</v>
+      </c>
+      <c r="AB16">
+        <v>9</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG16">
+        <v>20.95</v>
+      </c>
+      <c r="AH16">
+        <v>9.5</v>
+      </c>
+      <c r="AI16">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="AJ16">
+        <v>83.51</v>
+      </c>
+      <c r="AK16">
+        <v>2</v>
+      </c>
+      <c r="AL16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>38.81</v>
+      </c>
+      <c r="C17">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="D17">
+        <v>25.87</v>
+      </c>
+      <c r="E17">
+        <v>74.13</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>24.48</v>
+      </c>
+      <c r="N17">
+        <v>10.69</v>
+      </c>
+      <c r="O17">
+        <v>20.32</v>
+      </c>
+      <c r="P17">
+        <v>79.680000000000007</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="V17" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <v>22.63</v>
+      </c>
+      <c r="X17">
+        <v>11.41</v>
+      </c>
+      <c r="Y17">
+        <v>20.07</v>
+      </c>
+      <c r="Z17">
+        <v>79.930000000000007</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG17">
+        <v>22.81</v>
+      </c>
+      <c r="AH17">
+        <v>5.28</v>
+      </c>
+      <c r="AI17">
+        <v>16.79</v>
+      </c>
+      <c r="AJ17">
+        <v>83.21</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>33.22</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>24.13</v>
+      </c>
+      <c r="E18">
+        <v>75.87</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>24.56</v>
+      </c>
+      <c r="N18">
+        <v>11.79</v>
+      </c>
+      <c r="O18">
+        <v>20.86</v>
+      </c>
+      <c r="P18">
+        <v>79.14</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="V18" t="s">
+        <v>6</v>
+      </c>
+      <c r="W18">
+        <v>24.95</v>
+      </c>
+      <c r="X18">
+        <v>10.23</v>
+      </c>
+      <c r="Y18">
+        <v>19.36</v>
+      </c>
+      <c r="Z18">
+        <v>80.64</v>
+      </c>
+      <c r="AA18">
+        <v>2</v>
+      </c>
+      <c r="AB18">
+        <v>5</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG18">
+        <v>22.77</v>
+      </c>
+      <c r="AH18">
+        <v>6.09</v>
+      </c>
+      <c r="AI18">
+        <v>16.21</v>
+      </c>
+      <c r="AJ18">
+        <v>83.79</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>24.48</v>
+      </c>
+      <c r="C19">
+        <v>11.71</v>
+      </c>
+      <c r="D19">
+        <v>20.28</v>
+      </c>
+      <c r="E19">
+        <v>79.72</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>25.09</v>
+      </c>
+      <c r="N19">
+        <v>10.79</v>
+      </c>
+      <c r="O19">
+        <v>21.25</v>
+      </c>
+      <c r="P19">
+        <v>78.75</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>8</v>
+      </c>
+      <c r="V19" t="s">
+        <v>7</v>
+      </c>
+      <c r="W19">
+        <v>23.86</v>
+      </c>
+      <c r="X19">
+        <v>10.65</v>
+      </c>
+      <c r="Y19">
+        <v>19.88</v>
+      </c>
+      <c r="Z19">
+        <v>80.12</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>6</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG19">
+        <v>22.77</v>
+      </c>
+      <c r="AH19">
+        <v>8.86</v>
+      </c>
+      <c r="AI19">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="AJ19">
+        <v>82.58</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>24.04</v>
+      </c>
+      <c r="C20">
+        <v>11.57</v>
+      </c>
+      <c r="D20">
+        <v>20.21</v>
+      </c>
+      <c r="E20">
+        <v>79.790000000000006</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="21">
+        <v>21.33</v>
+      </c>
+      <c r="N20" s="21">
+        <v>14.47</v>
+      </c>
+      <c r="O20" s="21">
+        <v>19</v>
+      </c>
+      <c r="P20" s="21">
+        <v>81</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>1</v>
+      </c>
+      <c r="R20" s="21">
+        <v>7</v>
+      </c>
+      <c r="S20" s="21"/>
+      <c r="V20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="W20" s="21">
+        <v>24.04</v>
+      </c>
+      <c r="X20" s="21">
+        <v>11.25</v>
+      </c>
+      <c r="Y20" s="21">
+        <v>20.22</v>
+      </c>
+      <c r="Z20" s="21">
+        <v>79.78</v>
+      </c>
+      <c r="AA20" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="21">
+        <v>11</v>
+      </c>
+      <c r="AF20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG20" s="21">
+        <v>22.59</v>
+      </c>
+      <c r="AH20" s="21">
+        <v>5.45</v>
+      </c>
+      <c r="AI20" s="21">
+        <v>16.21</v>
+      </c>
+      <c r="AJ20" s="21">
+        <v>83.79</v>
+      </c>
+      <c r="AK20" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" ref="B21:G21" si="4">AVERAGE(B16:B20)</f>
+        <v>29.128000000000004</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="4"/>
+        <v>9.9740000000000002</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="4"/>
+        <v>22.417999999999999</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="4"/>
+        <v>77.582000000000008</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="4"/>
+        <v>6.2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" ref="M21:R21" si="5">AVERAGE(M16:M20)</f>
+        <v>25.224</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" si="5"/>
+        <v>10.802</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="5"/>
+        <v>20.577999999999999</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" si="5"/>
+        <v>79.421999999999997</v>
+      </c>
+      <c r="Q21" s="5">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="R21" s="5">
+        <f t="shared" si="5"/>
+        <v>6.2</v>
+      </c>
+      <c r="S21" s="3"/>
+      <c r="V21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="W21" s="5">
+        <f t="shared" ref="W21" si="6">AVERAGE(W16:W20)</f>
+        <v>23.393999999999998</v>
+      </c>
+      <c r="X21" s="5">
+        <f t="shared" ref="X21" si="7">AVERAGE(X16:X20)</f>
+        <v>10.592000000000001</v>
+      </c>
+      <c r="Y21" s="5">
+        <f t="shared" ref="Y21" si="8">AVERAGE(Y16:Y20)</f>
+        <v>19.294</v>
+      </c>
+      <c r="Z21" s="5">
+        <f t="shared" ref="Z21" si="9">AVERAGE(Z16:Z20)</f>
+        <v>80.705999999999989</v>
+      </c>
+      <c r="AA21" s="5">
+        <f t="shared" ref="AA21" si="10">AVERAGE(AA16:AA20)</f>
+        <v>1.4</v>
+      </c>
+      <c r="AB21" s="5">
+        <f t="shared" ref="AB21" si="11">AVERAGE(AB16:AB20)</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AF21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG21" s="5">
+        <f t="shared" ref="AG21:AL21" si="12">AVERAGE(AG16:AG20)</f>
+        <v>22.378</v>
+      </c>
+      <c r="AH21" s="5">
+        <f t="shared" si="12"/>
+        <v>7.0359999999999996</v>
+      </c>
+      <c r="AI21" s="5">
+        <f t="shared" si="12"/>
+        <v>16.624000000000002</v>
+      </c>
+      <c r="AJ21" s="5">
+        <f t="shared" si="12"/>
+        <v>83.376000000000005</v>
+      </c>
+      <c r="AK21" s="5">
+        <f t="shared" si="12"/>
+        <v>1.2</v>
+      </c>
+      <c r="AL21" s="5">
+        <f t="shared" si="12"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="E22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="J22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="L22" s="2"/>
+      <c r="P22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="V22" s="2"/>
+      <c r="Z22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AF22" s="2"/>
+      <c r="AJ22" s="19"/>
+      <c r="AL22" s="19"/>
+    </row>
+    <row r="23" spans="1:38" ht="21" x14ac:dyDescent="0.4">
+      <c r="A23" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="J23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="16"/>
+    </row>
+    <row r="24" spans="1:38" ht="21" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="34">
+        <v>255</v>
+      </c>
+      <c r="F24" s="34">
+        <v>2594</v>
+      </c>
+      <c r="G24" s="34">
+        <v>2849</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="R24" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S24" s="32"/>
+      <c r="V24" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z24" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA24" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB24" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF24" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ24" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK24" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL24" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B25" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="34">
+        <v>255</v>
+      </c>
+      <c r="Q25" s="34">
+        <v>2594</v>
+      </c>
+      <c r="R25" s="34">
+        <v>2849</v>
+      </c>
+      <c r="S25" s="34"/>
+      <c r="V25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="34">
+        <v>670</v>
+      </c>
+      <c r="AA25" s="34">
+        <v>2934</v>
+      </c>
+      <c r="AB25" s="34">
+        <v>3604</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="34">
+        <v>670</v>
+      </c>
+      <c r="AK25" s="34">
+        <v>2934</v>
+      </c>
+      <c r="AL25" s="34">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>45.59</v>
+      </c>
+      <c r="C26">
+        <v>5.45</v>
+      </c>
+      <c r="D26">
+        <v>32.270000000000003</v>
+      </c>
+      <c r="E26">
+        <v>67.73</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="M26" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="O26" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="R26" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" s="32"/>
+      <c r="W26" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="X26" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y26" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB26" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH26" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI26" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ26" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL26" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="C27">
+        <v>10.84</v>
+      </c>
+      <c r="D27">
+        <v>31.48</v>
+      </c>
+      <c r="E27">
+        <v>68.52</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="L27" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>41.18</v>
+      </c>
+      <c r="N27">
+        <v>10.31</v>
+      </c>
+      <c r="O27">
+        <v>30.46</v>
+      </c>
+      <c r="P27">
+        <v>69.540000000000006</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>6</v>
+      </c>
+      <c r="V27" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27">
+        <v>28.36</v>
+      </c>
+      <c r="X27">
+        <v>17.21</v>
+      </c>
+      <c r="Y27">
+        <v>23.58</v>
+      </c>
+      <c r="Z27">
+        <v>76.42</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>2</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG27">
+        <v>25</v>
+      </c>
+      <c r="AH27">
+        <v>6.73</v>
+      </c>
+      <c r="AI27">
+        <v>18.84</v>
+      </c>
+      <c r="AJ27">
+        <v>81.16</v>
+      </c>
+      <c r="AK27">
+        <v>2</v>
+      </c>
+      <c r="AL27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>42.65</v>
+      </c>
+      <c r="C28">
+        <v>11.18</v>
+      </c>
+      <c r="D28">
+        <v>32.69</v>
+      </c>
+      <c r="E28">
+        <v>67.31</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="L28" t="s">
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <v>42.65</v>
+      </c>
+      <c r="N28">
+        <v>7.23</v>
+      </c>
+      <c r="O28">
+        <v>30.18</v>
+      </c>
+      <c r="P28">
+        <v>69.819999999999993</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>7</v>
+      </c>
+      <c r="V28" t="s">
+        <v>5</v>
+      </c>
+      <c r="W28">
+        <v>31.34</v>
+      </c>
+      <c r="X28">
+        <v>11.55</v>
+      </c>
+      <c r="Y28">
+        <v>25.09</v>
+      </c>
+      <c r="Z28">
+        <v>74.91</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>4</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG28">
+        <v>27.05</v>
+      </c>
+      <c r="AH28">
+        <v>6.35</v>
+      </c>
+      <c r="AI28">
+        <v>19.96</v>
+      </c>
+      <c r="AJ28">
+        <v>80.040000000000006</v>
+      </c>
+      <c r="AK28">
+        <v>2</v>
+      </c>
+      <c r="AL28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>37.75</v>
+      </c>
+      <c r="C29">
+        <v>11.04</v>
+      </c>
+      <c r="D29">
+        <v>29.9</v>
+      </c>
+      <c r="E29">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="L29" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>31.37</v>
+      </c>
+      <c r="N29">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="O29">
+        <v>29.22</v>
+      </c>
+      <c r="P29">
+        <v>70.78</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>6</v>
+      </c>
+      <c r="V29" t="s">
+        <v>6</v>
+      </c>
+      <c r="W29">
+        <v>31.34</v>
+      </c>
+      <c r="X29">
+        <v>10.14</v>
+      </c>
+      <c r="Y29">
+        <v>25.22</v>
+      </c>
+      <c r="Z29">
+        <v>74.78</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>12</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG29">
+        <v>29.29</v>
+      </c>
+      <c r="AH29">
+        <v>5.45</v>
+      </c>
+      <c r="AI29">
+        <v>22.16</v>
+      </c>
+      <c r="AJ29">
+        <v>77.84</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>44.61</v>
+      </c>
+      <c r="C30">
+        <v>6.27</v>
+      </c>
+      <c r="D30">
+        <v>31.86</v>
+      </c>
+      <c r="E30">
+        <v>68.14</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="L30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30">
+        <v>41.18</v>
+      </c>
+      <c r="N30">
+        <v>9.06</v>
+      </c>
+      <c r="O30">
+        <v>28.14</v>
+      </c>
+      <c r="P30">
+        <v>71.86</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
+      </c>
+      <c r="V30" t="s">
+        <v>7</v>
+      </c>
+      <c r="W30">
+        <v>36.01</v>
+      </c>
+      <c r="X30">
+        <v>10.44</v>
+      </c>
+      <c r="Y30">
+        <v>28.45</v>
+      </c>
+      <c r="Z30">
+        <v>71.55</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>10</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG30">
+        <v>25.37</v>
+      </c>
+      <c r="AH30">
+        <v>10.48</v>
+      </c>
+      <c r="AI30">
+        <v>19.78</v>
+      </c>
+      <c r="AJ30">
+        <v>80.22</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="5">
+        <f t="shared" ref="B31:G31" si="13">AVERAGE(B26:B30)</f>
+        <v>42.160000000000004</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="13"/>
+        <v>8.9559999999999995</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="13"/>
+        <v>31.639999999999997</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="13"/>
+        <v>68.359999999999985</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="13"/>
+        <v>5.2</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="21">
+        <v>42.65</v>
+      </c>
+      <c r="N31" s="21">
+        <v>6.22</v>
+      </c>
+      <c r="O31" s="21">
+        <v>30.47</v>
+      </c>
+      <c r="P31" s="21">
+        <v>69.53</v>
+      </c>
+      <c r="Q31" s="21">
+        <v>1</v>
+      </c>
+      <c r="R31" s="21">
+        <v>3</v>
+      </c>
+      <c r="S31" s="21"/>
+      <c r="V31" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="W31" s="21">
+        <v>44.22</v>
+      </c>
+      <c r="X31" s="21">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="Y31" s="21">
+        <v>33.17</v>
+      </c>
+      <c r="Z31" s="21">
+        <v>66.83</v>
+      </c>
+      <c r="AA31" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="21">
+        <v>5</v>
+      </c>
+      <c r="AF31" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG31" s="21">
+        <v>28.73</v>
+      </c>
+      <c r="AH31" s="21">
+        <v>5.62</v>
+      </c>
+      <c r="AI31" s="21">
+        <v>21.46</v>
+      </c>
+      <c r="AJ31" s="21">
+        <v>78.540000000000006</v>
+      </c>
+      <c r="AK31" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" ht="21" x14ac:dyDescent="0.4">
+      <c r="A32" s="33"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="L32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" ref="M32:R32" si="14">AVERAGE(M27:M31)</f>
+        <v>39.805999999999997</v>
+      </c>
+      <c r="N32" s="5">
+        <f t="shared" si="14"/>
+        <v>10.526</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="14"/>
+        <v>29.693999999999999</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="14"/>
+        <v>70.305999999999997</v>
+      </c>
+      <c r="Q32" s="5">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="R32" s="5">
+        <f t="shared" si="14"/>
+        <v>5.4</v>
+      </c>
+      <c r="S32" s="3"/>
+      <c r="V32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="W32" s="5">
+        <f t="shared" ref="W32" si="15">AVERAGE(W27:W31)</f>
+        <v>34.254000000000005</v>
+      </c>
+      <c r="X32" s="5">
+        <f t="shared" ref="X32" si="16">AVERAGE(X27:X31)</f>
+        <v>13.652000000000001</v>
+      </c>
+      <c r="Y32" s="5">
+        <f t="shared" ref="Y32" si="17">AVERAGE(Y27:Y31)</f>
+        <v>27.101999999999997</v>
+      </c>
+      <c r="Z32" s="5">
+        <f t="shared" ref="Z32" si="18">AVERAGE(Z27:Z31)</f>
+        <v>72.897999999999996</v>
+      </c>
+      <c r="AA32" s="5">
+        <f t="shared" ref="AA32" si="19">AVERAGE(AA27:AA31)</f>
+        <v>1</v>
+      </c>
+      <c r="AB32" s="5">
+        <f t="shared" ref="AB32" si="20">AVERAGE(AB27:AB31)</f>
+        <v>6.6</v>
+      </c>
+      <c r="AF32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG32" s="5">
+        <f t="shared" ref="AG32:AL32" si="21">AVERAGE(AG27:AG31)</f>
+        <v>27.088000000000001</v>
+      </c>
+      <c r="AH32" s="5">
+        <f t="shared" si="21"/>
+        <v>6.9260000000000002</v>
+      </c>
+      <c r="AI32" s="5">
+        <f t="shared" si="21"/>
+        <v>20.439999999999998</v>
+      </c>
+      <c r="AJ32" s="5">
+        <f t="shared" si="21"/>
+        <v>79.56</v>
+      </c>
+      <c r="AK32" s="5">
+        <f t="shared" si="21"/>
+        <v>1.4</v>
+      </c>
+      <c r="AL32" s="5">
+        <f t="shared" si="21"/>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Experiment_Resulsts/SaFIN(FRIE)_HFS_Classification_Results.xlsx
+++ b/Experiment_Resulsts/SaFIN(FRIE)_HFS_Classification_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\htet_predict_bank_failure\Experiment_Resulsts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FE7CDE-5F73-4108-A62E-924BBD754FE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD627B55-1422-46DF-8CBF-7A9372B6951A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{59BFD352-3181-4B2E-9A02-E25DF6E8A988}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="60">
   <si>
     <t>Now</t>
   </si>
@@ -3155,10 +3155,3211 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67566EC8-2D20-4A2C-89CA-FD459545D209}">
+  <dimension ref="A1:AB32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="11.44140625" style="37"/>
+    <col min="12" max="12" width="14.77734375" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" style="37"/>
+    <col min="21" max="21" width="11.44140625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="32"/>
+      <c r="V2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="G3" s="19">
+        <v>3487</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="V3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="19"/>
+      <c r="AB3" s="19"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="32"/>
+      <c r="W4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="C5">
+        <v>3.21</v>
+      </c>
+      <c r="D5">
+        <v>6.68</v>
+      </c>
+      <c r="E5">
+        <v>93.32</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>6.9</v>
+      </c>
+      <c r="N5">
+        <v>4.66</v>
+      </c>
+      <c r="O5">
+        <v>6.24</v>
+      </c>
+      <c r="P5">
+        <v>93.76</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>7</v>
+      </c>
+      <c r="V5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>22.32</v>
+      </c>
+      <c r="C6">
+        <v>0.98</v>
+      </c>
+      <c r="D6">
+        <v>18.66</v>
+      </c>
+      <c r="E6">
+        <v>81.34</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>68.08</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>40.64</v>
+      </c>
+      <c r="P6">
+        <v>59.36</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>8</v>
+      </c>
+      <c r="V6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="C7">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="D7">
+        <v>6.01</v>
+      </c>
+      <c r="E7">
+        <v>93.99</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="L7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>8.24</v>
+      </c>
+      <c r="N7">
+        <v>2.99</v>
+      </c>
+      <c r="O7">
+        <v>6.24</v>
+      </c>
+      <c r="P7">
+        <v>93.76</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="V7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>13.59</v>
+      </c>
+      <c r="C8">
+        <v>0.77</v>
+      </c>
+      <c r="D8">
+        <v>12.45</v>
+      </c>
+      <c r="E8">
+        <v>87.55</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>12.03</v>
+      </c>
+      <c r="N8">
+        <v>4.57</v>
+      </c>
+      <c r="O8">
+        <v>9</v>
+      </c>
+      <c r="P8">
+        <v>91</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="V8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7.35</v>
+      </c>
+      <c r="C9">
+        <v>3.21</v>
+      </c>
+      <c r="D9">
+        <v>6.1</v>
+      </c>
+      <c r="E9">
+        <v>93.9</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>17.82</v>
+      </c>
+      <c r="N9">
+        <v>0.81</v>
+      </c>
+      <c r="O9">
+        <v>10.97</v>
+      </c>
+      <c r="P9">
+        <v>89.03</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="V9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" ref="B10:G10" si="0">AVERAGE(B5:B9)</f>
+        <v>12.17</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>2.036</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>9.98</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>90.02000000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="5">
+        <f>AVERAGE(M5:M9)</f>
+        <v>22.613999999999997</v>
+      </c>
+      <c r="N10" s="5">
+        <f>AVERAGE(N5:N9)</f>
+        <v>2.6060000000000003</v>
+      </c>
+      <c r="O10" s="5">
+        <f>AVERAGE(O5:O9)</f>
+        <v>14.618</v>
+      </c>
+      <c r="P10" s="5">
+        <f>AVERAGE(P5:P9)</f>
+        <v>85.381999999999991</v>
+      </c>
+      <c r="Q10" s="5">
+        <f>AVERAGE(Q5:Q9)</f>
+        <v>1.2</v>
+      </c>
+      <c r="R10" s="5">
+        <f>AVERAGE(R5:R9)</f>
+        <v>7.2</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+    </row>
+    <row r="12" spans="1:28" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="V12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="E13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="40"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="P13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="R13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="32"/>
+      <c r="V13" s="2"/>
+      <c r="Z13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA13" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB13" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34">
+        <v>3321</v>
+      </c>
+      <c r="I14" s="40"/>
+      <c r="J14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="V14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B15" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="M15" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" s="32"/>
+      <c r="W15" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y15" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB15" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>22.4</v>
+      </c>
+      <c r="C16">
+        <v>7.39</v>
+      </c>
+      <c r="D16">
+        <v>17.66</v>
+      </c>
+      <c r="E16">
+        <v>82.34</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>35.68</v>
+      </c>
+      <c r="N16">
+        <v>0.62</v>
+      </c>
+      <c r="O16">
+        <v>27.6</v>
+      </c>
+      <c r="P16">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>9</v>
+      </c>
+      <c r="V16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>18.28</v>
+      </c>
+      <c r="C17">
+        <v>6.16</v>
+      </c>
+      <c r="D17">
+        <v>13.8</v>
+      </c>
+      <c r="E17">
+        <v>86.2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>15.93</v>
+      </c>
+      <c r="N17">
+        <v>5.37</v>
+      </c>
+      <c r="O17">
+        <v>12.49</v>
+      </c>
+      <c r="P17">
+        <v>87.51</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="V17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="C18">
+        <v>6.21</v>
+      </c>
+      <c r="D18">
+        <v>13.32</v>
+      </c>
+      <c r="E18">
+        <v>86.68</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>37.6</v>
+      </c>
+      <c r="N18">
+        <v>5.94</v>
+      </c>
+      <c r="O18">
+        <v>26.05</v>
+      </c>
+      <c r="P18">
+        <v>73.95</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>7</v>
+      </c>
+      <c r="V18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>17.75</v>
+      </c>
+      <c r="C19">
+        <v>5.9</v>
+      </c>
+      <c r="D19">
+        <v>13.98</v>
+      </c>
+      <c r="E19">
+        <v>86.02</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>22.98</v>
+      </c>
+      <c r="N19">
+        <v>5.15</v>
+      </c>
+      <c r="O19">
+        <v>16.27</v>
+      </c>
+      <c r="P19">
+        <v>83.73</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="V19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="C20">
+        <v>5.63</v>
+      </c>
+      <c r="D20">
+        <v>12.46</v>
+      </c>
+      <c r="E20">
+        <v>87.54</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="21">
+        <v>19.32</v>
+      </c>
+      <c r="N20" s="21">
+        <v>3.56</v>
+      </c>
+      <c r="O20" s="21">
+        <v>12.96</v>
+      </c>
+      <c r="P20" s="21">
+        <v>87.04</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>1</v>
+      </c>
+      <c r="R20" s="21">
+        <v>6</v>
+      </c>
+      <c r="S20" s="21"/>
+      <c r="V20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" ref="B21:G21" si="1">AVERAGE(B16:B20)</f>
+        <v>18.317999999999998</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="1"/>
+        <v>6.2580000000000009</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="1"/>
+        <v>14.244</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>85.756</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="5">
+        <f>AVERAGE(M16:M20)</f>
+        <v>26.302000000000003</v>
+      </c>
+      <c r="N21" s="5">
+        <f>AVERAGE(N16:N20)</f>
+        <v>4.1279999999999992</v>
+      </c>
+      <c r="O21" s="5">
+        <f>AVERAGE(O16:O20)</f>
+        <v>19.074000000000002</v>
+      </c>
+      <c r="P21" s="5">
+        <f>AVERAGE(P16:P20)</f>
+        <v>80.926000000000016</v>
+      </c>
+      <c r="Q21" s="5">
+        <f>AVERAGE(Q16:Q20)</f>
+        <v>1.4</v>
+      </c>
+      <c r="R21" s="5">
+        <f>AVERAGE(R16:R20)</f>
+        <v>6.8</v>
+      </c>
+      <c r="S21" s="3"/>
+      <c r="V21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="E22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="J22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="L22" s="2"/>
+      <c r="P22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="V22" s="2"/>
+      <c r="Z22" s="19"/>
+      <c r="AB22" s="19"/>
+    </row>
+    <row r="23" spans="1:28" ht="21" x14ac:dyDescent="0.4">
+      <c r="A23" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="J23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+    </row>
+    <row r="24" spans="1:28" ht="21" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34">
+        <v>2993</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="R24" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S24" s="32"/>
+      <c r="V24" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z24" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA24" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB24" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B25" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="V25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>29.58</v>
+      </c>
+      <c r="C26">
+        <v>12.18</v>
+      </c>
+      <c r="D26">
+        <v>24.99</v>
+      </c>
+      <c r="E26">
+        <v>75.010000000000005</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="M26" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="O26" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="R26" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" s="32"/>
+      <c r="W26" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="X26" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y26" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB26" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>28.52</v>
+      </c>
+      <c r="C27">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="D27">
+        <v>21.95</v>
+      </c>
+      <c r="E27">
+        <v>78.05</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="L27" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>24.3</v>
+      </c>
+      <c r="N27">
+        <v>10.76</v>
+      </c>
+      <c r="O27">
+        <v>20.38</v>
+      </c>
+      <c r="P27">
+        <v>79.62</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>7</v>
+      </c>
+      <c r="V27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>25.35</v>
+      </c>
+      <c r="C28">
+        <v>11.52</v>
+      </c>
+      <c r="D28">
+        <v>21.5</v>
+      </c>
+      <c r="E28">
+        <v>78.5</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="L28" t="s">
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <v>25</v>
+      </c>
+      <c r="N28">
+        <v>9</v>
+      </c>
+      <c r="O28">
+        <v>19.57</v>
+      </c>
+      <c r="P28">
+        <v>80.430000000000007</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="V28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>23.24</v>
+      </c>
+      <c r="C29">
+        <v>11.71</v>
+      </c>
+      <c r="D29">
+        <v>19.68</v>
+      </c>
+      <c r="E29">
+        <v>80.319999999999993</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="L29" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>22.89</v>
+      </c>
+      <c r="N29">
+        <v>15.26</v>
+      </c>
+      <c r="O29">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="P29">
+        <v>79.58</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>7</v>
+      </c>
+      <c r="V29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A30" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>28.62</v>
+      </c>
+      <c r="C30">
+        <v>7.53</v>
+      </c>
+      <c r="D30">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="E30">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="L30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30">
+        <v>31.69</v>
+      </c>
+      <c r="N30">
+        <v>11.8</v>
+      </c>
+      <c r="O30">
+        <v>24</v>
+      </c>
+      <c r="P30">
+        <v>76</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>6</v>
+      </c>
+      <c r="V30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="5">
+        <f t="shared" ref="B31:G31" si="2">AVERAGE(B26:B30)</f>
+        <v>27.061999999999994</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="2"/>
+        <v>10.464</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="2"/>
+        <v>21.626000000000001</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="2"/>
+        <v>78.373999999999995</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="2"/>
+        <v>5.2</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="21">
+        <v>82.04</v>
+      </c>
+      <c r="N31" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O31" s="21">
+        <v>42.09</v>
+      </c>
+      <c r="P31" s="21">
+        <v>57.91</v>
+      </c>
+      <c r="Q31" s="21">
+        <v>1</v>
+      </c>
+      <c r="R31" s="21">
+        <v>5</v>
+      </c>
+      <c r="S31" s="21"/>
+      <c r="V31" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+    </row>
+    <row r="32" spans="1:28" ht="21" x14ac:dyDescent="0.4">
+      <c r="A32" s="33"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="L32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="5">
+        <f>AVERAGE(M27:M31)</f>
+        <v>37.184000000000005</v>
+      </c>
+      <c r="N32" s="5">
+        <f>AVERAGE(N27:N31)</f>
+        <v>9.3919999999999995</v>
+      </c>
+      <c r="O32" s="5">
+        <f>AVERAGE(O27:O31)</f>
+        <v>25.292000000000002</v>
+      </c>
+      <c r="P32" s="5">
+        <f>AVERAGE(P27:P31)</f>
+        <v>74.707999999999998</v>
+      </c>
+      <c r="Q32" s="5">
+        <f>AVERAGE(Q27:Q31)</f>
+        <v>1</v>
+      </c>
+      <c r="R32" s="5">
+        <f>AVERAGE(R27:R31)</f>
+        <v>6</v>
+      </c>
+      <c r="S32" s="3"/>
+      <c r="V32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBC2BF5-CA36-4037-80F7-043C0B98B69C}">
+  <dimension ref="A1:AE54"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="15"/>
+      <c r="V2" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="G3" s="19">
+        <v>3404</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="19">
+        <v>3071</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="4"/>
+      <c r="V3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="19">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>17.57</v>
+      </c>
+      <c r="C6">
+        <v>7.23</v>
+      </c>
+      <c r="D6">
+        <v>14.49</v>
+      </c>
+      <c r="E6">
+        <v>85.51</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>25.09</v>
+      </c>
+      <c r="K6">
+        <v>11.3</v>
+      </c>
+      <c r="L6">
+        <v>21.6</v>
+      </c>
+      <c r="M6">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>45.59</v>
+      </c>
+      <c r="S6">
+        <v>5.45</v>
+      </c>
+      <c r="T6">
+        <v>32.270000000000003</v>
+      </c>
+      <c r="U6">
+        <v>67.73</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C7">
+        <v>6.25</v>
+      </c>
+      <c r="D7">
+        <v>13.59</v>
+      </c>
+      <c r="E7">
+        <v>86.41</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>38.81</v>
+      </c>
+      <c r="K7">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="L7">
+        <v>25.87</v>
+      </c>
+      <c r="M7">
+        <v>74.13</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>8</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="S7">
+        <v>10.84</v>
+      </c>
+      <c r="T7">
+        <v>31.48</v>
+      </c>
+      <c r="U7">
+        <v>68.52</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>15.28</v>
+      </c>
+      <c r="C8">
+        <v>7.36</v>
+      </c>
+      <c r="D8">
+        <v>12.09</v>
+      </c>
+      <c r="E8">
+        <v>87.91</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>33.22</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>24.13</v>
+      </c>
+      <c r="M8">
+        <v>75.87</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>42.65</v>
+      </c>
+      <c r="S8">
+        <v>11.18</v>
+      </c>
+      <c r="T8">
+        <v>32.69</v>
+      </c>
+      <c r="U8">
+        <v>67.31</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>17.88</v>
+      </c>
+      <c r="C9">
+        <v>6.8</v>
+      </c>
+      <c r="D9">
+        <v>14.01</v>
+      </c>
+      <c r="E9">
+        <v>85.99</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>24.48</v>
+      </c>
+      <c r="K9">
+        <v>11.71</v>
+      </c>
+      <c r="L9">
+        <v>20.28</v>
+      </c>
+      <c r="M9">
+        <v>79.72</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>37.75</v>
+      </c>
+      <c r="S9">
+        <v>11.04</v>
+      </c>
+      <c r="T9">
+        <v>29.9</v>
+      </c>
+      <c r="U9">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>18.09</v>
+      </c>
+      <c r="C10">
+        <v>5.65</v>
+      </c>
+      <c r="D10">
+        <v>13.87</v>
+      </c>
+      <c r="E10">
+        <v>86.13</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>24.04</v>
+      </c>
+      <c r="K10">
+        <v>11.57</v>
+      </c>
+      <c r="L10">
+        <v>20.21</v>
+      </c>
+      <c r="M10">
+        <v>79.790000000000006</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>44.61</v>
+      </c>
+      <c r="S10">
+        <v>6.27</v>
+      </c>
+      <c r="T10">
+        <v>31.86</v>
+      </c>
+      <c r="U10">
+        <v>68.14</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f t="shared" ref="B11:G11" si="0">AVERAGE(B6:B10)</f>
+        <v>17.184000000000001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>6.6579999999999995</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>13.61</v>
+      </c>
+      <c r="E11" s="24">
+        <f t="shared" si="0"/>
+        <v>86.390000000000015</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:O11" si="1">AVERAGE(J6:J10)</f>
+        <v>29.128000000000004</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>9.9740000000000002</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>22.417999999999999</v>
+      </c>
+      <c r="M11" s="24">
+        <f t="shared" si="1"/>
+        <v>77.582000000000008</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>6.2</v>
+      </c>
+      <c r="R11">
+        <f t="shared" ref="R11:W11" si="2">AVERAGE(R6:R10)</f>
+        <v>42.160000000000004</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>8.9559999999999995</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>31.639999999999997</v>
+      </c>
+      <c r="U11" s="24">
+        <f t="shared" si="2"/>
+        <v>68.359999999999985</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="Q12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:31" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14">
+        <f>AVERAGE(J6:L10)</f>
+        <v>20.506666666666664</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" s="15"/>
+      <c r="AA14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE14" s="15"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="19">
+        <v>3404</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="19">
+        <v>3071</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="V15" t="s">
+        <v>39</v>
+      </c>
+      <c r="W15" s="19">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>17.05</v>
+      </c>
+      <c r="C18">
+        <v>6.59</v>
+      </c>
+      <c r="D18">
+        <v>11.82</v>
+      </c>
+      <c r="E18">
+        <v>88.18</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>30.66</v>
+      </c>
+      <c r="K18">
+        <v>6.27</v>
+      </c>
+      <c r="L18">
+        <v>18.47</v>
+      </c>
+      <c r="M18">
+        <v>81.53</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>8</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>41.18</v>
+      </c>
+      <c r="S18">
+        <v>10.31</v>
+      </c>
+      <c r="T18">
+        <v>25.74</v>
+      </c>
+      <c r="U18">
+        <v>74.260000000000005</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C19">
+        <v>5.18</v>
+      </c>
+      <c r="D19">
+        <v>11.14</v>
+      </c>
+      <c r="E19">
+        <v>88.86</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>24.48</v>
+      </c>
+      <c r="K19">
+        <v>10.69</v>
+      </c>
+      <c r="L19">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="M19">
+        <v>82.42</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>42.65</v>
+      </c>
+      <c r="S19">
+        <v>7.23</v>
+      </c>
+      <c r="T19">
+        <v>24.94</v>
+      </c>
+      <c r="U19">
+        <v>75.06</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>17.36</v>
+      </c>
+      <c r="C20">
+        <v>3.89</v>
+      </c>
+      <c r="D20">
+        <v>10.63</v>
+      </c>
+      <c r="E20">
+        <v>89.37</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>24.56</v>
+      </c>
+      <c r="K20">
+        <v>11.79</v>
+      </c>
+      <c r="L20">
+        <v>18.18</v>
+      </c>
+      <c r="M20">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20">
+        <v>31.37</v>
+      </c>
+      <c r="S20">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="T20">
+        <v>25.59</v>
+      </c>
+      <c r="U20">
+        <v>74.41</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>17.62</v>
+      </c>
+      <c r="C21">
+        <v>5.56</v>
+      </c>
+      <c r="D21">
+        <v>11.59</v>
+      </c>
+      <c r="E21">
+        <v>88.41</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>24.74</v>
+      </c>
+      <c r="K21">
+        <v>11.02</v>
+      </c>
+      <c r="L21">
+        <v>17.88</v>
+      </c>
+      <c r="M21">
+        <v>82.12</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>8</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>7</v>
+      </c>
+      <c r="R21">
+        <v>41.18</v>
+      </c>
+      <c r="S21">
+        <v>9.06</v>
+      </c>
+      <c r="T21">
+        <v>25.12</v>
+      </c>
+      <c r="U21">
+        <v>74.88</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>19.12</v>
+      </c>
+      <c r="C22">
+        <v>6.25</v>
+      </c>
+      <c r="D22">
+        <v>12.69</v>
+      </c>
+      <c r="E22">
+        <v>87.31</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>21.33</v>
+      </c>
+      <c r="K22">
+        <v>14.47</v>
+      </c>
+      <c r="L22">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="M22">
+        <v>82.1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>7</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22">
+        <v>42.65</v>
+      </c>
+      <c r="S22">
+        <v>6.22</v>
+      </c>
+      <c r="T22">
+        <v>24.43</v>
+      </c>
+      <c r="U22">
+        <v>75.569999999999993</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E23" s="24">
+        <f>AVERAGE(E18:E22)</f>
+        <v>88.426000000000016</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(F18:F22)</f>
+        <v>1.4</v>
+      </c>
+      <c r="G23">
+        <f>AVERAGE(G18:G22)</f>
+        <v>5.8</v>
+      </c>
+      <c r="M23" s="24">
+        <f>AVERAGE(M18:M22)</f>
+        <v>81.998000000000005</v>
+      </c>
+      <c r="N23">
+        <f>AVERAGE(N18:N22)</f>
+        <v>1.4</v>
+      </c>
+      <c r="O23">
+        <f>AVERAGE(O18:O22)</f>
+        <v>6.2</v>
+      </c>
+      <c r="U23" s="24">
+        <f>AVERAGE(U18:U22)</f>
+        <v>74.835999999999999</v>
+      </c>
+      <c r="V23">
+        <f>AVERAGE(V18:V22)</f>
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <f>AVERAGE(W18:W22)</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="I24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+    </row>
+    <row r="25" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="17"/>
+    </row>
+    <row r="28" spans="1:26" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="I28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="7"/>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="W29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="19">
+        <v>3624</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" s="19">
+        <v>3620</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U30" s="4"/>
+      <c r="V30" t="s">
+        <v>40</v>
+      </c>
+      <c r="W30" s="19">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W32" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>20.11</v>
+      </c>
+      <c r="C33">
+        <v>5.41</v>
+      </c>
+      <c r="D33">
+        <v>12.76</v>
+      </c>
+      <c r="E33">
+        <v>87.24</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>21.49</v>
+      </c>
+      <c r="K33">
+        <v>9.42</v>
+      </c>
+      <c r="L33">
+        <v>15.45</v>
+      </c>
+      <c r="M33">
+        <v>84.55</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>9</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33">
+        <v>31.16</v>
+      </c>
+      <c r="S33">
+        <v>10.91</v>
+      </c>
+      <c r="T33">
+        <v>21.03</v>
+      </c>
+      <c r="U33">
+        <v>78.97</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>18.48</v>
+      </c>
+      <c r="C34">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="D34">
+        <v>11.41</v>
+      </c>
+      <c r="E34">
+        <v>88.59</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>8</v>
+      </c>
+      <c r="I34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>22.63</v>
+      </c>
+      <c r="K34">
+        <v>11.41</v>
+      </c>
+      <c r="L34">
+        <v>17.02</v>
+      </c>
+      <c r="M34">
+        <v>82.98</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>13</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>5</v>
+      </c>
+      <c r="R34">
+        <v>32.28</v>
+      </c>
+      <c r="S34">
+        <v>11.63</v>
+      </c>
+      <c r="T34">
+        <v>21.95</v>
+      </c>
+      <c r="U34">
+        <v>78.05</v>
+      </c>
+      <c r="V34">
+        <v>2</v>
+      </c>
+      <c r="W34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>25.36</v>
+      </c>
+      <c r="C35">
+        <v>5.88</v>
+      </c>
+      <c r="D35">
+        <v>15.62</v>
+      </c>
+      <c r="E35">
+        <v>84.38</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <v>24.95</v>
+      </c>
+      <c r="K35">
+        <v>10.23</v>
+      </c>
+      <c r="L35">
+        <v>17.59</v>
+      </c>
+      <c r="M35">
+        <v>82.41</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>6</v>
+      </c>
+      <c r="R35">
+        <v>31.34</v>
+      </c>
+      <c r="S35">
+        <v>10.14</v>
+      </c>
+      <c r="T35">
+        <v>20.74</v>
+      </c>
+      <c r="U35">
+        <v>79.260000000000005</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>11.05</v>
+      </c>
+      <c r="C36">
+        <v>36.47</v>
+      </c>
+      <c r="D36">
+        <v>23.76</v>
+      </c>
+      <c r="E36">
+        <v>76.239999999999995</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36">
+        <v>23.86</v>
+      </c>
+      <c r="K36">
+        <v>10.65</v>
+      </c>
+      <c r="L36">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="M36">
+        <v>82.74</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>6</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>7</v>
+      </c>
+      <c r="R36">
+        <v>36.01</v>
+      </c>
+      <c r="S36">
+        <v>10.44</v>
+      </c>
+      <c r="T36">
+        <v>23.22</v>
+      </c>
+      <c r="U36">
+        <v>76.78</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="C37">
+        <v>70.73</v>
+      </c>
+      <c r="D37">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="E37">
+        <v>60.2</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <v>24.04</v>
+      </c>
+      <c r="K37">
+        <v>11.25</v>
+      </c>
+      <c r="L37">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="M37">
+        <v>82.35</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>11</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>8</v>
+      </c>
+      <c r="R37">
+        <v>44.22</v>
+      </c>
+      <c r="S37">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="T37">
+        <v>31.57</v>
+      </c>
+      <c r="U37">
+        <v>68.430000000000007</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E38" s="2">
+        <f>AVERAGE(E33:E37)</f>
+        <v>79.33</v>
+      </c>
+      <c r="F38">
+        <f>AVERAGE(F33:F37)</f>
+        <v>1.8</v>
+      </c>
+      <c r="G38">
+        <f>AVERAGE(G33:G37)</f>
+        <v>9.6</v>
+      </c>
+      <c r="M38" s="4">
+        <f>AVERAGE(M33:M37)</f>
+        <v>83.006</v>
+      </c>
+      <c r="N38">
+        <f>AVERAGE(N33:N37)</f>
+        <v>1.4</v>
+      </c>
+      <c r="O38">
+        <f>AVERAGE(O33:O37)</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="U38" s="4">
+        <f>AVERAGE(U33:U37)</f>
+        <v>76.297999999999988</v>
+      </c>
+      <c r="V38">
+        <f>AVERAGE(V33:V37)</f>
+        <v>1.2</v>
+      </c>
+      <c r="W38">
+        <f>AVERAGE(W33:W37)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="I39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="Q39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D07C55-6007-C646-9152-6264139E81A7}">
   <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" activeCellId="1" sqref="G11 H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3239,9 +6440,14 @@
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="19">
+        <v>483</v>
+      </c>
+      <c r="F3">
+        <v>2921</v>
+      </c>
       <c r="G3" s="19">
-        <v>3487</v>
+        <v>3404</v>
       </c>
       <c r="J3" t="s">
         <v>34</v>
@@ -3364,22 +6570,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>8.4600000000000009</v>
+        <v>17.57</v>
       </c>
       <c r="C5">
-        <v>3.21</v>
+        <v>7.23</v>
       </c>
       <c r="D5">
-        <v>6.68</v>
+        <v>14.49</v>
       </c>
       <c r="E5">
-        <v>93.32</v>
+        <v>85.51</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
@@ -3450,19 +6656,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>22.32</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="C6">
-        <v>0.98</v>
+        <v>6.25</v>
       </c>
       <c r="D6">
-        <v>18.66</v>
+        <v>13.59</v>
       </c>
       <c r="E6">
-        <v>81.34</v>
+        <v>86.41</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -3536,22 +6742,22 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9.1300000000000008</v>
+        <v>15.28</v>
       </c>
       <c r="C7">
-        <v>2.0099999999999998</v>
+        <v>7.36</v>
       </c>
       <c r="D7">
-        <v>6.01</v>
+        <v>12.09</v>
       </c>
       <c r="E7">
-        <v>93.99</v>
+        <v>87.91</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" t="s">
         <v>6</v>
@@ -3622,22 +6828,22 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>13.59</v>
+        <v>17.88</v>
       </c>
       <c r="C8">
-        <v>0.77</v>
+        <v>6.8</v>
       </c>
       <c r="D8">
-        <v>12.45</v>
+        <v>14.01</v>
       </c>
       <c r="E8">
-        <v>87.55</v>
+        <v>85.99</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" t="s">
         <v>7</v>
@@ -3708,16 +6914,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7.35</v>
+        <v>18.09</v>
       </c>
       <c r="C9">
-        <v>3.21</v>
+        <v>5.65</v>
       </c>
       <c r="D9">
-        <v>6.1</v>
+        <v>13.87</v>
       </c>
       <c r="E9">
-        <v>93.9</v>
+        <v>86.13</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3794,108 +7000,108 @@
         <v>46</v>
       </c>
       <c r="B10" s="5">
-        <f>AVERAGE(B5:B9)</f>
-        <v>12.17</v>
+        <f t="shared" ref="B10:G10" si="0">AVERAGE(B5:B9)</f>
+        <v>17.184000000000001</v>
       </c>
       <c r="C10" s="5">
-        <f>AVERAGE(C5:C9)</f>
-        <v>2.036</v>
+        <f t="shared" si="0"/>
+        <v>6.6579999999999995</v>
       </c>
       <c r="D10" s="5">
-        <f>AVERAGE(D5:D9)</f>
-        <v>9.98</v>
+        <f t="shared" si="0"/>
+        <v>13.61</v>
       </c>
       <c r="E10" s="5">
-        <f>AVERAGE(E5:E9)</f>
-        <v>90.02000000000001</v>
+        <f t="shared" si="0"/>
+        <v>86.390000000000015</v>
       </c>
       <c r="F10" s="5">
-        <f>AVERAGE(F5:F9)</f>
-        <v>1.4</v>
+        <f t="shared" si="0"/>
+        <v>1.2</v>
       </c>
       <c r="G10" s="5">
-        <f>AVERAGE(G5:G9)</f>
-        <v>9.4</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>46</v>
       </c>
       <c r="M10" s="5">
-        <f t="shared" ref="M10:R10" si="0">AVERAGE(M5:M9)</f>
+        <f t="shared" ref="M10:R10" si="1">AVERAGE(M5:M9)</f>
         <v>18.324000000000002</v>
       </c>
       <c r="N10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.202</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.883999999999997</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>86.116</v>
       </c>
       <c r="Q10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>46</v>
       </c>
       <c r="W10" s="5">
-        <f t="shared" ref="W10:AB10" si="1">AVERAGE(W5:W9)</f>
+        <f t="shared" ref="W10:AB10" si="2">AVERAGE(W5:W9)</f>
         <v>18.405999999999999</v>
       </c>
       <c r="X10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.181999999999999</v>
       </c>
       <c r="Y10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.931999999999999</v>
       </c>
       <c r="Z10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78.067999999999998</v>
       </c>
       <c r="AA10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
       <c r="AB10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.4</v>
       </c>
       <c r="AF10" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="5">
-        <f t="shared" ref="AG10:AL10" si="2">AVERAGE(AG5:AG9)</f>
+        <f t="shared" ref="AG10:AL10" si="3">AVERAGE(AG5:AG9)</f>
         <v>30.001999999999999</v>
       </c>
       <c r="AH10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2200000000000006</v>
       </c>
       <c r="AI10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.582000000000001</v>
       </c>
       <c r="AJ10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78.417999999999992</v>
       </c>
       <c r="AK10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
       <c r="AL10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.6</v>
       </c>
     </row>
@@ -4020,10 +7226,14 @@
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="E14" s="34">
+        <v>358</v>
+      </c>
+      <c r="F14" s="34">
+        <v>2713</v>
+      </c>
       <c r="G14" s="34">
-        <v>3321</v>
+        <v>3071</v>
       </c>
       <c r="I14" s="40"/>
       <c r="J14" s="21" t="s">
@@ -4161,22 +7371,22 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>22.4</v>
+        <v>25.09</v>
       </c>
       <c r="C16">
-        <v>7.39</v>
+        <v>11.3</v>
       </c>
       <c r="D16">
-        <v>17.66</v>
+        <v>21.6</v>
       </c>
       <c r="E16">
-        <v>82.34</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -4250,22 +7460,22 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>18.28</v>
+        <v>38.81</v>
       </c>
       <c r="C17">
-        <v>6.16</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="D17">
-        <v>13.8</v>
+        <v>25.87</v>
       </c>
       <c r="E17">
-        <v>86.2</v>
+        <v>74.13</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
@@ -4339,22 +7549,22 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>16.670000000000002</v>
+        <v>33.22</v>
       </c>
       <c r="C18">
-        <v>6.21</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>13.32</v>
+        <v>24.13</v>
       </c>
       <c r="E18">
-        <v>86.68</v>
+        <v>75.87</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
         <v>32</v>
@@ -4428,22 +7638,22 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>17.75</v>
+        <v>24.48</v>
       </c>
       <c r="C19">
-        <v>5.9</v>
+        <v>11.71</v>
       </c>
       <c r="D19">
-        <v>13.98</v>
+        <v>20.28</v>
       </c>
       <c r="E19">
-        <v>86.02</v>
+        <v>79.72</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J19" t="s">
         <v>21</v>
@@ -4513,26 +7723,26 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B20">
-        <v>16.489999999999998</v>
+        <v>24.04</v>
       </c>
       <c r="C20">
-        <v>5.63</v>
+        <v>11.57</v>
       </c>
       <c r="D20">
-        <v>12.46</v>
+        <v>20.21</v>
       </c>
       <c r="E20">
-        <v>87.54</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
         <v>22</v>
@@ -4607,28 +7817,28 @@
         <v>9</v>
       </c>
       <c r="B21" s="5">
-        <f>AVERAGE(B16:B20)</f>
-        <v>18.317999999999998</v>
+        <f t="shared" ref="B21:G21" si="4">AVERAGE(B16:B20)</f>
+        <v>29.128000000000004</v>
       </c>
       <c r="C21" s="5">
-        <f>AVERAGE(C16:C20)</f>
-        <v>6.2580000000000009</v>
+        <f t="shared" si="4"/>
+        <v>9.9740000000000002</v>
       </c>
       <c r="D21" s="5">
-        <f>AVERAGE(D16:D20)</f>
-        <v>14.244</v>
+        <f t="shared" si="4"/>
+        <v>22.417999999999999</v>
       </c>
       <c r="E21" s="5">
-        <f>AVERAGE(E16:E20)</f>
-        <v>85.756</v>
+        <f t="shared" si="4"/>
+        <v>77.582000000000008</v>
       </c>
       <c r="F21" s="5">
-        <f>AVERAGE(F16:F20)</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
       <c r="G21" s="5">
-        <f>AVERAGE(G16:G20)</f>
-        <v>6.6</v>
+        <f t="shared" si="4"/>
+        <v>6.2</v>
       </c>
       <c r="J21" t="s">
         <v>23</v>
@@ -4637,27 +7847,27 @@
         <v>9</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" ref="M21:R21" si="3">AVERAGE(M16:M20)</f>
+        <f t="shared" ref="M21:R21" si="5">AVERAGE(M16:M20)</f>
         <v>25.224</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10.802</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20.577999999999999</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>79.421999999999997</v>
       </c>
       <c r="Q21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.2</v>
       </c>
       <c r="S21" s="3"/>
@@ -4665,54 +7875,54 @@
         <v>9</v>
       </c>
       <c r="W21" s="5">
-        <f t="shared" ref="W21:AB21" si="4">AVERAGE(W16:W20)</f>
+        <f t="shared" ref="W21" si="6">AVERAGE(W16:W20)</f>
         <v>23.393999999999998</v>
       </c>
       <c r="X21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="X21" si="7">AVERAGE(X16:X20)</f>
         <v>10.592000000000001</v>
       </c>
       <c r="Y21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="Y21" si="8">AVERAGE(Y16:Y20)</f>
         <v>19.294</v>
       </c>
       <c r="Z21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="Z21" si="9">AVERAGE(Z16:Z20)</f>
         <v>80.705999999999989</v>
       </c>
       <c r="AA21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AA21" si="10">AVERAGE(AA16:AA20)</f>
         <v>1.4</v>
       </c>
       <c r="AB21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AB21" si="11">AVERAGE(AB16:AB20)</f>
         <v>8.8000000000000007</v>
       </c>
       <c r="AF21" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AG21" s="5">
-        <f t="shared" ref="AG21:AL21" si="5">AVERAGE(AG16:AG20)</f>
+        <f t="shared" ref="AG21:AL21" si="12">AVERAGE(AG16:AG20)</f>
         <v>22.378</v>
       </c>
       <c r="AH21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>7.0359999999999996</v>
       </c>
       <c r="AI21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>16.624000000000002</v>
       </c>
       <c r="AJ21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>83.376000000000005</v>
       </c>
       <c r="AK21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1.2</v>
       </c>
       <c r="AL21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>8.6</v>
       </c>
     </row>
@@ -4783,10 +7993,14 @@
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
+      <c r="E24" s="34">
+        <v>255</v>
+      </c>
+      <c r="F24" s="34">
+        <v>2594</v>
+      </c>
       <c r="G24" s="34">
-        <v>2993</v>
+        <v>2849</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="38"/>
@@ -4904,22 +8118,22 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>29.58</v>
+        <v>45.59</v>
       </c>
       <c r="C26">
-        <v>12.18</v>
+        <v>5.45</v>
       </c>
       <c r="D26">
-        <v>24.99</v>
+        <v>32.270000000000003</v>
       </c>
       <c r="E26">
-        <v>75.010000000000005</v>
+        <v>67.73</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M26" s="32" t="s">
         <v>13</v>
@@ -4982,22 +8196,22 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>28.52</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="C27">
-        <v>9.3800000000000008</v>
+        <v>10.84</v>
       </c>
       <c r="D27">
-        <v>21.95</v>
+        <v>31.48</v>
       </c>
       <c r="E27">
-        <v>78.05</v>
+        <v>68.52</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L27" t="s">
         <v>4</v>
@@ -5068,22 +8282,22 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>25.35</v>
+        <v>42.65</v>
       </c>
       <c r="C28">
-        <v>11.52</v>
+        <v>11.18</v>
       </c>
       <c r="D28">
-        <v>21.5</v>
+        <v>32.69</v>
       </c>
       <c r="E28">
-        <v>78.5</v>
+        <v>67.31</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L28" t="s">
         <v>5</v>
@@ -5154,22 +8368,22 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>23.24</v>
+        <v>37.75</v>
       </c>
       <c r="C29">
-        <v>11.71</v>
+        <v>11.04</v>
       </c>
       <c r="D29">
-        <v>19.68</v>
+        <v>29.9</v>
       </c>
       <c r="E29">
-        <v>80.319999999999993</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L29" t="s">
         <v>6</v>
@@ -5236,26 +8450,26 @@
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B30">
-        <v>28.62</v>
+        <v>44.61</v>
       </c>
       <c r="C30">
-        <v>7.53</v>
+        <v>6.27</v>
       </c>
       <c r="D30">
-        <v>20.010000000000002</v>
+        <v>31.86</v>
       </c>
       <c r="E30">
-        <v>79.989999999999995</v>
+        <v>68.14</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L30" t="s">
         <v>7</v>
@@ -5326,27 +8540,27 @@
         <v>9</v>
       </c>
       <c r="B31" s="5">
-        <f>AVERAGE(B26:B30)</f>
-        <v>27.061999999999994</v>
+        <f t="shared" ref="B31:G31" si="13">AVERAGE(B26:B30)</f>
+        <v>42.160000000000004</v>
       </c>
       <c r="C31" s="5">
-        <f>AVERAGE(C26:C30)</f>
-        <v>10.464</v>
+        <f t="shared" si="13"/>
+        <v>8.9559999999999995</v>
       </c>
       <c r="D31" s="5">
-        <f>AVERAGE(D26:D30)</f>
-        <v>21.626000000000001</v>
+        <f t="shared" si="13"/>
+        <v>31.639999999999997</v>
       </c>
       <c r="E31" s="5">
-        <f>AVERAGE(E26:E30)</f>
-        <v>78.373999999999995</v>
+        <f t="shared" si="13"/>
+        <v>68.359999999999985</v>
       </c>
       <c r="F31" s="5">
-        <f>AVERAGE(F26:F30)</f>
-        <v>1.4</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G31" s="5">
-        <f>AVERAGE(G26:G30)</f>
+        <f t="shared" si="13"/>
         <v>5.2</v>
       </c>
       <c r="L31" s="20" t="s">
@@ -5423,4123 +8637,6 @@
         <v>9</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" ref="M32:R32" si="6">AVERAGE(M27:M31)</f>
-        <v>39.805999999999997</v>
-      </c>
-      <c r="N32" s="5">
-        <f t="shared" si="6"/>
-        <v>10.526</v>
-      </c>
-      <c r="O32" s="5">
-        <f t="shared" si="6"/>
-        <v>29.693999999999999</v>
-      </c>
-      <c r="P32" s="5">
-        <f t="shared" si="6"/>
-        <v>70.305999999999997</v>
-      </c>
-      <c r="Q32" s="5">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="R32" s="5">
-        <f t="shared" si="6"/>
-        <v>5.4</v>
-      </c>
-      <c r="S32" s="3"/>
-      <c r="V32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="W32" s="5">
-        <f t="shared" ref="W32:AB32" si="7">AVERAGE(W27:W31)</f>
-        <v>34.254000000000005</v>
-      </c>
-      <c r="X32" s="5">
-        <f t="shared" si="7"/>
-        <v>13.652000000000001</v>
-      </c>
-      <c r="Y32" s="5">
-        <f t="shared" si="7"/>
-        <v>27.101999999999997</v>
-      </c>
-      <c r="Z32" s="5">
-        <f t="shared" si="7"/>
-        <v>72.897999999999996</v>
-      </c>
-      <c r="AA32" s="5">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AB32" s="5">
-        <f t="shared" si="7"/>
-        <v>6.6</v>
-      </c>
-      <c r="AF32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG32" s="5">
-        <f t="shared" ref="AG32:AL32" si="8">AVERAGE(AG27:AG31)</f>
-        <v>27.088000000000001</v>
-      </c>
-      <c r="AH32" s="5">
-        <f t="shared" si="8"/>
-        <v>6.9260000000000002</v>
-      </c>
-      <c r="AI32" s="5">
-        <f t="shared" si="8"/>
-        <v>20.439999999999998</v>
-      </c>
-      <c r="AJ32" s="5">
-        <f t="shared" si="8"/>
-        <v>79.56</v>
-      </c>
-      <c r="AK32" s="5">
-        <f t="shared" si="8"/>
-        <v>1.4</v>
-      </c>
-      <c r="AL32" s="5">
-        <f t="shared" si="8"/>
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBC2BF5-CA36-4037-80F7-043C0B98B69C}">
-  <dimension ref="A1:AE54"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="G3" s="19">
-        <v>3404</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="19">
-        <v>3071</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U3" s="4"/>
-      <c r="V3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="19">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>17.57</v>
-      </c>
-      <c r="C6">
-        <v>7.23</v>
-      </c>
-      <c r="D6">
-        <v>14.49</v>
-      </c>
-      <c r="E6">
-        <v>85.51</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>25.09</v>
-      </c>
-      <c r="K6">
-        <v>11.3</v>
-      </c>
-      <c r="L6">
-        <v>21.6</v>
-      </c>
-      <c r="M6">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R6">
-        <v>45.59</v>
-      </c>
-      <c r="S6">
-        <v>5.45</v>
-      </c>
-      <c r="T6">
-        <v>32.270000000000003</v>
-      </c>
-      <c r="U6">
-        <v>67.73</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="C7">
-        <v>6.25</v>
-      </c>
-      <c r="D7">
-        <v>13.59</v>
-      </c>
-      <c r="E7">
-        <v>86.41</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>9</v>
-      </c>
-      <c r="I7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>38.81</v>
-      </c>
-      <c r="K7">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="L7">
-        <v>25.87</v>
-      </c>
-      <c r="M7">
-        <v>74.13</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>8</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>5</v>
-      </c>
-      <c r="R7">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="S7">
-        <v>10.84</v>
-      </c>
-      <c r="T7">
-        <v>31.48</v>
-      </c>
-      <c r="U7">
-        <v>68.52</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>15.28</v>
-      </c>
-      <c r="C8">
-        <v>7.36</v>
-      </c>
-      <c r="D8">
-        <v>12.09</v>
-      </c>
-      <c r="E8">
-        <v>87.91</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>33.22</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="L8">
-        <v>24.13</v>
-      </c>
-      <c r="M8">
-        <v>75.87</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>7</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8">
-        <v>42.65</v>
-      </c>
-      <c r="S8">
-        <v>11.18</v>
-      </c>
-      <c r="T8">
-        <v>32.69</v>
-      </c>
-      <c r="U8">
-        <v>67.31</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>17.88</v>
-      </c>
-      <c r="C9">
-        <v>6.8</v>
-      </c>
-      <c r="D9">
-        <v>14.01</v>
-      </c>
-      <c r="E9">
-        <v>85.99</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9">
-        <v>24.48</v>
-      </c>
-      <c r="K9">
-        <v>11.71</v>
-      </c>
-      <c r="L9">
-        <v>20.28</v>
-      </c>
-      <c r="M9">
-        <v>79.72</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>7</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>7</v>
-      </c>
-      <c r="R9">
-        <v>37.75</v>
-      </c>
-      <c r="S9">
-        <v>11.04</v>
-      </c>
-      <c r="T9">
-        <v>29.9</v>
-      </c>
-      <c r="U9">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>18.09</v>
-      </c>
-      <c r="C10">
-        <v>5.65</v>
-      </c>
-      <c r="D10">
-        <v>13.87</v>
-      </c>
-      <c r="E10">
-        <v>86.13</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="I10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <v>24.04</v>
-      </c>
-      <c r="K10">
-        <v>11.57</v>
-      </c>
-      <c r="L10">
-        <v>20.21</v>
-      </c>
-      <c r="M10">
-        <v>79.790000000000006</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>8</v>
-      </c>
-      <c r="R10">
-        <v>44.61</v>
-      </c>
-      <c r="S10">
-        <v>6.27</v>
-      </c>
-      <c r="T10">
-        <v>31.86</v>
-      </c>
-      <c r="U10">
-        <v>68.14</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <f t="shared" ref="B11:G11" si="0">AVERAGE(B6:B10)</f>
-        <v>17.184000000000001</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>6.6579999999999995</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>13.61</v>
-      </c>
-      <c r="E11" s="24">
-        <f t="shared" si="0"/>
-        <v>86.390000000000015</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J11">
-        <f t="shared" ref="J11:O11" si="1">AVERAGE(J6:J10)</f>
-        <v>29.128000000000004</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>9.9740000000000002</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>22.417999999999999</v>
-      </c>
-      <c r="M11" s="24">
-        <f t="shared" si="1"/>
-        <v>77.582000000000008</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
-        <v>6.2</v>
-      </c>
-      <c r="R11">
-        <f t="shared" ref="R11:W11" si="2">AVERAGE(R6:R10)</f>
-        <v>42.160000000000004</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="2"/>
-        <v>8.9559999999999995</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="2"/>
-        <v>31.639999999999997</v>
-      </c>
-      <c r="U11" s="24">
-        <f t="shared" si="2"/>
-        <v>68.359999999999985</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="2"/>
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="I12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="Q12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-    </row>
-    <row r="13" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:31" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14">
-        <f>AVERAGE(J6:L10)</f>
-        <v>20.506666666666664</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14" s="15"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U14" s="15"/>
-      <c r="AA14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE14" s="15"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="19">
-        <v>3404</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="19">
-        <v>3071</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U15" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="V15" t="s">
-        <v>39</v>
-      </c>
-      <c r="W15" s="19">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>17.05</v>
-      </c>
-      <c r="C18">
-        <v>6.59</v>
-      </c>
-      <c r="D18">
-        <v>11.82</v>
-      </c>
-      <c r="E18">
-        <v>88.18</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18">
-        <v>30.66</v>
-      </c>
-      <c r="K18">
-        <v>6.27</v>
-      </c>
-      <c r="L18">
-        <v>18.47</v>
-      </c>
-      <c r="M18">
-        <v>81.53</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>8</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18">
-        <v>41.18</v>
-      </c>
-      <c r="S18">
-        <v>10.31</v>
-      </c>
-      <c r="T18">
-        <v>25.74</v>
-      </c>
-      <c r="U18">
-        <v>74.260000000000005</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="C19">
-        <v>5.18</v>
-      </c>
-      <c r="D19">
-        <v>11.14</v>
-      </c>
-      <c r="E19">
-        <v>88.86</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-      <c r="I19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19">
-        <v>24.48</v>
-      </c>
-      <c r="K19">
-        <v>10.69</v>
-      </c>
-      <c r="L19">
-        <v>17.579999999999998</v>
-      </c>
-      <c r="M19">
-        <v>82.42</v>
-      </c>
-      <c r="N19">
-        <v>2</v>
-      </c>
-      <c r="O19">
-        <v>6</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>5</v>
-      </c>
-      <c r="R19">
-        <v>42.65</v>
-      </c>
-      <c r="S19">
-        <v>7.23</v>
-      </c>
-      <c r="T19">
-        <v>24.94</v>
-      </c>
-      <c r="U19">
-        <v>75.06</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20">
-        <v>17.36</v>
-      </c>
-      <c r="C20">
-        <v>3.89</v>
-      </c>
-      <c r="D20">
-        <v>10.63</v>
-      </c>
-      <c r="E20">
-        <v>89.37</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>8</v>
-      </c>
-      <c r="I20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20">
-        <v>24.56</v>
-      </c>
-      <c r="K20">
-        <v>11.79</v>
-      </c>
-      <c r="L20">
-        <v>18.18</v>
-      </c>
-      <c r="M20">
-        <v>81.819999999999993</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>2</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>6</v>
-      </c>
-      <c r="R20">
-        <v>31.37</v>
-      </c>
-      <c r="S20">
-        <v>19.809999999999999</v>
-      </c>
-      <c r="T20">
-        <v>25.59</v>
-      </c>
-      <c r="U20">
-        <v>74.41</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>17.62</v>
-      </c>
-      <c r="C21">
-        <v>5.56</v>
-      </c>
-      <c r="D21">
-        <v>11.59</v>
-      </c>
-      <c r="E21">
-        <v>88.41</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="I21" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21">
-        <v>24.74</v>
-      </c>
-      <c r="K21">
-        <v>11.02</v>
-      </c>
-      <c r="L21">
-        <v>17.88</v>
-      </c>
-      <c r="M21">
-        <v>82.12</v>
-      </c>
-      <c r="N21">
-        <v>2</v>
-      </c>
-      <c r="O21">
-        <v>8</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>7</v>
-      </c>
-      <c r="R21">
-        <v>41.18</v>
-      </c>
-      <c r="S21">
-        <v>9.06</v>
-      </c>
-      <c r="T21">
-        <v>25.12</v>
-      </c>
-      <c r="U21">
-        <v>74.88</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>19.12</v>
-      </c>
-      <c r="C22">
-        <v>6.25</v>
-      </c>
-      <c r="D22">
-        <v>12.69</v>
-      </c>
-      <c r="E22">
-        <v>87.31</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>4</v>
-      </c>
-      <c r="I22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22">
-        <v>21.33</v>
-      </c>
-      <c r="K22">
-        <v>14.47</v>
-      </c>
-      <c r="L22">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="M22">
-        <v>82.1</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>7</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22">
-        <v>42.65</v>
-      </c>
-      <c r="S22">
-        <v>6.22</v>
-      </c>
-      <c r="T22">
-        <v>24.43</v>
-      </c>
-      <c r="U22">
-        <v>75.569999999999993</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E23" s="24">
-        <f>AVERAGE(E18:E22)</f>
-        <v>88.426000000000016</v>
-      </c>
-      <c r="F23">
-        <f>AVERAGE(F18:F22)</f>
-        <v>1.4</v>
-      </c>
-      <c r="G23">
-        <f>AVERAGE(G18:G22)</f>
-        <v>5.8</v>
-      </c>
-      <c r="M23" s="24">
-        <f>AVERAGE(M18:M22)</f>
-        <v>81.998000000000005</v>
-      </c>
-      <c r="N23">
-        <f>AVERAGE(N18:N22)</f>
-        <v>1.4</v>
-      </c>
-      <c r="O23">
-        <f>AVERAGE(O18:O22)</f>
-        <v>6.2</v>
-      </c>
-      <c r="U23" s="24">
-        <f>AVERAGE(U18:U22)</f>
-        <v>74.835999999999999</v>
-      </c>
-      <c r="V23">
-        <f>AVERAGE(V18:V22)</f>
-        <v>1</v>
-      </c>
-      <c r="W23">
-        <f>AVERAGE(W18:W22)</f>
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="I24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-    </row>
-    <row r="25" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="17"/>
-    </row>
-    <row r="28" spans="1:26" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="I28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="15"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="7"/>
-      <c r="G29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="O29" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="W29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="19">
-        <v>3624</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M30" s="4"/>
-      <c r="N30" t="s">
-        <v>39</v>
-      </c>
-      <c r="O30" s="19">
-        <v>3620</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U30" s="4"/>
-      <c r="V30" t="s">
-        <v>40</v>
-      </c>
-      <c r="W30" s="19">
-        <v>3604</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="V32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="W32" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33">
-        <v>20.11</v>
-      </c>
-      <c r="C33">
-        <v>5.41</v>
-      </c>
-      <c r="D33">
-        <v>12.76</v>
-      </c>
-      <c r="E33">
-        <v>87.24</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>12</v>
-      </c>
-      <c r="I33" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33">
-        <v>21.49</v>
-      </c>
-      <c r="K33">
-        <v>9.42</v>
-      </c>
-      <c r="L33">
-        <v>15.45</v>
-      </c>
-      <c r="M33">
-        <v>84.55</v>
-      </c>
-      <c r="N33">
-        <v>2</v>
-      </c>
-      <c r="O33">
-        <v>9</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>4</v>
-      </c>
-      <c r="R33">
-        <v>31.16</v>
-      </c>
-      <c r="S33">
-        <v>10.91</v>
-      </c>
-      <c r="T33">
-        <v>21.03</v>
-      </c>
-      <c r="U33">
-        <v>78.97</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34">
-        <v>18.48</v>
-      </c>
-      <c r="C34">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="D34">
-        <v>11.41</v>
-      </c>
-      <c r="E34">
-        <v>88.59</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>8</v>
-      </c>
-      <c r="I34" t="s">
-        <v>5</v>
-      </c>
-      <c r="J34">
-        <v>22.63</v>
-      </c>
-      <c r="K34">
-        <v>11.41</v>
-      </c>
-      <c r="L34">
-        <v>17.02</v>
-      </c>
-      <c r="M34">
-        <v>82.98</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>13</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>5</v>
-      </c>
-      <c r="R34">
-        <v>32.28</v>
-      </c>
-      <c r="S34">
-        <v>11.63</v>
-      </c>
-      <c r="T34">
-        <v>21.95</v>
-      </c>
-      <c r="U34">
-        <v>78.05</v>
-      </c>
-      <c r="V34">
-        <v>2</v>
-      </c>
-      <c r="W34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35">
-        <v>25.36</v>
-      </c>
-      <c r="C35">
-        <v>5.88</v>
-      </c>
-      <c r="D35">
-        <v>15.62</v>
-      </c>
-      <c r="E35">
-        <v>84.38</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="I35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35">
-        <v>24.95</v>
-      </c>
-      <c r="K35">
-        <v>10.23</v>
-      </c>
-      <c r="L35">
-        <v>17.59</v>
-      </c>
-      <c r="M35">
-        <v>82.41</v>
-      </c>
-      <c r="N35">
-        <v>2</v>
-      </c>
-      <c r="O35">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>6</v>
-      </c>
-      <c r="R35">
-        <v>31.34</v>
-      </c>
-      <c r="S35">
-        <v>10.14</v>
-      </c>
-      <c r="T35">
-        <v>20.74</v>
-      </c>
-      <c r="U35">
-        <v>79.260000000000005</v>
-      </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-      <c r="W35">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36">
-        <v>11.05</v>
-      </c>
-      <c r="C36">
-        <v>36.47</v>
-      </c>
-      <c r="D36">
-        <v>23.76</v>
-      </c>
-      <c r="E36">
-        <v>76.239999999999995</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>16</v>
-      </c>
-      <c r="I36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36">
-        <v>23.86</v>
-      </c>
-      <c r="K36">
-        <v>10.65</v>
-      </c>
-      <c r="L36">
-        <v>17.260000000000002</v>
-      </c>
-      <c r="M36">
-        <v>82.74</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>6</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>7</v>
-      </c>
-      <c r="R36">
-        <v>36.01</v>
-      </c>
-      <c r="S36">
-        <v>10.44</v>
-      </c>
-      <c r="T36">
-        <v>23.22</v>
-      </c>
-      <c r="U36">
-        <v>76.78</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="C37">
-        <v>70.73</v>
-      </c>
-      <c r="D37">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="E37">
-        <v>60.2</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>10</v>
-      </c>
-      <c r="I37" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37">
-        <v>24.04</v>
-      </c>
-      <c r="K37">
-        <v>11.25</v>
-      </c>
-      <c r="L37">
-        <v>17.649999999999999</v>
-      </c>
-      <c r="M37">
-        <v>82.35</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>11</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>8</v>
-      </c>
-      <c r="R37">
-        <v>44.22</v>
-      </c>
-      <c r="S37">
-        <v>18.920000000000002</v>
-      </c>
-      <c r="T37">
-        <v>31.57</v>
-      </c>
-      <c r="U37">
-        <v>68.430000000000007</v>
-      </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E38" s="2">
-        <f>AVERAGE(E33:E37)</f>
-        <v>79.33</v>
-      </c>
-      <c r="F38">
-        <f>AVERAGE(F33:F37)</f>
-        <v>1.8</v>
-      </c>
-      <c r="G38">
-        <f>AVERAGE(G33:G37)</f>
-        <v>9.6</v>
-      </c>
-      <c r="M38" s="4">
-        <f>AVERAGE(M33:M37)</f>
-        <v>83.006</v>
-      </c>
-      <c r="N38">
-        <f>AVERAGE(N33:N37)</f>
-        <v>1.4</v>
-      </c>
-      <c r="O38">
-        <f>AVERAGE(O33:O37)</f>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="U38" s="4">
-        <f>AVERAGE(U33:U37)</f>
-        <v>76.297999999999988</v>
-      </c>
-      <c r="V38">
-        <f>AVERAGE(V33:V37)</f>
-        <v>1.2</v>
-      </c>
-      <c r="W38">
-        <f>AVERAGE(W33:W37)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="I39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="Q39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D07C55-6007-C646-9152-6264139E81A7}">
-  <dimension ref="A1:AL32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="9" width="11.44140625" style="37"/>
-    <col min="12" max="12" width="14.77734375" customWidth="1"/>
-    <col min="20" max="20" width="11.44140625" style="37"/>
-    <col min="21" max="21" width="11.44140625" style="21"/>
-    <col min="30" max="30" width="11.44140625" style="37"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="32"/>
-      <c r="V2" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z2" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF2" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ2" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK2" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL2" s="32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="19">
-        <v>483</v>
-      </c>
-      <c r="F3">
-        <v>2921</v>
-      </c>
-      <c r="G3" s="19">
-        <v>3404</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="19">
-        <v>483</v>
-      </c>
-      <c r="Q3">
-        <v>2921</v>
-      </c>
-      <c r="R3" s="19">
-        <v>3404</v>
-      </c>
-      <c r="S3" s="19"/>
-      <c r="V3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z3" s="19">
-        <v>690</v>
-      </c>
-      <c r="AA3">
-        <v>2934</v>
-      </c>
-      <c r="AB3" s="19">
-        <v>3624</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ3" s="19">
-        <v>690</v>
-      </c>
-      <c r="AK3">
-        <v>2934</v>
-      </c>
-      <c r="AL3" s="19">
-        <v>3624</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="32"/>
-      <c r="W4" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="X4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y4" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB4" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI4" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK4" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL4" s="32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>17.57</v>
-      </c>
-      <c r="C5">
-        <v>7.23</v>
-      </c>
-      <c r="D5">
-        <v>14.49</v>
-      </c>
-      <c r="E5">
-        <v>85.51</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="L5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>16.54</v>
-      </c>
-      <c r="N5">
-        <v>6.76</v>
-      </c>
-      <c r="O5">
-        <v>13.77</v>
-      </c>
-      <c r="P5">
-        <v>86.23</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-      <c r="R5">
-        <v>8</v>
-      </c>
-      <c r="V5" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5">
-        <v>20.11</v>
-      </c>
-      <c r="X5">
-        <v>5.41</v>
-      </c>
-      <c r="Y5">
-        <v>15.04</v>
-      </c>
-      <c r="Z5">
-        <v>84.96</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
-        <v>12</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG5">
-        <v>74.459999999999994</v>
-      </c>
-      <c r="AH5">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="AI5">
-        <v>54.2</v>
-      </c>
-      <c r="AJ5">
-        <v>45.8</v>
-      </c>
-      <c r="AK5">
-        <v>2</v>
-      </c>
-      <c r="AL5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="C6">
-        <v>6.25</v>
-      </c>
-      <c r="D6">
-        <v>13.59</v>
-      </c>
-      <c r="E6">
-        <v>86.41</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
-      </c>
-      <c r="L6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <v>18.649999999999999</v>
-      </c>
-      <c r="N6">
-        <v>3.98</v>
-      </c>
-      <c r="O6">
-        <v>13.17</v>
-      </c>
-      <c r="P6">
-        <v>86.83</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>6</v>
-      </c>
-      <c r="V6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W6">
-        <v>22.46</v>
-      </c>
-      <c r="X6">
-        <v>4.13</v>
-      </c>
-      <c r="Y6">
-        <v>16.12</v>
-      </c>
-      <c r="Z6">
-        <v>83.88</v>
-      </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <v>8</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG6">
-        <v>17.03</v>
-      </c>
-      <c r="AH6">
-        <v>5.75</v>
-      </c>
-      <c r="AI6">
-        <v>13.41</v>
-      </c>
-      <c r="AJ6">
-        <v>86.59</v>
-      </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
-      <c r="AL6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>15.28</v>
-      </c>
-      <c r="C7">
-        <v>7.36</v>
-      </c>
-      <c r="D7">
-        <v>12.09</v>
-      </c>
-      <c r="E7">
-        <v>87.91</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="L7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <v>17.36</v>
-      </c>
-      <c r="N7">
-        <v>3.89</v>
-      </c>
-      <c r="O7">
-        <v>12.16</v>
-      </c>
-      <c r="P7">
-        <v>87.84</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>8</v>
-      </c>
-      <c r="V7" t="s">
-        <v>6</v>
-      </c>
-      <c r="W7">
-        <v>25.36</v>
-      </c>
-      <c r="X7">
-        <v>5.88</v>
-      </c>
-      <c r="Y7">
-        <v>20.23</v>
-      </c>
-      <c r="Z7">
-        <v>79.77</v>
-      </c>
-      <c r="AA7">
-        <v>2</v>
-      </c>
-      <c r="AB7">
-        <v>2</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG7">
-        <v>19.75</v>
-      </c>
-      <c r="AH7">
-        <v>3.11</v>
-      </c>
-      <c r="AI7">
-        <v>13.82</v>
-      </c>
-      <c r="AJ7">
-        <v>86.18</v>
-      </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
-      <c r="AL7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>17.88</v>
-      </c>
-      <c r="C8">
-        <v>6.8</v>
-      </c>
-      <c r="D8">
-        <v>14.01</v>
-      </c>
-      <c r="E8">
-        <v>85.99</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>11</v>
-      </c>
-      <c r="L8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8">
-        <v>17.62</v>
-      </c>
-      <c r="N8">
-        <v>5.56</v>
-      </c>
-      <c r="O8">
-        <v>13.52</v>
-      </c>
-      <c r="P8">
-        <v>86.48</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>6</v>
-      </c>
-      <c r="V8" t="s">
-        <v>7</v>
-      </c>
-      <c r="W8">
-        <v>18.3</v>
-      </c>
-      <c r="X8">
-        <v>5.2</v>
-      </c>
-      <c r="Y8">
-        <v>13.62</v>
-      </c>
-      <c r="Z8">
-        <v>86.38</v>
-      </c>
-      <c r="AA8">
-        <v>1</v>
-      </c>
-      <c r="AB8">
-        <v>10</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG8">
-        <v>20.11</v>
-      </c>
-      <c r="AH8">
-        <v>2.77</v>
-      </c>
-      <c r="AI8">
-        <v>13.17</v>
-      </c>
-      <c r="AJ8">
-        <v>86.83</v>
-      </c>
-      <c r="AK8">
-        <v>1</v>
-      </c>
-      <c r="AL8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>18.09</v>
-      </c>
-      <c r="C9">
-        <v>5.65</v>
-      </c>
-      <c r="D9">
-        <v>13.87</v>
-      </c>
-      <c r="E9">
-        <v>86.13</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="L9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9">
-        <v>21.45</v>
-      </c>
-      <c r="N9">
-        <v>5.82</v>
-      </c>
-      <c r="O9">
-        <v>16.8</v>
-      </c>
-      <c r="P9">
-        <v>83.2</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>3</v>
-      </c>
-      <c r="V9" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9">
-        <v>5.8</v>
-      </c>
-      <c r="X9">
-        <v>75.290000000000006</v>
-      </c>
-      <c r="Y9">
-        <v>44.65</v>
-      </c>
-      <c r="Z9">
-        <v>55.35</v>
-      </c>
-      <c r="AA9">
-        <v>3</v>
-      </c>
-      <c r="AB9">
-        <v>10</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG9">
-        <v>18.66</v>
-      </c>
-      <c r="AH9">
-        <v>3.28</v>
-      </c>
-      <c r="AI9">
-        <v>13.31</v>
-      </c>
-      <c r="AJ9">
-        <v>86.69</v>
-      </c>
-      <c r="AK9">
-        <v>1</v>
-      </c>
-      <c r="AL9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="5">
-        <f t="shared" ref="B10:G10" si="0">AVERAGE(B5:B9)</f>
-        <v>17.184000000000001</v>
-      </c>
-      <c r="C10" s="5">
-        <f t="shared" si="0"/>
-        <v>6.6579999999999995</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>13.61</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>86.390000000000015</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" ref="M10:R10" si="1">AVERAGE(M5:M9)</f>
-        <v>18.324000000000002</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" si="1"/>
-        <v>5.202</v>
-      </c>
-      <c r="O10" s="5">
-        <f t="shared" si="1"/>
-        <v>13.883999999999997</v>
-      </c>
-      <c r="P10" s="5">
-        <f t="shared" si="1"/>
-        <v>86.116</v>
-      </c>
-      <c r="Q10" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="R10" s="5">
-        <f t="shared" si="1"/>
-        <v>6.2</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W10" s="5">
-        <f t="shared" ref="W10:AB10" si="2">AVERAGE(W5:W9)</f>
-        <v>18.405999999999999</v>
-      </c>
-      <c r="X10" s="5">
-        <f t="shared" si="2"/>
-        <v>19.181999999999999</v>
-      </c>
-      <c r="Y10" s="5">
-        <f t="shared" si="2"/>
-        <v>21.931999999999999</v>
-      </c>
-      <c r="Z10" s="5">
-        <f t="shared" si="2"/>
-        <v>78.067999999999998</v>
-      </c>
-      <c r="AA10" s="5">
-        <f t="shared" si="2"/>
-        <v>1.6</v>
-      </c>
-      <c r="AB10" s="5">
-        <f t="shared" si="2"/>
-        <v>8.4</v>
-      </c>
-      <c r="AF10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG10" s="5">
-        <f t="shared" ref="AG10:AL10" si="3">AVERAGE(AG5:AG9)</f>
-        <v>30.001999999999999</v>
-      </c>
-      <c r="AH10" s="5">
-        <f t="shared" si="3"/>
-        <v>6.2200000000000006</v>
-      </c>
-      <c r="AI10" s="5">
-        <f t="shared" si="3"/>
-        <v>21.582000000000001</v>
-      </c>
-      <c r="AJ10" s="5">
-        <f t="shared" si="3"/>
-        <v>78.417999999999992</v>
-      </c>
-      <c r="AK10" s="5">
-        <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-      <c r="AL10" s="5">
-        <f t="shared" si="3"/>
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="16"/>
-    </row>
-    <row r="12" spans="1:38" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="V12" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AF12" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="32"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="E13" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="40"/>
-      <c r="J13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="P13" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q13" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="R13" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="S13" s="32"/>
-      <c r="V13" s="2"/>
-      <c r="Z13" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA13" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB13" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF13" s="2"/>
-      <c r="AJ13" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK13" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL13" s="32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="34">
-        <v>358</v>
-      </c>
-      <c r="F14" s="34">
-        <v>2713</v>
-      </c>
-      <c r="G14" s="34">
-        <v>3071</v>
-      </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="34">
-        <v>358</v>
-      </c>
-      <c r="Q14" s="34">
-        <v>2713</v>
-      </c>
-      <c r="R14" s="34">
-        <v>3071</v>
-      </c>
-      <c r="S14" s="34"/>
-      <c r="V14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="34">
-        <v>686</v>
-      </c>
-      <c r="AA14" s="34">
-        <v>2934</v>
-      </c>
-      <c r="AB14" s="34">
-        <v>3620</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="34">
-        <v>686</v>
-      </c>
-      <c r="AK14" s="34">
-        <v>2934</v>
-      </c>
-      <c r="AL14" s="34">
-        <v>3620</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B15" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="M15" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="R15" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="S15" s="32"/>
-      <c r="W15" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y15" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z15" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA15" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB15" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG15" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI15" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ15" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK15" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL15" s="32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>25.09</v>
-      </c>
-      <c r="C16">
-        <v>11.3</v>
-      </c>
-      <c r="D16">
-        <v>21.6</v>
-      </c>
-      <c r="E16">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16">
-        <v>30.66</v>
-      </c>
-      <c r="N16">
-        <v>6.27</v>
-      </c>
-      <c r="O16">
-        <v>21.46</v>
-      </c>
-      <c r="P16">
-        <v>78.540000000000006</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>8</v>
-      </c>
-      <c r="V16" t="s">
-        <v>4</v>
-      </c>
-      <c r="W16">
-        <v>21.49</v>
-      </c>
-      <c r="X16">
-        <v>9.42</v>
-      </c>
-      <c r="Y16">
-        <v>16.940000000000001</v>
-      </c>
-      <c r="Z16">
-        <v>83.06</v>
-      </c>
-      <c r="AA16">
-        <v>2</v>
-      </c>
-      <c r="AB16">
-        <v>9</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG16">
-        <v>20.95</v>
-      </c>
-      <c r="AH16">
-        <v>9.5</v>
-      </c>
-      <c r="AI16">
-        <v>16.489999999999998</v>
-      </c>
-      <c r="AJ16">
-        <v>83.51</v>
-      </c>
-      <c r="AK16">
-        <v>2</v>
-      </c>
-      <c r="AL16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>38.81</v>
-      </c>
-      <c r="C17">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="D17">
-        <v>25.87</v>
-      </c>
-      <c r="E17">
-        <v>74.13</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="J17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17">
-        <v>24.48</v>
-      </c>
-      <c r="N17">
-        <v>10.69</v>
-      </c>
-      <c r="O17">
-        <v>20.32</v>
-      </c>
-      <c r="P17">
-        <v>79.680000000000007</v>
-      </c>
-      <c r="Q17">
-        <v>2</v>
-      </c>
-      <c r="R17">
-        <v>6</v>
-      </c>
-      <c r="V17" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17">
-        <v>22.63</v>
-      </c>
-      <c r="X17">
-        <v>11.41</v>
-      </c>
-      <c r="Y17">
-        <v>20.07</v>
-      </c>
-      <c r="Z17">
-        <v>79.930000000000007</v>
-      </c>
-      <c r="AA17">
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <v>13</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG17">
-        <v>22.81</v>
-      </c>
-      <c r="AH17">
-        <v>5.28</v>
-      </c>
-      <c r="AI17">
-        <v>16.79</v>
-      </c>
-      <c r="AJ17">
-        <v>83.21</v>
-      </c>
-      <c r="AK17">
-        <v>1</v>
-      </c>
-      <c r="AL17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>33.22</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>24.13</v>
-      </c>
-      <c r="E18">
-        <v>75.87</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>7</v>
-      </c>
-      <c r="J18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18">
-        <v>24.56</v>
-      </c>
-      <c r="N18">
-        <v>11.79</v>
-      </c>
-      <c r="O18">
-        <v>20.86</v>
-      </c>
-      <c r="P18">
-        <v>79.14</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>2</v>
-      </c>
-      <c r="V18" t="s">
-        <v>6</v>
-      </c>
-      <c r="W18">
-        <v>24.95</v>
-      </c>
-      <c r="X18">
-        <v>10.23</v>
-      </c>
-      <c r="Y18">
-        <v>19.36</v>
-      </c>
-      <c r="Z18">
-        <v>80.64</v>
-      </c>
-      <c r="AA18">
-        <v>2</v>
-      </c>
-      <c r="AB18">
-        <v>5</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG18">
-        <v>22.77</v>
-      </c>
-      <c r="AH18">
-        <v>6.09</v>
-      </c>
-      <c r="AI18">
-        <v>16.21</v>
-      </c>
-      <c r="AJ18">
-        <v>83.79</v>
-      </c>
-      <c r="AK18">
-        <v>1</v>
-      </c>
-      <c r="AL18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>24.48</v>
-      </c>
-      <c r="C19">
-        <v>11.71</v>
-      </c>
-      <c r="D19">
-        <v>20.28</v>
-      </c>
-      <c r="E19">
-        <v>79.72</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>7</v>
-      </c>
-      <c r="J19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19">
-        <v>25.09</v>
-      </c>
-      <c r="N19">
-        <v>10.79</v>
-      </c>
-      <c r="O19">
-        <v>21.25</v>
-      </c>
-      <c r="P19">
-        <v>78.75</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>8</v>
-      </c>
-      <c r="V19" t="s">
-        <v>7</v>
-      </c>
-      <c r="W19">
-        <v>23.86</v>
-      </c>
-      <c r="X19">
-        <v>10.65</v>
-      </c>
-      <c r="Y19">
-        <v>19.88</v>
-      </c>
-      <c r="Z19">
-        <v>80.12</v>
-      </c>
-      <c r="AA19">
-        <v>1</v>
-      </c>
-      <c r="AB19">
-        <v>6</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG19">
-        <v>22.77</v>
-      </c>
-      <c r="AH19">
-        <v>8.86</v>
-      </c>
-      <c r="AI19">
-        <v>17.420000000000002</v>
-      </c>
-      <c r="AJ19">
-        <v>82.58</v>
-      </c>
-      <c r="AK19">
-        <v>1</v>
-      </c>
-      <c r="AL19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>24.04</v>
-      </c>
-      <c r="C20">
-        <v>11.57</v>
-      </c>
-      <c r="D20">
-        <v>20.21</v>
-      </c>
-      <c r="E20">
-        <v>79.790000000000006</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="J20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="21">
-        <v>21.33</v>
-      </c>
-      <c r="N20" s="21">
-        <v>14.47</v>
-      </c>
-      <c r="O20" s="21">
-        <v>19</v>
-      </c>
-      <c r="P20" s="21">
-        <v>81</v>
-      </c>
-      <c r="Q20" s="21">
-        <v>1</v>
-      </c>
-      <c r="R20" s="21">
-        <v>7</v>
-      </c>
-      <c r="S20" s="21"/>
-      <c r="V20" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W20" s="21">
-        <v>24.04</v>
-      </c>
-      <c r="X20" s="21">
-        <v>11.25</v>
-      </c>
-      <c r="Y20" s="21">
-        <v>20.22</v>
-      </c>
-      <c r="Z20" s="21">
-        <v>79.78</v>
-      </c>
-      <c r="AA20" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="21">
-        <v>11</v>
-      </c>
-      <c r="AF20" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG20" s="21">
-        <v>22.59</v>
-      </c>
-      <c r="AH20" s="21">
-        <v>5.45</v>
-      </c>
-      <c r="AI20" s="21">
-        <v>16.21</v>
-      </c>
-      <c r="AJ20" s="21">
-        <v>83.79</v>
-      </c>
-      <c r="AK20" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL20" s="21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="5">
-        <f t="shared" ref="B21:G21" si="4">AVERAGE(B16:B20)</f>
-        <v>29.128000000000004</v>
-      </c>
-      <c r="C21" s="5">
-        <f t="shared" si="4"/>
-        <v>9.9740000000000002</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" si="4"/>
-        <v>22.417999999999999</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="4"/>
-        <v>77.582000000000008</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="4"/>
-        <v>6.2</v>
-      </c>
-      <c r="J21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" s="5">
-        <f t="shared" ref="M21:R21" si="5">AVERAGE(M16:M20)</f>
-        <v>25.224</v>
-      </c>
-      <c r="N21" s="5">
-        <f t="shared" si="5"/>
-        <v>10.802</v>
-      </c>
-      <c r="O21" s="5">
-        <f t="shared" si="5"/>
-        <v>20.577999999999999</v>
-      </c>
-      <c r="P21" s="5">
-        <f t="shared" si="5"/>
-        <v>79.421999999999997</v>
-      </c>
-      <c r="Q21" s="5">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-      <c r="R21" s="5">
-        <f t="shared" si="5"/>
-        <v>6.2</v>
-      </c>
-      <c r="S21" s="3"/>
-      <c r="V21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="W21" s="5">
-        <f t="shared" ref="W21" si="6">AVERAGE(W16:W20)</f>
-        <v>23.393999999999998</v>
-      </c>
-      <c r="X21" s="5">
-        <f t="shared" ref="X21" si="7">AVERAGE(X16:X20)</f>
-        <v>10.592000000000001</v>
-      </c>
-      <c r="Y21" s="5">
-        <f t="shared" ref="Y21" si="8">AVERAGE(Y16:Y20)</f>
-        <v>19.294</v>
-      </c>
-      <c r="Z21" s="5">
-        <f t="shared" ref="Z21" si="9">AVERAGE(Z16:Z20)</f>
-        <v>80.705999999999989</v>
-      </c>
-      <c r="AA21" s="5">
-        <f t="shared" ref="AA21" si="10">AVERAGE(AA16:AA20)</f>
-        <v>1.4</v>
-      </c>
-      <c r="AB21" s="5">
-        <f t="shared" ref="AB21" si="11">AVERAGE(AB16:AB20)</f>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AF21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG21" s="5">
-        <f t="shared" ref="AG21:AL21" si="12">AVERAGE(AG16:AG20)</f>
-        <v>22.378</v>
-      </c>
-      <c r="AH21" s="5">
-        <f t="shared" si="12"/>
-        <v>7.0359999999999996</v>
-      </c>
-      <c r="AI21" s="5">
-        <f t="shared" si="12"/>
-        <v>16.624000000000002</v>
-      </c>
-      <c r="AJ21" s="5">
-        <f t="shared" si="12"/>
-        <v>83.376000000000005</v>
-      </c>
-      <c r="AK21" s="5">
-        <f t="shared" si="12"/>
-        <v>1.2</v>
-      </c>
-      <c r="AL21" s="5">
-        <f t="shared" si="12"/>
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="E22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="J22" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="21"/>
-      <c r="L22" s="2"/>
-      <c r="P22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="V22" s="2"/>
-      <c r="Z22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AF22" s="2"/>
-      <c r="AJ22" s="19"/>
-      <c r="AL22" s="19"/>
-    </row>
-    <row r="23" spans="1:38" ht="21" x14ac:dyDescent="0.4">
-      <c r="A23" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="16"/>
-      <c r="J23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AF23" s="16"/>
-      <c r="AG23" s="16"/>
-      <c r="AH23" s="16"/>
-      <c r="AI23" s="16"/>
-      <c r="AJ23" s="16"/>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="16"/>
-    </row>
-    <row r="24" spans="1:38" ht="21" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="34">
-        <v>255</v>
-      </c>
-      <c r="F24" s="34">
-        <v>2594</v>
-      </c>
-      <c r="G24" s="34">
-        <v>2849</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q24" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="R24" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="S24" s="32"/>
-      <c r="V24" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z24" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA24" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB24" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF24" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ24" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK24" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL24" s="32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B25" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="34">
-        <v>255</v>
-      </c>
-      <c r="Q25" s="34">
-        <v>2594</v>
-      </c>
-      <c r="R25" s="34">
-        <v>2849</v>
-      </c>
-      <c r="S25" s="34"/>
-      <c r="V25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="34">
-        <v>670</v>
-      </c>
-      <c r="AA25" s="34">
-        <v>2934</v>
-      </c>
-      <c r="AB25" s="34">
-        <v>3604</v>
-      </c>
-      <c r="AF25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="34">
-        <v>670</v>
-      </c>
-      <c r="AK25" s="34">
-        <v>2934</v>
-      </c>
-      <c r="AL25" s="34">
-        <v>3604</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <v>45.59</v>
-      </c>
-      <c r="C26">
-        <v>5.45</v>
-      </c>
-      <c r="D26">
-        <v>32.270000000000003</v>
-      </c>
-      <c r="E26">
-        <v>67.73</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>6</v>
-      </c>
-      <c r="M26" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="N26" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="O26" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="R26" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="S26" s="32"/>
-      <c r="W26" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="X26" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y26" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z26" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA26" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB26" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH26" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI26" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ26" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK26" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL26" s="32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="C27">
-        <v>10.84</v>
-      </c>
-      <c r="D27">
-        <v>31.48</v>
-      </c>
-      <c r="E27">
-        <v>68.52</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="L27" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27">
-        <v>41.18</v>
-      </c>
-      <c r="N27">
-        <v>10.31</v>
-      </c>
-      <c r="O27">
-        <v>30.46</v>
-      </c>
-      <c r="P27">
-        <v>69.540000000000006</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27">
-        <v>6</v>
-      </c>
-      <c r="V27" t="s">
-        <v>4</v>
-      </c>
-      <c r="W27">
-        <v>28.36</v>
-      </c>
-      <c r="X27">
-        <v>17.21</v>
-      </c>
-      <c r="Y27">
-        <v>23.58</v>
-      </c>
-      <c r="Z27">
-        <v>76.42</v>
-      </c>
-      <c r="AA27">
-        <v>1</v>
-      </c>
-      <c r="AB27">
-        <v>2</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG27">
-        <v>25</v>
-      </c>
-      <c r="AH27">
-        <v>6.73</v>
-      </c>
-      <c r="AI27">
-        <v>18.84</v>
-      </c>
-      <c r="AJ27">
-        <v>81.16</v>
-      </c>
-      <c r="AK27">
-        <v>2</v>
-      </c>
-      <c r="AL27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>42.65</v>
-      </c>
-      <c r="C28">
-        <v>11.18</v>
-      </c>
-      <c r="D28">
-        <v>32.69</v>
-      </c>
-      <c r="E28">
-        <v>67.31</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>5</v>
-      </c>
-      <c r="L28" t="s">
-        <v>5</v>
-      </c>
-      <c r="M28">
-        <v>42.65</v>
-      </c>
-      <c r="N28">
-        <v>7.23</v>
-      </c>
-      <c r="O28">
-        <v>30.18</v>
-      </c>
-      <c r="P28">
-        <v>69.819999999999993</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="R28">
-        <v>7</v>
-      </c>
-      <c r="V28" t="s">
-        <v>5</v>
-      </c>
-      <c r="W28">
-        <v>31.34</v>
-      </c>
-      <c r="X28">
-        <v>11.55</v>
-      </c>
-      <c r="Y28">
-        <v>25.09</v>
-      </c>
-      <c r="Z28">
-        <v>74.91</v>
-      </c>
-      <c r="AA28">
-        <v>1</v>
-      </c>
-      <c r="AB28">
-        <v>4</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG28">
-        <v>27.05</v>
-      </c>
-      <c r="AH28">
-        <v>6.35</v>
-      </c>
-      <c r="AI28">
-        <v>19.96</v>
-      </c>
-      <c r="AJ28">
-        <v>80.040000000000006</v>
-      </c>
-      <c r="AK28">
-        <v>2</v>
-      </c>
-      <c r="AL28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>37.75</v>
-      </c>
-      <c r="C29">
-        <v>11.04</v>
-      </c>
-      <c r="D29">
-        <v>29.9</v>
-      </c>
-      <c r="E29">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="L29" t="s">
-        <v>6</v>
-      </c>
-      <c r="M29">
-        <v>31.37</v>
-      </c>
-      <c r="N29">
-        <v>19.809999999999999</v>
-      </c>
-      <c r="O29">
-        <v>29.22</v>
-      </c>
-      <c r="P29">
-        <v>70.78</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29">
-        <v>6</v>
-      </c>
-      <c r="V29" t="s">
-        <v>6</v>
-      </c>
-      <c r="W29">
-        <v>31.34</v>
-      </c>
-      <c r="X29">
-        <v>10.14</v>
-      </c>
-      <c r="Y29">
-        <v>25.22</v>
-      </c>
-      <c r="Z29">
-        <v>74.78</v>
-      </c>
-      <c r="AA29">
-        <v>1</v>
-      </c>
-      <c r="AB29">
-        <v>12</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG29">
-        <v>29.29</v>
-      </c>
-      <c r="AH29">
-        <v>5.45</v>
-      </c>
-      <c r="AI29">
-        <v>22.16</v>
-      </c>
-      <c r="AJ29">
-        <v>77.84</v>
-      </c>
-      <c r="AK29">
-        <v>1</v>
-      </c>
-      <c r="AL29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30">
-        <v>44.61</v>
-      </c>
-      <c r="C30">
-        <v>6.27</v>
-      </c>
-      <c r="D30">
-        <v>31.86</v>
-      </c>
-      <c r="E30">
-        <v>68.14</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="L30" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30">
-        <v>41.18</v>
-      </c>
-      <c r="N30">
-        <v>9.06</v>
-      </c>
-      <c r="O30">
-        <v>28.14</v>
-      </c>
-      <c r="P30">
-        <v>71.86</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="R30">
-        <v>5</v>
-      </c>
-      <c r="V30" t="s">
-        <v>7</v>
-      </c>
-      <c r="W30">
-        <v>36.01</v>
-      </c>
-      <c r="X30">
-        <v>10.44</v>
-      </c>
-      <c r="Y30">
-        <v>28.45</v>
-      </c>
-      <c r="Z30">
-        <v>71.55</v>
-      </c>
-      <c r="AA30">
-        <v>1</v>
-      </c>
-      <c r="AB30">
-        <v>10</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG30">
-        <v>25.37</v>
-      </c>
-      <c r="AH30">
-        <v>10.48</v>
-      </c>
-      <c r="AI30">
-        <v>19.78</v>
-      </c>
-      <c r="AJ30">
-        <v>80.22</v>
-      </c>
-      <c r="AK30">
-        <v>1</v>
-      </c>
-      <c r="AL30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="5">
-        <f t="shared" ref="B31:G31" si="13">AVERAGE(B26:B30)</f>
-        <v>42.160000000000004</v>
-      </c>
-      <c r="C31" s="5">
-        <f t="shared" si="13"/>
-        <v>8.9559999999999995</v>
-      </c>
-      <c r="D31" s="5">
-        <f t="shared" si="13"/>
-        <v>31.639999999999997</v>
-      </c>
-      <c r="E31" s="5">
-        <f t="shared" si="13"/>
-        <v>68.359999999999985</v>
-      </c>
-      <c r="F31" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" si="13"/>
-        <v>5.2</v>
-      </c>
-      <c r="L31" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="21">
-        <v>42.65</v>
-      </c>
-      <c r="N31" s="21">
-        <v>6.22</v>
-      </c>
-      <c r="O31" s="21">
-        <v>30.47</v>
-      </c>
-      <c r="P31" s="21">
-        <v>69.53</v>
-      </c>
-      <c r="Q31" s="21">
-        <v>1</v>
-      </c>
-      <c r="R31" s="21">
-        <v>3</v>
-      </c>
-      <c r="S31" s="21"/>
-      <c r="V31" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W31" s="21">
-        <v>44.22</v>
-      </c>
-      <c r="X31" s="21">
-        <v>18.920000000000002</v>
-      </c>
-      <c r="Y31" s="21">
-        <v>33.17</v>
-      </c>
-      <c r="Z31" s="21">
-        <v>66.83</v>
-      </c>
-      <c r="AA31" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="21">
-        <v>5</v>
-      </c>
-      <c r="AF31" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG31" s="21">
-        <v>28.73</v>
-      </c>
-      <c r="AH31" s="21">
-        <v>5.62</v>
-      </c>
-      <c r="AI31" s="21">
-        <v>21.46</v>
-      </c>
-      <c r="AJ31" s="21">
-        <v>78.540000000000006</v>
-      </c>
-      <c r="AK31" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL31" s="21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:38" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="33"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="L32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M32" s="5">
         <f t="shared" ref="M32:R32" si="14">AVERAGE(M27:M31)</f>
         <v>39.805999999999997</v>
       </c>

--- a/Experiment_Resulsts/SaFIN(FRIE)_HFS_Classification_Results.xlsx
+++ b/Experiment_Resulsts/SaFIN(FRIE)_HFS_Classification_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\htet_predict_bank_failure\Experiment_Resulsts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD627B55-1422-46DF-8CBF-7A9372B6951A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336335E5-FB97-47D6-8D36-A2436EF1871A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{59BFD352-3181-4B2E-9A02-E25DF6E8A988}"/>
+    <workbookView xWindow="60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{59BFD352-3181-4B2E-9A02-E25DF6E8A988}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="4" r:id="rId1"/>
@@ -3157,16 +3157,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67566EC8-2D20-4A2C-89CA-FD459545D209}">
   <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
     <col min="9" max="9" width="11.44140625" style="37"/>
     <col min="12" max="12" width="14.77734375" customWidth="1"/>
+    <col min="17" max="17" width="15.21875" customWidth="1"/>
     <col min="20" max="20" width="11.44140625" style="37"/>
     <col min="21" max="21" width="11.44140625" style="21"/>
+    <col min="27" max="27" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
@@ -3223,7 +3226,12 @@
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="19">
+        <v>561</v>
+      </c>
+      <c r="F3">
+        <v>2926</v>
+      </c>
       <c r="G3" s="19">
         <v>3487</v>
       </c>
@@ -3233,14 +3241,28 @@
       <c r="L3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="R3" s="19"/>
+      <c r="P3" s="19">
+        <v>561</v>
+      </c>
+      <c r="Q3">
+        <v>2926</v>
+      </c>
+      <c r="R3" s="19">
+        <v>3487</v>
+      </c>
       <c r="S3" s="19"/>
       <c r="V3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Z3" s="19"/>
-      <c r="AB3" s="19"/>
+      <c r="Z3" s="19">
+        <v>702</v>
+      </c>
+      <c r="AA3">
+        <v>2934</v>
+      </c>
+      <c r="AB3" s="19">
+        <v>3636</v>
+      </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B4" s="32" t="s">
@@ -3325,25 +3347,43 @@
         <v>4</v>
       </c>
       <c r="M5">
-        <v>6.9</v>
+        <v>11.14</v>
       </c>
       <c r="N5">
-        <v>4.66</v>
+        <v>4.49</v>
       </c>
       <c r="O5">
-        <v>6.24</v>
+        <v>8.81</v>
       </c>
       <c r="P5">
-        <v>93.76</v>
+        <v>91.19</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5">
         <v>7</v>
       </c>
       <c r="V5" t="s">
         <v>4</v>
+      </c>
+      <c r="W5">
+        <v>5.87</v>
+      </c>
+      <c r="X5">
+        <v>2.9</v>
+      </c>
+      <c r="Y5">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="Z5">
+        <v>95.23</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
@@ -3372,25 +3412,43 @@
         <v>5</v>
       </c>
       <c r="M6">
-        <v>68.08</v>
+        <v>9.82</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O6">
-        <v>40.64</v>
+        <v>7.81</v>
       </c>
       <c r="P6">
-        <v>59.36</v>
+        <v>92.19</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V6" t="s">
         <v>5</v>
+      </c>
+      <c r="W6">
+        <v>7.47</v>
+      </c>
+      <c r="X6">
+        <v>3.2</v>
+      </c>
+      <c r="Y6">
+        <v>5.83</v>
+      </c>
+      <c r="Z6">
+        <v>94.17</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
@@ -3419,25 +3477,43 @@
         <v>6</v>
       </c>
       <c r="M7">
-        <v>8.24</v>
+        <v>5.57</v>
       </c>
       <c r="N7">
-        <v>2.99</v>
+        <v>4.83</v>
       </c>
       <c r="O7">
-        <v>6.24</v>
+        <v>5.35</v>
       </c>
       <c r="P7">
-        <v>93.76</v>
+        <v>94.65</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V7" t="s">
         <v>6</v>
+      </c>
+      <c r="W7">
+        <v>13.35</v>
+      </c>
+      <c r="X7">
+        <v>1.92</v>
+      </c>
+      <c r="Y7">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="Z7">
+        <v>90.54</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
@@ -3466,25 +3542,43 @@
         <v>7</v>
       </c>
       <c r="M8">
-        <v>12.03</v>
+        <v>14.48</v>
       </c>
       <c r="N8">
-        <v>4.57</v>
+        <v>2.95</v>
       </c>
       <c r="O8">
-        <v>9</v>
+        <v>11.59</v>
       </c>
       <c r="P8">
-        <v>91</v>
+        <v>88.41</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V8" t="s">
         <v>7</v>
+      </c>
+      <c r="W8">
+        <v>7.31</v>
+      </c>
+      <c r="X8">
+        <v>3.41</v>
+      </c>
+      <c r="Y8">
+        <v>7.13</v>
+      </c>
+      <c r="Z8">
+        <v>92.87</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
@@ -3513,25 +3607,43 @@
         <v>8</v>
       </c>
       <c r="M9">
-        <v>17.82</v>
+        <v>34.520000000000003</v>
       </c>
       <c r="N9">
-        <v>0.81</v>
+        <v>0.17</v>
       </c>
       <c r="O9">
-        <v>10.97</v>
+        <v>25.73</v>
       </c>
       <c r="P9">
-        <v>89.03</v>
+        <v>74.27</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R9">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="V9" t="s">
         <v>8</v>
+      </c>
+      <c r="W9">
+        <v>14.08</v>
+      </c>
+      <c r="X9">
+        <v>1.62</v>
+      </c>
+      <c r="Y9">
+        <v>9.81</v>
+      </c>
+      <c r="Z9">
+        <v>90.19</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -3566,38 +3678,56 @@
         <v>46</v>
       </c>
       <c r="M10" s="5">
-        <f>AVERAGE(M5:M9)</f>
-        <v>22.613999999999997</v>
+        <f t="shared" ref="M10:R10" si="1">AVERAGE(M5:M9)</f>
+        <v>15.106</v>
       </c>
       <c r="N10" s="5">
-        <f>AVERAGE(N5:N9)</f>
-        <v>2.6060000000000003</v>
+        <f t="shared" si="1"/>
+        <v>3.1279999999999997</v>
       </c>
       <c r="O10" s="5">
-        <f>AVERAGE(O5:O9)</f>
-        <v>14.618</v>
+        <f t="shared" si="1"/>
+        <v>11.858000000000001</v>
       </c>
       <c r="P10" s="5">
-        <f>AVERAGE(P5:P9)</f>
-        <v>85.381999999999991</v>
+        <f t="shared" si="1"/>
+        <v>88.141999999999982</v>
       </c>
       <c r="Q10" s="5">
-        <f>AVERAGE(Q5:Q9)</f>
-        <v>1.2</v>
+        <f t="shared" si="1"/>
+        <v>1.8</v>
       </c>
       <c r="R10" s="5">
-        <f>AVERAGE(R5:R9)</f>
-        <v>7.2</v>
+        <f t="shared" si="1"/>
+        <v>8.6</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
+      <c r="W10" s="5">
+        <f t="shared" ref="W10:AB10" si="2">AVERAGE(W5:W9)</f>
+        <v>9.6159999999999997</v>
+      </c>
+      <c r="X10" s="5">
+        <f t="shared" si="2"/>
+        <v>2.6100000000000003</v>
+      </c>
+      <c r="Y10" s="5">
+        <f t="shared" si="2"/>
+        <v>7.4</v>
+      </c>
+      <c r="Z10" s="5">
+        <f t="shared" si="2"/>
+        <v>92.6</v>
+      </c>
+      <c r="AA10" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB10" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8000000000000007</v>
+      </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
@@ -3697,8 +3827,12 @@
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="E14" s="34">
+        <v>479</v>
+      </c>
+      <c r="F14" s="34">
+        <v>2842</v>
+      </c>
       <c r="G14" s="34">
         <v>3321</v>
       </c>
@@ -3713,9 +3847,15 @@
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
+      <c r="P14" s="34">
+        <v>479</v>
+      </c>
+      <c r="Q14" s="34">
+        <v>2842</v>
+      </c>
+      <c r="R14" s="34">
+        <v>3321</v>
+      </c>
       <c r="S14" s="34"/>
       <c r="V14" s="2" t="s">
         <v>52</v>
@@ -3723,9 +3863,15 @@
       <c r="W14" s="32"/>
       <c r="X14" s="32"/>
       <c r="Y14" s="32"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
+      <c r="Z14" s="34">
+        <v>690</v>
+      </c>
+      <c r="AA14" s="34">
+        <v>2934</v>
+      </c>
+      <c r="AB14" s="34">
+        <v>3624</v>
+      </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B15" s="32" t="s">
@@ -3817,25 +3963,43 @@
         <v>4</v>
       </c>
       <c r="M16">
-        <v>35.68</v>
+        <v>12.76</v>
       </c>
       <c r="N16">
-        <v>0.62</v>
+        <v>9.77</v>
       </c>
       <c r="O16">
-        <v>27.6</v>
+        <v>11.46</v>
       </c>
       <c r="P16">
-        <v>72.400000000000006</v>
+        <v>88.54</v>
       </c>
       <c r="Q16">
         <v>1</v>
       </c>
       <c r="R16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="V16" t="s">
         <v>4</v>
+      </c>
+      <c r="W16">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="X16">
+        <v>2.85</v>
+      </c>
+      <c r="Y16">
+        <v>13.5</v>
+      </c>
+      <c r="Z16">
+        <v>86.5</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
@@ -3867,25 +4031,43 @@
         <v>5</v>
       </c>
       <c r="M17">
-        <v>15.93</v>
+        <v>14.62</v>
       </c>
       <c r="N17">
-        <v>5.37</v>
+        <v>4.53</v>
       </c>
       <c r="O17">
-        <v>12.49</v>
+        <v>10.18</v>
       </c>
       <c r="P17">
-        <v>87.51</v>
+        <v>89.82</v>
       </c>
       <c r="Q17">
         <v>2</v>
       </c>
       <c r="R17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V17" t="s">
         <v>5</v>
+      </c>
+      <c r="W17">
+        <v>21.2</v>
+      </c>
+      <c r="X17">
+        <v>3.24</v>
+      </c>
+      <c r="Y17">
+        <v>14.13</v>
+      </c>
+      <c r="Z17">
+        <v>85.87</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
@@ -3917,25 +4099,43 @@
         <v>6</v>
       </c>
       <c r="M18">
-        <v>37.6</v>
+        <v>18.75</v>
       </c>
       <c r="N18">
-        <v>5.94</v>
+        <v>3.39</v>
       </c>
       <c r="O18">
-        <v>26.05</v>
+        <v>12.9</v>
       </c>
       <c r="P18">
-        <v>73.95</v>
+        <v>87.1</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V18" t="s">
         <v>6</v>
+      </c>
+      <c r="W18">
+        <v>19.57</v>
+      </c>
+      <c r="X18">
+        <v>6.65</v>
+      </c>
+      <c r="Y18">
+        <v>15.25</v>
+      </c>
+      <c r="Z18">
+        <v>84.75</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
@@ -3967,25 +4167,43 @@
         <v>7</v>
       </c>
       <c r="M19">
-        <v>22.98</v>
+        <v>16.97</v>
       </c>
       <c r="N19">
-        <v>5.15</v>
+        <v>5.98</v>
       </c>
       <c r="O19">
-        <v>16.27</v>
+        <v>12.97</v>
       </c>
       <c r="P19">
-        <v>83.73</v>
+        <v>87.03</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <v>6</v>
       </c>
       <c r="V19" t="s">
         <v>7</v>
+      </c>
+      <c r="W19">
+        <v>20.47</v>
+      </c>
+      <c r="X19">
+        <v>2.98</v>
+      </c>
+      <c r="Y19">
+        <v>13.55</v>
+      </c>
+      <c r="Z19">
+        <v>86.45</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
@@ -4017,60 +4235,72 @@
         <v>8</v>
       </c>
       <c r="M20" s="21">
-        <v>19.32</v>
+        <v>18.8</v>
       </c>
       <c r="N20" s="21">
-        <v>3.56</v>
+        <v>5.98</v>
       </c>
       <c r="O20" s="21">
-        <v>12.96</v>
+        <v>14.28</v>
       </c>
       <c r="P20" s="21">
-        <v>87.04</v>
+        <v>85.72</v>
       </c>
       <c r="Q20" s="21">
         <v>1</v>
       </c>
       <c r="R20" s="21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S20" s="21"/>
       <c r="V20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
+      <c r="W20" s="21">
+        <v>20.65</v>
+      </c>
+      <c r="X20" s="21">
+        <v>3.92</v>
+      </c>
+      <c r="Y20" s="21">
+        <v>14.31</v>
+      </c>
+      <c r="Z20" s="21">
+        <v>85.69</v>
+      </c>
+      <c r="AA20" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="21">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="5">
-        <f t="shared" ref="B21:G21" si="1">AVERAGE(B16:B20)</f>
+        <f t="shared" ref="B21:G21" si="3">AVERAGE(B16:B20)</f>
         <v>18.317999999999998</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.2580000000000009</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.244</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>85.756</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.6</v>
       </c>
       <c r="J21" t="s">
@@ -4080,39 +4310,57 @@
         <v>9</v>
       </c>
       <c r="M21" s="5">
-        <f>AVERAGE(M16:M20)</f>
-        <v>26.302000000000003</v>
+        <f t="shared" ref="M21:R21" si="4">AVERAGE(M16:M20)</f>
+        <v>16.38</v>
       </c>
       <c r="N21" s="5">
-        <f>AVERAGE(N16:N20)</f>
-        <v>4.1279999999999992</v>
+        <f t="shared" si="4"/>
+        <v>5.9300000000000006</v>
       </c>
       <c r="O21" s="5">
-        <f>AVERAGE(O16:O20)</f>
-        <v>19.074000000000002</v>
+        <f t="shared" si="4"/>
+        <v>12.358000000000001</v>
       </c>
       <c r="P21" s="5">
-        <f>AVERAGE(P16:P20)</f>
-        <v>80.926000000000016</v>
+        <f t="shared" si="4"/>
+        <v>87.64200000000001</v>
       </c>
       <c r="Q21" s="5">
-        <f>AVERAGE(Q16:Q20)</f>
-        <v>1.4</v>
+        <f t="shared" si="4"/>
+        <v>1.2</v>
       </c>
       <c r="R21" s="5">
-        <f>AVERAGE(R16:R20)</f>
-        <v>6.8</v>
+        <f t="shared" si="4"/>
+        <v>6.2</v>
       </c>
       <c r="S21" s="3"/>
       <c r="V21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
+      <c r="W21" s="5">
+        <f t="shared" ref="W21:AB21" si="5">AVERAGE(W16:W20)</f>
+        <v>20.189999999999998</v>
+      </c>
+      <c r="X21" s="5">
+        <f t="shared" si="5"/>
+        <v>3.9279999999999999</v>
+      </c>
+      <c r="Y21" s="5">
+        <f t="shared" si="5"/>
+        <v>14.148000000000001</v>
+      </c>
+      <c r="Z21" s="5">
+        <f t="shared" si="5"/>
+        <v>85.852000000000004</v>
+      </c>
+      <c r="AA21" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB21" s="5">
+        <f t="shared" si="5"/>
+        <v>8.4</v>
+      </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
@@ -4171,8 +4419,12 @@
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
+      <c r="E24" s="34">
+        <v>355</v>
+      </c>
+      <c r="F24" s="34">
+        <v>2638</v>
+      </c>
       <c r="G24" s="34">
         <v>2993</v>
       </c>
@@ -4234,9 +4486,15 @@
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
       <c r="O25" s="32"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
+      <c r="P25" s="34">
+        <v>355</v>
+      </c>
+      <c r="Q25" s="34">
+        <v>2638</v>
+      </c>
+      <c r="R25" s="34">
+        <v>2993</v>
+      </c>
       <c r="S25" s="34"/>
       <c r="V25" s="2" t="s">
         <v>53</v>
@@ -4244,9 +4502,15 @@
       <c r="W25" s="32"/>
       <c r="X25" s="32"/>
       <c r="Y25" s="32"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
+      <c r="Z25" s="34">
+        <v>686</v>
+      </c>
+      <c r="AA25" s="34">
+        <v>2934</v>
+      </c>
+      <c r="AB25" s="34">
+        <v>3620</v>
+      </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -4337,22 +4601,40 @@
         <v>24.3</v>
       </c>
       <c r="N27">
-        <v>10.76</v>
+        <v>10.9</v>
       </c>
       <c r="O27">
-        <v>20.38</v>
+        <v>20.51</v>
       </c>
       <c r="P27">
-        <v>79.62</v>
+        <v>79.489999999999995</v>
       </c>
       <c r="Q27">
         <v>1</v>
       </c>
       <c r="R27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V27" t="s">
         <v>4</v>
+      </c>
+      <c r="W27">
+        <v>22.4</v>
+      </c>
+      <c r="X27">
+        <v>5.45</v>
+      </c>
+      <c r="Y27">
+        <v>16.57</v>
+      </c>
+      <c r="Z27">
+        <v>83.43</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
@@ -4381,16 +4663,16 @@
         <v>5</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>23.94</v>
       </c>
       <c r="N28">
-        <v>9</v>
+        <v>10.95</v>
       </c>
       <c r="O28">
-        <v>19.57</v>
+        <v>19.89</v>
       </c>
       <c r="P28">
-        <v>80.430000000000007</v>
+        <v>80.11</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -4400,6 +4682,24 @@
       </c>
       <c r="V28" t="s">
         <v>5</v>
+      </c>
+      <c r="W28">
+        <v>22.99</v>
+      </c>
+      <c r="X28">
+        <v>6.69</v>
+      </c>
+      <c r="Y28">
+        <v>16.72</v>
+      </c>
+      <c r="Z28">
+        <v>83.28</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
@@ -4428,25 +4728,43 @@
         <v>6</v>
       </c>
       <c r="M29">
-        <v>22.89</v>
+        <v>28.87</v>
       </c>
       <c r="N29">
-        <v>15.26</v>
+        <v>8.25</v>
       </c>
       <c r="O29">
-        <v>20.420000000000002</v>
+        <v>22.42</v>
       </c>
       <c r="P29">
-        <v>79.58</v>
+        <v>77.58</v>
       </c>
       <c r="Q29">
         <v>1</v>
       </c>
       <c r="R29">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V29" t="s">
         <v>6</v>
+      </c>
+      <c r="W29">
+        <v>21.86</v>
+      </c>
+      <c r="X29">
+        <v>7.2</v>
+      </c>
+      <c r="Y29">
+        <v>16.16</v>
+      </c>
+      <c r="Z29">
+        <v>83.84</v>
+      </c>
+      <c r="AA29">
+        <v>2</v>
+      </c>
+      <c r="AB29">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
@@ -4475,25 +4793,43 @@
         <v>7</v>
       </c>
       <c r="M30">
-        <v>31.69</v>
+        <v>24.65</v>
       </c>
       <c r="N30">
-        <v>11.8</v>
+        <v>12.32</v>
       </c>
       <c r="O30">
-        <v>24</v>
+        <v>21.64</v>
       </c>
       <c r="P30">
-        <v>76</v>
+        <v>78.36</v>
       </c>
       <c r="Q30">
         <v>1</v>
       </c>
       <c r="R30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V30" t="s">
         <v>7</v>
+      </c>
+      <c r="W30">
+        <v>22.95</v>
+      </c>
+      <c r="X30">
+        <v>6.56</v>
+      </c>
+      <c r="Y30">
+        <v>16.21</v>
+      </c>
+      <c r="Z30">
+        <v>83.79</v>
+      </c>
+      <c r="AA30">
+        <v>2</v>
+      </c>
+      <c r="AB30">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
@@ -4501,60 +4837,72 @@
         <v>9</v>
       </c>
       <c r="B31" s="5">
-        <f t="shared" ref="B31:G31" si="2">AVERAGE(B26:B30)</f>
+        <f t="shared" ref="B31:G31" si="6">AVERAGE(B26:B30)</f>
         <v>27.061999999999994</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10.464</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21.626000000000001</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>78.373999999999995</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.4</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
       <c r="L31" s="20" t="s">
         <v>8</v>
       </c>
       <c r="M31" s="21">
-        <v>82.04</v>
+        <v>22.89</v>
       </c>
       <c r="N31" s="21">
-        <v>0.14000000000000001</v>
+        <v>10.57</v>
       </c>
       <c r="O31" s="21">
-        <v>42.09</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="P31" s="21">
-        <v>57.91</v>
+        <v>81.260000000000005</v>
       </c>
       <c r="Q31" s="21">
         <v>1</v>
       </c>
       <c r="R31" s="21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S31" s="21"/>
       <c r="V31" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
+      <c r="W31" s="21">
+        <v>22.95</v>
+      </c>
+      <c r="X31" s="21">
+        <v>5.58</v>
+      </c>
+      <c r="Y31" s="21">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="Z31" s="21">
+        <v>83.24</v>
+      </c>
+      <c r="AA31" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="21">
+        <v>11</v>
+      </c>
     </row>
     <row r="32" spans="1:28" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="33"/>
@@ -4565,39 +4913,57 @@
         <v>9</v>
       </c>
       <c r="M32" s="5">
-        <f>AVERAGE(M27:M31)</f>
-        <v>37.184000000000005</v>
+        <f t="shared" ref="M32:R32" si="7">AVERAGE(M27:M31)</f>
+        <v>24.93</v>
       </c>
       <c r="N32" s="5">
-        <f>AVERAGE(N27:N31)</f>
-        <v>9.3919999999999995</v>
+        <f t="shared" si="7"/>
+        <v>10.598000000000001</v>
       </c>
       <c r="O32" s="5">
-        <f>AVERAGE(O27:O31)</f>
-        <v>25.292000000000002</v>
+        <f t="shared" si="7"/>
+        <v>20.64</v>
       </c>
       <c r="P32" s="5">
-        <f>AVERAGE(P27:P31)</f>
-        <v>74.707999999999998</v>
+        <f t="shared" si="7"/>
+        <v>79.36</v>
       </c>
       <c r="Q32" s="5">
-        <f>AVERAGE(Q27:Q31)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="R32" s="5">
-        <f>AVERAGE(R27:R31)</f>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>6.8</v>
       </c>
       <c r="S32" s="3"/>
       <c r="V32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
+      <c r="W32" s="5">
+        <f t="shared" ref="W32:AB32" si="8">AVERAGE(W27:W31)</f>
+        <v>22.630000000000003</v>
+      </c>
+      <c r="X32" s="5">
+        <f t="shared" si="8"/>
+        <v>6.2959999999999994</v>
+      </c>
+      <c r="Y32" s="5">
+        <f t="shared" si="8"/>
+        <v>16.484000000000002</v>
+      </c>
+      <c r="Z32" s="5">
+        <f t="shared" si="8"/>
+        <v>83.516000000000005</v>
+      </c>
+      <c r="AA32" s="5">
+        <f t="shared" si="8"/>
+        <v>1.4</v>
+      </c>
+      <c r="AB32" s="5">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Experiment_Resulsts/SaFIN(FRIE)_HFS_Classification_Results.xlsx
+++ b/Experiment_Resulsts/SaFIN(FRIE)_HFS_Classification_Results.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\htet_predict_bank_failure\Experiment_Resulsts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336335E5-FB97-47D6-8D36-A2436EF1871A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7927D0BD-3EB5-4B6E-AC55-88DDF04728E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{59BFD352-3181-4B2E-9A02-E25DF6E8A988}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59BFD352-3181-4B2E-9A02-E25DF6E8A988}"/>
   </bookViews>
   <sheets>
-    <sheet name="Original" sheetId="4" r:id="rId1"/>
-    <sheet name="Original_vs_Recon_3_Feat" sheetId="6" r:id="rId2"/>
-    <sheet name="Increased_Draft" sheetId="1" r:id="rId3"/>
-    <sheet name="Recon" sheetId="5" r:id="rId4"/>
+    <sheet name="Journal_mlp" sheetId="8" r:id="rId1"/>
+    <sheet name="Original" sheetId="4" r:id="rId2"/>
+    <sheet name="Recon" sheetId="5" r:id="rId3"/>
+    <sheet name="Original_vs_Recon_3_Feat" sheetId="6" r:id="rId4"/>
+    <sheet name="Increased_Draft" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="68">
   <si>
     <t>Now</t>
   </si>
@@ -215,6 +218,30 @@
   <si>
     <t>Full_Recon_Denfis</t>
   </si>
+  <si>
+    <t>Original data set</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Acc</t>
+  </si>
+  <si>
+    <t>Reconstructed data set (20% simulated missing data)</t>
+  </si>
+  <si>
+    <t>Reconstructed data set (actual missing data)</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
 </sst>
 </file>
 
@@ -363,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -416,6 +443,24 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,10 +774,1677 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6211BF-ED0A-459A-8FBE-DD433AAD9EE4}">
+  <dimension ref="A1:AC34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="10" style="21" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" customWidth="1"/>
+    <col min="13" max="13" width="4.77734375" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="17" max="17" width="6.21875" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" customWidth="1"/>
+    <col min="19" max="19" width="6.5546875" customWidth="1"/>
+    <col min="21" max="21" width="6" style="37" customWidth="1"/>
+    <col min="22" max="22" width="4.77734375" style="21" customWidth="1"/>
+    <col min="23" max="23" width="6" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" customWidth="1"/>
+    <col min="26" max="26" width="5.6640625" customWidth="1"/>
+    <col min="27" max="27" width="6.21875" customWidth="1"/>
+    <col min="28" max="28" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="K1" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="P1" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z3" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA3" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19">
+        <v>561</v>
+      </c>
+      <c r="C4">
+        <v>2926</v>
+      </c>
+      <c r="D4" s="19">
+        <v>3487</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19">
+        <v>561</v>
+      </c>
+      <c r="H4">
+        <v>2926</v>
+      </c>
+      <c r="I4" s="19">
+        <v>3487</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19">
+        <v>702</v>
+      </c>
+      <c r="M4">
+        <v>2934</v>
+      </c>
+      <c r="N4" s="19">
+        <v>3636</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>561</v>
+      </c>
+      <c r="R4">
+        <v>2926</v>
+      </c>
+      <c r="S4" s="19">
+        <v>3487</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" s="34">
+        <v>479</v>
+      </c>
+      <c r="V4" s="34">
+        <v>2842</v>
+      </c>
+      <c r="W4" s="34">
+        <v>3321</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="34">
+        <v>355</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>2638</v>
+      </c>
+      <c r="AA4" s="34">
+        <v>2993</v>
+      </c>
+      <c r="AC4" s="19"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B5" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="G5" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="32"/>
+      <c r="Q5" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="U5" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y5" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10.913140311804</v>
+      </c>
+      <c r="C6">
+        <v>1.3247863247863201</v>
+      </c>
+      <c r="D6">
+        <v>97.131588382933003</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>3.1180400890868598</v>
+      </c>
+      <c r="H6">
+        <v>2.52136752136752</v>
+      </c>
+      <c r="I6">
+        <v>97.382574399426304</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>1.0676156583629901</v>
+      </c>
+      <c r="M6">
+        <v>17.135549872122802</v>
+      </c>
+      <c r="N6">
+        <v>85.969738651994504</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>10.913140311804</v>
+      </c>
+      <c r="R6">
+        <v>1.3247863247863201</v>
+      </c>
+      <c r="S6">
+        <v>97.131588382933003</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>11.71875</v>
+      </c>
+      <c r="V6">
+        <v>6.8661971830985902</v>
+      </c>
+      <c r="W6">
+        <v>92.432228915662705</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>25.704225352112701</v>
+      </c>
+      <c r="Z6">
+        <v>8.1042654028436001</v>
+      </c>
+      <c r="AA6">
+        <v>89.807852965747699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2.4553571428571401</v>
+      </c>
+      <c r="C7">
+        <v>6.6638188808201599</v>
+      </c>
+      <c r="D7">
+        <v>94.012190749372493</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>2.2321428571428599</v>
+      </c>
+      <c r="H7">
+        <v>4.2716787697565097</v>
+      </c>
+      <c r="I7">
+        <v>96.055934026532796</v>
+      </c>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>10.142348754448401</v>
+      </c>
+      <c r="M7">
+        <v>1.1508951406649599</v>
+      </c>
+      <c r="N7">
+        <v>97.111416781293002</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>2.4553571428571401</v>
+      </c>
+      <c r="R7">
+        <v>6.6638188808201599</v>
+      </c>
+      <c r="S7">
+        <v>94.012190749372493</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7">
+        <v>7.3107049608355101</v>
+      </c>
+      <c r="V7">
+        <v>6.5112186537615502</v>
+      </c>
+      <c r="W7">
+        <v>93.3734939759036</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y7">
+        <v>29.9295774647887</v>
+      </c>
+      <c r="Z7">
+        <v>3.7914691943127998</v>
+      </c>
+      <c r="AA7">
+        <v>93.107769423558906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>17.594654788418701</v>
+      </c>
+      <c r="C8">
+        <v>0.427350427350427</v>
+      </c>
+      <c r="D8">
+        <v>96.808892076012896</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>6.6815144766146997</v>
+      </c>
+      <c r="H8">
+        <v>2.1367521367521398</v>
+      </c>
+      <c r="I8">
+        <v>97.131588382933003</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>15.6583629893238</v>
+      </c>
+      <c r="M8">
+        <v>0.68201193520886605</v>
+      </c>
+      <c r="N8">
+        <v>96.423658872076999</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>17.594654788418701</v>
+      </c>
+      <c r="R8">
+        <v>0.427350427350427</v>
+      </c>
+      <c r="S8">
+        <v>96.808892076012896</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8">
+        <v>10.15625</v>
+      </c>
+      <c r="V8">
+        <v>6.8221830985915499</v>
+      </c>
+      <c r="W8">
+        <v>92.695783132530096</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8">
+        <v>32.746478873239397</v>
+      </c>
+      <c r="Z8">
+        <v>2.7014218009478701</v>
+      </c>
+      <c r="AA8">
+        <v>93.734335839598998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4.6770601336302899</v>
+      </c>
+      <c r="C9">
+        <v>2.8205128205128198</v>
+      </c>
+      <c r="D9">
+        <v>96.880602366439604</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>5.12249443207127</v>
+      </c>
+      <c r="H9">
+        <v>2.2222222222222201</v>
+      </c>
+      <c r="I9">
+        <v>97.310864108999596</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>11.9429590017825</v>
+      </c>
+      <c r="M9">
+        <v>0.72432893054963798</v>
+      </c>
+      <c r="N9">
+        <v>97.111416781293002</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>4.6770601336302899</v>
+      </c>
+      <c r="R9">
+        <v>2.8205128205128198</v>
+      </c>
+      <c r="S9">
+        <v>96.880602366439604</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9">
+        <v>8.0939947780678896</v>
+      </c>
+      <c r="V9">
+        <v>9.5468543774747001</v>
+      </c>
+      <c r="W9">
+        <v>90.662650602409599</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9">
+        <v>13.3802816901408</v>
+      </c>
+      <c r="Z9">
+        <v>7.3459715639810401</v>
+      </c>
+      <c r="AA9">
+        <v>91.938178780284105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5.56792873051225</v>
+      </c>
+      <c r="C10">
+        <v>6.9658119658119704</v>
+      </c>
+      <c r="D10">
+        <v>93.259232699892394</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>7.3496659242761702</v>
+      </c>
+      <c r="H10">
+        <v>3.9316239316239301</v>
+      </c>
+      <c r="I10">
+        <v>95.518106848332707</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>6.7736185383244196</v>
+      </c>
+      <c r="M10">
+        <v>2.8121005538985901</v>
+      </c>
+      <c r="N10">
+        <v>96.423658872076999</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>5.56792873051225</v>
+      </c>
+      <c r="R10">
+        <v>6.9658119658119704</v>
+      </c>
+      <c r="S10">
+        <v>93.259232699892394</v>
+      </c>
+      <c r="T10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10">
+        <v>10.732984293193701</v>
+      </c>
+      <c r="V10">
+        <v>7.5637642919964803</v>
+      </c>
+      <c r="W10">
+        <v>91.980421686746993</v>
+      </c>
+      <c r="X10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10">
+        <v>20.494699646643099</v>
+      </c>
+      <c r="Z10">
+        <v>5.873993368072</v>
+      </c>
+      <c r="AA10">
+        <v>92.397660818713504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="20">
+        <f>AVERAGE(B6:B10)</f>
+        <v>8.2416282214444756</v>
+      </c>
+      <c r="C11" s="20">
+        <f>AVERAGE(C6:C10)</f>
+        <v>3.6404560838563391</v>
+      </c>
+      <c r="D11" s="20">
+        <f>AVERAGE(D6:D10)</f>
+        <v>95.618501254930067</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="20">
+        <f>AVERAGE(G6:G10)</f>
+        <v>4.9007715558383724</v>
+      </c>
+      <c r="H11" s="20">
+        <f>AVERAGE(H6:H10)</f>
+        <v>3.0167289163444639</v>
+      </c>
+      <c r="I11" s="20">
+        <f>AVERAGE(I6:I10)</f>
+        <v>96.679813553244884</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="20">
+        <f>AVERAGE(L6:L10)</f>
+        <v>9.1169809884484216</v>
+      </c>
+      <c r="M11" s="20">
+        <f>AVERAGE(M6:M10)</f>
+        <v>4.500977286488971</v>
+      </c>
+      <c r="N11" s="20">
+        <f>AVERAGE(N6:N10)</f>
+        <v>94.607977991746907</v>
+      </c>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="41">
+        <f>AVERAGE(Q6:Q10)</f>
+        <v>8.2416282214444756</v>
+      </c>
+      <c r="R11" s="41">
+        <f>AVERAGE(R6:R10)</f>
+        <v>3.6404560838563391</v>
+      </c>
+      <c r="S11" s="41">
+        <f>AVERAGE(S6:S10)</f>
+        <v>95.618501254930067</v>
+      </c>
+      <c r="T11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="41">
+        <f t="shared" ref="U11:W11" si="0">AVERAGE(U6:U10)</f>
+        <v>9.602536806419419</v>
+      </c>
+      <c r="V11" s="41">
+        <f t="shared" si="0"/>
+        <v>7.4620435209845741</v>
+      </c>
+      <c r="W11" s="41">
+        <f t="shared" si="0"/>
+        <v>92.228915662650593</v>
+      </c>
+      <c r="X11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="41">
+        <f t="shared" ref="Y11:AA11" si="1">AVERAGE(Y6:Y10)</f>
+        <v>24.451052605384941</v>
+      </c>
+      <c r="Z11" s="41">
+        <f t="shared" si="1"/>
+        <v>5.5634242660314621</v>
+      </c>
+      <c r="AA11" s="41">
+        <f t="shared" si="1"/>
+        <v>92.197159565580634</v>
+      </c>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+    </row>
+    <row r="13" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="F13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="W13" s="33"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="W14" s="2"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34">
+        <v>479</v>
+      </c>
+      <c r="C15" s="34">
+        <v>2842</v>
+      </c>
+      <c r="D15" s="34">
+        <v>3321</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34">
+        <v>479</v>
+      </c>
+      <c r="H15" s="34">
+        <v>2842</v>
+      </c>
+      <c r="I15" s="34">
+        <v>3321</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34">
+        <v>690</v>
+      </c>
+      <c r="M15" s="34">
+        <v>2934</v>
+      </c>
+      <c r="N15" s="34">
+        <v>3624</v>
+      </c>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="G16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>11.71875</v>
+      </c>
+      <c r="C17">
+        <v>6.8661971830985902</v>
+      </c>
+      <c r="D17">
+        <v>92.432228915662705</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>28.125</v>
+      </c>
+      <c r="H17">
+        <v>1.2764084507042299</v>
+      </c>
+      <c r="I17">
+        <v>94.841867469879503</v>
+      </c>
+      <c r="K17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>8.7114337568058104</v>
+      </c>
+      <c r="M17">
+        <v>7.6235093696763201</v>
+      </c>
+      <c r="N17">
+        <v>92.169713694377407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>7.3107049608355101</v>
+      </c>
+      <c r="C18">
+        <v>6.5112186537615502</v>
+      </c>
+      <c r="D18">
+        <v>93.3734939759036</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>7.3107049608355101</v>
+      </c>
+      <c r="H18">
+        <v>7.0831500219973602</v>
+      </c>
+      <c r="I18">
+        <v>92.884036144578303</v>
+      </c>
+      <c r="K18" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>11.050724637681199</v>
+      </c>
+      <c r="M18">
+        <v>4.7720494247976104</v>
+      </c>
+      <c r="N18">
+        <v>94.032424974129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>10.15625</v>
+      </c>
+      <c r="C19">
+        <v>6.8221830985915499</v>
+      </c>
+      <c r="D19">
+        <v>92.695783132530096</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>12.7604166666667</v>
+      </c>
+      <c r="H19">
+        <v>4.3573943661971803</v>
+      </c>
+      <c r="I19">
+        <v>94.427710843373504</v>
+      </c>
+      <c r="K19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>11.050724637681199</v>
+      </c>
+      <c r="M19">
+        <v>5.8798466126970599</v>
+      </c>
+      <c r="N19">
+        <v>93.135563987581904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>8.0939947780678896</v>
+      </c>
+      <c r="C20">
+        <v>9.5468543774747001</v>
+      </c>
+      <c r="D20">
+        <v>90.662650602409599</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>6.5274151436031298</v>
+      </c>
+      <c r="H20">
+        <v>8.2710074791025097</v>
+      </c>
+      <c r="I20">
+        <v>91.980421686746993</v>
+      </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <v>15.398550724637699</v>
+      </c>
+      <c r="M20">
+        <v>2.4286322965487899</v>
+      </c>
+      <c r="N20">
+        <v>95.101759227319803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>10.732984293193701</v>
+      </c>
+      <c r="C21">
+        <v>7.5637642919964803</v>
+      </c>
+      <c r="D21">
+        <v>91.980421686746993</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>22.715404699738901</v>
+      </c>
+      <c r="H21">
+        <v>2.2877254729432499</v>
+      </c>
+      <c r="I21">
+        <v>94.766566265060206</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21">
+        <v>13.949275362318801</v>
+      </c>
+      <c r="M21">
+        <v>3.0677460587984702</v>
+      </c>
+      <c r="N21">
+        <v>94.860296654018597</v>
+      </c>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="20">
+        <f t="shared" ref="B22:C22" si="2">AVERAGE(B17:B21)</f>
+        <v>9.602536806419419</v>
+      </c>
+      <c r="C22" s="20">
+        <f t="shared" si="2"/>
+        <v>7.4620435209845741</v>
+      </c>
+      <c r="D22" s="20">
+        <f t="shared" ref="D22" si="3">AVERAGE(D17:D21)</f>
+        <v>92.228915662650593</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="20">
+        <f t="shared" ref="G22:I22" si="4">AVERAGE(G17:G21)</f>
+        <v>15.487788294168848</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="4"/>
+        <v>4.6551371581889054</v>
+      </c>
+      <c r="I22" s="20">
+        <f t="shared" si="4"/>
+        <v>93.780120481927696</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="20">
+        <f>AVERAGE(L17:L21)</f>
+        <v>12.032141823824942</v>
+      </c>
+      <c r="M22" s="20">
+        <f>AVERAGE(M17:M21)</f>
+        <v>4.754356752503651</v>
+      </c>
+      <c r="N22" s="20">
+        <f>AVERAGE(N17:N21)</f>
+        <v>93.859951707485351</v>
+      </c>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="21"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="Q23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="W23" s="2"/>
+      <c r="AA23" s="19"/>
+      <c r="AC23" s="19"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="F24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="K24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+    </row>
+    <row r="25" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="44"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="N25" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="W25" s="33"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34">
+        <v>355</v>
+      </c>
+      <c r="C26" s="34">
+        <v>2638</v>
+      </c>
+      <c r="D26" s="34">
+        <v>2993</v>
+      </c>
+      <c r="E26" s="46"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34">
+        <v>355</v>
+      </c>
+      <c r="H26" s="34">
+        <v>2638</v>
+      </c>
+      <c r="I26" s="34">
+        <v>2993</v>
+      </c>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34">
+        <v>686</v>
+      </c>
+      <c r="M26" s="34">
+        <v>2934</v>
+      </c>
+      <c r="N26" s="34">
+        <v>3620</v>
+      </c>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B27" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="G27" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>25.704225352112701</v>
+      </c>
+      <c r="C28">
+        <v>8.1042654028436001</v>
+      </c>
+      <c r="D28">
+        <v>89.807852965747699</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>3.52112676056338</v>
+      </c>
+      <c r="H28">
+        <v>22.2274881516588</v>
+      </c>
+      <c r="I28">
+        <v>79.991645781119502</v>
+      </c>
+      <c r="K28" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>20.0364298724954</v>
+      </c>
+      <c r="M28">
+        <v>6.6893907115466602</v>
+      </c>
+      <c r="N28">
+        <v>90.780386740331494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>29.9295774647887</v>
+      </c>
+      <c r="C29">
+        <v>3.7914691943127998</v>
+      </c>
+      <c r="D29">
+        <v>93.107769423558906</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>8.8028169014084501</v>
+      </c>
+      <c r="H29">
+        <v>13.933649289099501</v>
+      </c>
+      <c r="I29">
+        <v>86.675020885547198</v>
+      </c>
+      <c r="K29" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <v>14.5985401459854</v>
+      </c>
+      <c r="M29">
+        <v>10.093696763202701</v>
+      </c>
+      <c r="N29">
+        <v>89.053867403314896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>32.746478873239397</v>
+      </c>
+      <c r="C30">
+        <v>2.7014218009478701</v>
+      </c>
+      <c r="D30">
+        <v>93.734335839598998</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>12.6760563380282</v>
+      </c>
+      <c r="H30">
+        <v>15.071090047393399</v>
+      </c>
+      <c r="I30">
+        <v>85.213032581453604</v>
+      </c>
+      <c r="K30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30">
+        <v>31.8761384335155</v>
+      </c>
+      <c r="M30">
+        <v>1.74691095014913</v>
+      </c>
+      <c r="N30">
+        <v>92.541436464088406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>13.3802816901408</v>
+      </c>
+      <c r="C31">
+        <v>7.3459715639810401</v>
+      </c>
+      <c r="D31">
+        <v>91.938178780284105</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>14.084507042253501</v>
+      </c>
+      <c r="H31">
+        <v>7.8199052132701397</v>
+      </c>
+      <c r="I31">
+        <v>91.436925647452</v>
+      </c>
+      <c r="K31" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31">
+        <v>28.9617486338798</v>
+      </c>
+      <c r="M31">
+        <v>2.5990626331487001</v>
+      </c>
+      <c r="N31">
+        <v>92.403314917127105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A32" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>20.494699646643099</v>
+      </c>
+      <c r="C32">
+        <v>5.873993368072</v>
+      </c>
+      <c r="D32">
+        <v>92.397660818713504</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>22.887323943662</v>
+      </c>
+      <c r="H32">
+        <v>4.6445497630331802</v>
+      </c>
+      <c r="I32">
+        <v>93.191311612364302</v>
+      </c>
+      <c r="K32" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32">
+        <v>14.936247723133</v>
+      </c>
+      <c r="M32">
+        <v>5.9650617809970203</v>
+      </c>
+      <c r="N32">
+        <v>92.334254143646405</v>
+      </c>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="20">
+        <f t="shared" ref="B33:C33" si="5">AVERAGE(B28:B32)</f>
+        <v>24.451052605384941</v>
+      </c>
+      <c r="C33" s="20">
+        <f t="shared" si="5"/>
+        <v>5.5634242660314621</v>
+      </c>
+      <c r="D33" s="20">
+        <f t="shared" ref="D33" si="6">AVERAGE(D28:D32)</f>
+        <v>92.197159565580634</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="20">
+        <f t="shared" ref="G33:I33" si="7">AVERAGE(G28:G32)</f>
+        <v>12.394366197183107</v>
+      </c>
+      <c r="H33" s="20">
+        <f t="shared" si="7"/>
+        <v>12.739336492891004</v>
+      </c>
+      <c r="I33" s="20">
+        <f t="shared" si="7"/>
+        <v>87.301587301587318</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="20">
+        <f t="shared" ref="L33:N33" si="8">AVERAGE(L28:L32)</f>
+        <v>22.081820961801821</v>
+      </c>
+      <c r="M33" s="20">
+        <f t="shared" si="8"/>
+        <v>5.4188245678088425</v>
+      </c>
+      <c r="N33" s="20">
+        <f t="shared" si="8"/>
+        <v>91.422651933701644</v>
+      </c>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="3"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+    </row>
+    <row r="34" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+      <c r="A34" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:AA1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6C734-146C-49B9-BE90-0FF3605E587B}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -3153,3579 +4865,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67566EC8-2D20-4A2C-89CA-FD459545D209}">
-  <dimension ref="A1:AB32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="37"/>
-    <col min="12" max="12" width="14.77734375" customWidth="1"/>
-    <col min="17" max="17" width="15.21875" customWidth="1"/>
-    <col min="20" max="20" width="11.44140625" style="37"/>
-    <col min="21" max="21" width="11.44140625" style="21"/>
-    <col min="27" max="27" width="16.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="32"/>
-      <c r="V2" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z2" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" s="32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="19">
-        <v>561</v>
-      </c>
-      <c r="F3">
-        <v>2926</v>
-      </c>
-      <c r="G3" s="19">
-        <v>3487</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="19">
-        <v>561</v>
-      </c>
-      <c r="Q3">
-        <v>2926</v>
-      </c>
-      <c r="R3" s="19">
-        <v>3487</v>
-      </c>
-      <c r="S3" s="19"/>
-      <c r="V3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z3" s="19">
-        <v>702</v>
-      </c>
-      <c r="AA3">
-        <v>2934</v>
-      </c>
-      <c r="AB3" s="19">
-        <v>3636</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="32"/>
-      <c r="W4" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="X4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y4" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB4" s="32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="C5">
-        <v>3.21</v>
-      </c>
-      <c r="D5">
-        <v>6.68</v>
-      </c>
-      <c r="E5">
-        <v>93.32</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="L5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>11.14</v>
-      </c>
-      <c r="N5">
-        <v>4.49</v>
-      </c>
-      <c r="O5">
-        <v>8.81</v>
-      </c>
-      <c r="P5">
-        <v>91.19</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-      <c r="R5">
-        <v>7</v>
-      </c>
-      <c r="V5" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5">
-        <v>5.87</v>
-      </c>
-      <c r="X5">
-        <v>2.9</v>
-      </c>
-      <c r="Y5">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="Z5">
-        <v>95.23</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>22.32</v>
-      </c>
-      <c r="C6">
-        <v>0.98</v>
-      </c>
-      <c r="D6">
-        <v>18.66</v>
-      </c>
-      <c r="E6">
-        <v>81.34</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
-      </c>
-      <c r="L6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <v>9.82</v>
-      </c>
-      <c r="N6">
-        <v>3.2</v>
-      </c>
-      <c r="O6">
-        <v>7.81</v>
-      </c>
-      <c r="P6">
-        <v>92.19</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>7</v>
-      </c>
-      <c r="V6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W6">
-        <v>7.47</v>
-      </c>
-      <c r="X6">
-        <v>3.2</v>
-      </c>
-      <c r="Y6">
-        <v>5.83</v>
-      </c>
-      <c r="Z6">
-        <v>94.17</v>
-      </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="C7">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="D7">
-        <v>6.01</v>
-      </c>
-      <c r="E7">
-        <v>93.99</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="L7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <v>5.57</v>
-      </c>
-      <c r="N7">
-        <v>4.83</v>
-      </c>
-      <c r="O7">
-        <v>5.35</v>
-      </c>
-      <c r="P7">
-        <v>94.65</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-      <c r="R7">
-        <v>11</v>
-      </c>
-      <c r="V7" t="s">
-        <v>6</v>
-      </c>
-      <c r="W7">
-        <v>13.35</v>
-      </c>
-      <c r="X7">
-        <v>1.92</v>
-      </c>
-      <c r="Y7">
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="Z7">
-        <v>90.54</v>
-      </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
-      <c r="AB7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>13.59</v>
-      </c>
-      <c r="C8">
-        <v>0.77</v>
-      </c>
-      <c r="D8">
-        <v>12.45</v>
-      </c>
-      <c r="E8">
-        <v>87.55</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>12</v>
-      </c>
-      <c r="L8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8">
-        <v>14.48</v>
-      </c>
-      <c r="N8">
-        <v>2.95</v>
-      </c>
-      <c r="O8">
-        <v>11.59</v>
-      </c>
-      <c r="P8">
-        <v>88.41</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>3</v>
-      </c>
-      <c r="V8" t="s">
-        <v>7</v>
-      </c>
-      <c r="W8">
-        <v>7.31</v>
-      </c>
-      <c r="X8">
-        <v>3.41</v>
-      </c>
-      <c r="Y8">
-        <v>7.13</v>
-      </c>
-      <c r="Z8">
-        <v>92.87</v>
-      </c>
-      <c r="AA8">
-        <v>1</v>
-      </c>
-      <c r="AB8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>7.35</v>
-      </c>
-      <c r="C9">
-        <v>3.21</v>
-      </c>
-      <c r="D9">
-        <v>6.1</v>
-      </c>
-      <c r="E9">
-        <v>93.9</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="L9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9">
-        <v>34.520000000000003</v>
-      </c>
-      <c r="N9">
-        <v>0.17</v>
-      </c>
-      <c r="O9">
-        <v>25.73</v>
-      </c>
-      <c r="P9">
-        <v>74.27</v>
-      </c>
-      <c r="Q9">
-        <v>3</v>
-      </c>
-      <c r="R9">
-        <v>15</v>
-      </c>
-      <c r="V9" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9">
-        <v>14.08</v>
-      </c>
-      <c r="X9">
-        <v>1.62</v>
-      </c>
-      <c r="Y9">
-        <v>9.81</v>
-      </c>
-      <c r="Z9">
-        <v>90.19</v>
-      </c>
-      <c r="AA9">
-        <v>1</v>
-      </c>
-      <c r="AB9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="5">
-        <f t="shared" ref="B10:G10" si="0">AVERAGE(B5:B9)</f>
-        <v>12.17</v>
-      </c>
-      <c r="C10" s="5">
-        <f t="shared" si="0"/>
-        <v>2.036</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>9.98</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>90.02000000000001</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="0"/>
-        <v>9.4</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" ref="M10:R10" si="1">AVERAGE(M5:M9)</f>
-        <v>15.106</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" si="1"/>
-        <v>3.1279999999999997</v>
-      </c>
-      <c r="O10" s="5">
-        <f t="shared" si="1"/>
-        <v>11.858000000000001</v>
-      </c>
-      <c r="P10" s="5">
-        <f t="shared" si="1"/>
-        <v>88.141999999999982</v>
-      </c>
-      <c r="Q10" s="5">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="R10" s="5">
-        <f t="shared" si="1"/>
-        <v>8.6</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W10" s="5">
-        <f t="shared" ref="W10:AB10" si="2">AVERAGE(W5:W9)</f>
-        <v>9.6159999999999997</v>
-      </c>
-      <c r="X10" s="5">
-        <f t="shared" si="2"/>
-        <v>2.6100000000000003</v>
-      </c>
-      <c r="Y10" s="5">
-        <f t="shared" si="2"/>
-        <v>7.4</v>
-      </c>
-      <c r="Z10" s="5">
-        <f t="shared" si="2"/>
-        <v>92.6</v>
-      </c>
-      <c r="AA10" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AB10" s="5">
-        <f t="shared" si="2"/>
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-    </row>
-    <row r="12" spans="1:28" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="V12" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="E13" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="40"/>
-      <c r="J13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="P13" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q13" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="R13" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="S13" s="32"/>
-      <c r="V13" s="2"/>
-      <c r="Z13" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA13" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB13" s="32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="34">
-        <v>479</v>
-      </c>
-      <c r="F14" s="34">
-        <v>2842</v>
-      </c>
-      <c r="G14" s="34">
-        <v>3321</v>
-      </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="34">
-        <v>479</v>
-      </c>
-      <c r="Q14" s="34">
-        <v>2842</v>
-      </c>
-      <c r="R14" s="34">
-        <v>3321</v>
-      </c>
-      <c r="S14" s="34"/>
-      <c r="V14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="34">
-        <v>690</v>
-      </c>
-      <c r="AA14" s="34">
-        <v>2934</v>
-      </c>
-      <c r="AB14" s="34">
-        <v>3624</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B15" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="M15" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="R15" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="S15" s="32"/>
-      <c r="W15" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y15" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z15" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA15" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB15" s="32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>22.4</v>
-      </c>
-      <c r="C16">
-        <v>7.39</v>
-      </c>
-      <c r="D16">
-        <v>17.66</v>
-      </c>
-      <c r="E16">
-        <v>82.34</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>9</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16">
-        <v>12.76</v>
-      </c>
-      <c r="N16">
-        <v>9.77</v>
-      </c>
-      <c r="O16">
-        <v>11.46</v>
-      </c>
-      <c r="P16">
-        <v>88.54</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>2</v>
-      </c>
-      <c r="V16" t="s">
-        <v>4</v>
-      </c>
-      <c r="W16">
-        <v>19.059999999999999</v>
-      </c>
-      <c r="X16">
-        <v>2.85</v>
-      </c>
-      <c r="Y16">
-        <v>13.5</v>
-      </c>
-      <c r="Z16">
-        <v>86.5</v>
-      </c>
-      <c r="AA16">
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>18.28</v>
-      </c>
-      <c r="C17">
-        <v>6.16</v>
-      </c>
-      <c r="D17">
-        <v>13.8</v>
-      </c>
-      <c r="E17">
-        <v>86.2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>7</v>
-      </c>
-      <c r="J17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17">
-        <v>14.62</v>
-      </c>
-      <c r="N17">
-        <v>4.53</v>
-      </c>
-      <c r="O17">
-        <v>10.18</v>
-      </c>
-      <c r="P17">
-        <v>89.82</v>
-      </c>
-      <c r="Q17">
-        <v>2</v>
-      </c>
-      <c r="R17">
-        <v>7</v>
-      </c>
-      <c r="V17" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17">
-        <v>21.2</v>
-      </c>
-      <c r="X17">
-        <v>3.24</v>
-      </c>
-      <c r="Y17">
-        <v>14.13</v>
-      </c>
-      <c r="Z17">
-        <v>85.87</v>
-      </c>
-      <c r="AA17">
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>16.670000000000002</v>
-      </c>
-      <c r="C18">
-        <v>6.21</v>
-      </c>
-      <c r="D18">
-        <v>13.32</v>
-      </c>
-      <c r="E18">
-        <v>86.68</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="J18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18">
-        <v>18.75</v>
-      </c>
-      <c r="N18">
-        <v>3.39</v>
-      </c>
-      <c r="O18">
-        <v>12.9</v>
-      </c>
-      <c r="P18">
-        <v>87.1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>8</v>
-      </c>
-      <c r="V18" t="s">
-        <v>6</v>
-      </c>
-      <c r="W18">
-        <v>19.57</v>
-      </c>
-      <c r="X18">
-        <v>6.65</v>
-      </c>
-      <c r="Y18">
-        <v>15.25</v>
-      </c>
-      <c r="Z18">
-        <v>84.75</v>
-      </c>
-      <c r="AA18">
-        <v>1</v>
-      </c>
-      <c r="AB18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>17.75</v>
-      </c>
-      <c r="C19">
-        <v>5.9</v>
-      </c>
-      <c r="D19">
-        <v>13.98</v>
-      </c>
-      <c r="E19">
-        <v>86.02</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
-      <c r="J19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19">
-        <v>16.97</v>
-      </c>
-      <c r="N19">
-        <v>5.98</v>
-      </c>
-      <c r="O19">
-        <v>12.97</v>
-      </c>
-      <c r="P19">
-        <v>87.03</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>6</v>
-      </c>
-      <c r="V19" t="s">
-        <v>7</v>
-      </c>
-      <c r="W19">
-        <v>20.47</v>
-      </c>
-      <c r="X19">
-        <v>2.98</v>
-      </c>
-      <c r="Y19">
-        <v>13.55</v>
-      </c>
-      <c r="Z19">
-        <v>86.45</v>
-      </c>
-      <c r="AA19">
-        <v>1</v>
-      </c>
-      <c r="AB19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>16.489999999999998</v>
-      </c>
-      <c r="C20">
-        <v>5.63</v>
-      </c>
-      <c r="D20">
-        <v>12.46</v>
-      </c>
-      <c r="E20">
-        <v>87.54</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>7</v>
-      </c>
-      <c r="J20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="21">
-        <v>18.8</v>
-      </c>
-      <c r="N20" s="21">
-        <v>5.98</v>
-      </c>
-      <c r="O20" s="21">
-        <v>14.28</v>
-      </c>
-      <c r="P20" s="21">
-        <v>85.72</v>
-      </c>
-      <c r="Q20" s="21">
-        <v>1</v>
-      </c>
-      <c r="R20" s="21">
-        <v>8</v>
-      </c>
-      <c r="S20" s="21"/>
-      <c r="V20" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W20" s="21">
-        <v>20.65</v>
-      </c>
-      <c r="X20" s="21">
-        <v>3.92</v>
-      </c>
-      <c r="Y20" s="21">
-        <v>14.31</v>
-      </c>
-      <c r="Z20" s="21">
-        <v>85.69</v>
-      </c>
-      <c r="AA20" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="5">
-        <f t="shared" ref="B21:G21" si="3">AVERAGE(B16:B20)</f>
-        <v>18.317999999999998</v>
-      </c>
-      <c r="C21" s="5">
-        <f t="shared" si="3"/>
-        <v>6.2580000000000009</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" si="3"/>
-        <v>14.244</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="3"/>
-        <v>85.756</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="3"/>
-        <v>6.6</v>
-      </c>
-      <c r="J21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" s="5">
-        <f t="shared" ref="M21:R21" si="4">AVERAGE(M16:M20)</f>
-        <v>16.38</v>
-      </c>
-      <c r="N21" s="5">
-        <f t="shared" si="4"/>
-        <v>5.9300000000000006</v>
-      </c>
-      <c r="O21" s="5">
-        <f t="shared" si="4"/>
-        <v>12.358000000000001</v>
-      </c>
-      <c r="P21" s="5">
-        <f t="shared" si="4"/>
-        <v>87.64200000000001</v>
-      </c>
-      <c r="Q21" s="5">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-      <c r="R21" s="5">
-        <f t="shared" si="4"/>
-        <v>6.2</v>
-      </c>
-      <c r="S21" s="3"/>
-      <c r="V21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="W21" s="5">
-        <f t="shared" ref="W21:AB21" si="5">AVERAGE(W16:W20)</f>
-        <v>20.189999999999998</v>
-      </c>
-      <c r="X21" s="5">
-        <f t="shared" si="5"/>
-        <v>3.9279999999999999</v>
-      </c>
-      <c r="Y21" s="5">
-        <f t="shared" si="5"/>
-        <v>14.148000000000001</v>
-      </c>
-      <c r="Z21" s="5">
-        <f t="shared" si="5"/>
-        <v>85.852000000000004</v>
-      </c>
-      <c r="AA21" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AB21" s="5">
-        <f t="shared" si="5"/>
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="E22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="J22" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="21"/>
-      <c r="L22" s="2"/>
-      <c r="P22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="V22" s="2"/>
-      <c r="Z22" s="19"/>
-      <c r="AB22" s="19"/>
-    </row>
-    <row r="23" spans="1:28" ht="21" x14ac:dyDescent="0.4">
-      <c r="A23" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="16"/>
-      <c r="J23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-    </row>
-    <row r="24" spans="1:28" ht="21" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="34">
-        <v>355</v>
-      </c>
-      <c r="F24" s="34">
-        <v>2638</v>
-      </c>
-      <c r="G24" s="34">
-        <v>2993</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q24" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="R24" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="S24" s="32"/>
-      <c r="V24" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z24" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA24" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB24" s="32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B25" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="34">
-        <v>355</v>
-      </c>
-      <c r="Q25" s="34">
-        <v>2638</v>
-      </c>
-      <c r="R25" s="34">
-        <v>2993</v>
-      </c>
-      <c r="S25" s="34"/>
-      <c r="V25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="34">
-        <v>686</v>
-      </c>
-      <c r="AA25" s="34">
-        <v>2934</v>
-      </c>
-      <c r="AB25" s="34">
-        <v>3620</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <v>29.58</v>
-      </c>
-      <c r="C26">
-        <v>12.18</v>
-      </c>
-      <c r="D26">
-        <v>24.99</v>
-      </c>
-      <c r="E26">
-        <v>75.010000000000005</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-      <c r="M26" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="N26" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="O26" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="R26" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="S26" s="32"/>
-      <c r="W26" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="X26" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y26" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z26" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA26" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB26" s="32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>28.52</v>
-      </c>
-      <c r="C27">
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="D27">
-        <v>21.95</v>
-      </c>
-      <c r="E27">
-        <v>78.05</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>7</v>
-      </c>
-      <c r="L27" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27">
-        <v>24.3</v>
-      </c>
-      <c r="N27">
-        <v>10.9</v>
-      </c>
-      <c r="O27">
-        <v>20.51</v>
-      </c>
-      <c r="P27">
-        <v>79.489999999999995</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27">
-        <v>4</v>
-      </c>
-      <c r="V27" t="s">
-        <v>4</v>
-      </c>
-      <c r="W27">
-        <v>22.4</v>
-      </c>
-      <c r="X27">
-        <v>5.45</v>
-      </c>
-      <c r="Y27">
-        <v>16.57</v>
-      </c>
-      <c r="Z27">
-        <v>83.43</v>
-      </c>
-      <c r="AA27">
-        <v>1</v>
-      </c>
-      <c r="AB27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>25.35</v>
-      </c>
-      <c r="C28">
-        <v>11.52</v>
-      </c>
-      <c r="D28">
-        <v>21.5</v>
-      </c>
-      <c r="E28">
-        <v>78.5</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>6</v>
-      </c>
-      <c r="L28" t="s">
-        <v>5</v>
-      </c>
-      <c r="M28">
-        <v>23.94</v>
-      </c>
-      <c r="N28">
-        <v>10.95</v>
-      </c>
-      <c r="O28">
-        <v>19.89</v>
-      </c>
-      <c r="P28">
-        <v>80.11</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="R28">
-        <v>5</v>
-      </c>
-      <c r="V28" t="s">
-        <v>5</v>
-      </c>
-      <c r="W28">
-        <v>22.99</v>
-      </c>
-      <c r="X28">
-        <v>6.69</v>
-      </c>
-      <c r="Y28">
-        <v>16.72</v>
-      </c>
-      <c r="Z28">
-        <v>83.28</v>
-      </c>
-      <c r="AA28">
-        <v>1</v>
-      </c>
-      <c r="AB28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>23.24</v>
-      </c>
-      <c r="C29">
-        <v>11.71</v>
-      </c>
-      <c r="D29">
-        <v>19.68</v>
-      </c>
-      <c r="E29">
-        <v>80.319999999999993</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="L29" t="s">
-        <v>6</v>
-      </c>
-      <c r="M29">
-        <v>28.87</v>
-      </c>
-      <c r="N29">
-        <v>8.25</v>
-      </c>
-      <c r="O29">
-        <v>22.42</v>
-      </c>
-      <c r="P29">
-        <v>77.58</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29">
-        <v>11</v>
-      </c>
-      <c r="V29" t="s">
-        <v>6</v>
-      </c>
-      <c r="W29">
-        <v>21.86</v>
-      </c>
-      <c r="X29">
-        <v>7.2</v>
-      </c>
-      <c r="Y29">
-        <v>16.16</v>
-      </c>
-      <c r="Z29">
-        <v>83.84</v>
-      </c>
-      <c r="AA29">
-        <v>2</v>
-      </c>
-      <c r="AB29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30">
-        <v>28.62</v>
-      </c>
-      <c r="C30">
-        <v>7.53</v>
-      </c>
-      <c r="D30">
-        <v>20.010000000000002</v>
-      </c>
-      <c r="E30">
-        <v>79.989999999999995</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>4</v>
-      </c>
-      <c r="L30" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30">
-        <v>24.65</v>
-      </c>
-      <c r="N30">
-        <v>12.32</v>
-      </c>
-      <c r="O30">
-        <v>21.64</v>
-      </c>
-      <c r="P30">
-        <v>78.36</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="R30">
-        <v>7</v>
-      </c>
-      <c r="V30" t="s">
-        <v>7</v>
-      </c>
-      <c r="W30">
-        <v>22.95</v>
-      </c>
-      <c r="X30">
-        <v>6.56</v>
-      </c>
-      <c r="Y30">
-        <v>16.21</v>
-      </c>
-      <c r="Z30">
-        <v>83.79</v>
-      </c>
-      <c r="AA30">
-        <v>2</v>
-      </c>
-      <c r="AB30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="5">
-        <f t="shared" ref="B31:G31" si="6">AVERAGE(B26:B30)</f>
-        <v>27.061999999999994</v>
-      </c>
-      <c r="C31" s="5">
-        <f t="shared" si="6"/>
-        <v>10.464</v>
-      </c>
-      <c r="D31" s="5">
-        <f t="shared" si="6"/>
-        <v>21.626000000000001</v>
-      </c>
-      <c r="E31" s="5">
-        <f t="shared" si="6"/>
-        <v>78.373999999999995</v>
-      </c>
-      <c r="F31" s="5">
-        <f t="shared" si="6"/>
-        <v>1.4</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="L31" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="21">
-        <v>22.89</v>
-      </c>
-      <c r="N31" s="21">
-        <v>10.57</v>
-      </c>
-      <c r="O31" s="21">
-        <v>18.739999999999998</v>
-      </c>
-      <c r="P31" s="21">
-        <v>81.260000000000005</v>
-      </c>
-      <c r="Q31" s="21">
-        <v>1</v>
-      </c>
-      <c r="R31" s="21">
-        <v>7</v>
-      </c>
-      <c r="S31" s="21"/>
-      <c r="V31" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W31" s="21">
-        <v>22.95</v>
-      </c>
-      <c r="X31" s="21">
-        <v>5.58</v>
-      </c>
-      <c r="Y31" s="21">
-        <v>16.760000000000002</v>
-      </c>
-      <c r="Z31" s="21">
-        <v>83.24</v>
-      </c>
-      <c r="AA31" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="33"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="L32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M32" s="5">
-        <f t="shared" ref="M32:R32" si="7">AVERAGE(M27:M31)</f>
-        <v>24.93</v>
-      </c>
-      <c r="N32" s="5">
-        <f t="shared" si="7"/>
-        <v>10.598000000000001</v>
-      </c>
-      <c r="O32" s="5">
-        <f t="shared" si="7"/>
-        <v>20.64</v>
-      </c>
-      <c r="P32" s="5">
-        <f t="shared" si="7"/>
-        <v>79.36</v>
-      </c>
-      <c r="Q32" s="5">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="R32" s="5">
-        <f t="shared" si="7"/>
-        <v>6.8</v>
-      </c>
-      <c r="S32" s="3"/>
-      <c r="V32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="W32" s="5">
-        <f t="shared" ref="W32:AB32" si="8">AVERAGE(W27:W31)</f>
-        <v>22.630000000000003</v>
-      </c>
-      <c r="X32" s="5">
-        <f t="shared" si="8"/>
-        <v>6.2959999999999994</v>
-      </c>
-      <c r="Y32" s="5">
-        <f t="shared" si="8"/>
-        <v>16.484000000000002</v>
-      </c>
-      <c r="Z32" s="5">
-        <f t="shared" si="8"/>
-        <v>83.516000000000005</v>
-      </c>
-      <c r="AA32" s="5">
-        <f t="shared" si="8"/>
-        <v>1.4</v>
-      </c>
-      <c r="AB32" s="5">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBC2BF5-CA36-4037-80F7-043C0B98B69C}">
-  <dimension ref="A1:AE54"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="G3" s="19">
-        <v>3404</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="19">
-        <v>3071</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U3" s="4"/>
-      <c r="V3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="19">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>17.57</v>
-      </c>
-      <c r="C6">
-        <v>7.23</v>
-      </c>
-      <c r="D6">
-        <v>14.49</v>
-      </c>
-      <c r="E6">
-        <v>85.51</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>25.09</v>
-      </c>
-      <c r="K6">
-        <v>11.3</v>
-      </c>
-      <c r="L6">
-        <v>21.6</v>
-      </c>
-      <c r="M6">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R6">
-        <v>45.59</v>
-      </c>
-      <c r="S6">
-        <v>5.45</v>
-      </c>
-      <c r="T6">
-        <v>32.270000000000003</v>
-      </c>
-      <c r="U6">
-        <v>67.73</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="C7">
-        <v>6.25</v>
-      </c>
-      <c r="D7">
-        <v>13.59</v>
-      </c>
-      <c r="E7">
-        <v>86.41</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>9</v>
-      </c>
-      <c r="I7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>38.81</v>
-      </c>
-      <c r="K7">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="L7">
-        <v>25.87</v>
-      </c>
-      <c r="M7">
-        <v>74.13</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>8</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>5</v>
-      </c>
-      <c r="R7">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="S7">
-        <v>10.84</v>
-      </c>
-      <c r="T7">
-        <v>31.48</v>
-      </c>
-      <c r="U7">
-        <v>68.52</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>15.28</v>
-      </c>
-      <c r="C8">
-        <v>7.36</v>
-      </c>
-      <c r="D8">
-        <v>12.09</v>
-      </c>
-      <c r="E8">
-        <v>87.91</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>33.22</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="L8">
-        <v>24.13</v>
-      </c>
-      <c r="M8">
-        <v>75.87</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>7</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8">
-        <v>42.65</v>
-      </c>
-      <c r="S8">
-        <v>11.18</v>
-      </c>
-      <c r="T8">
-        <v>32.69</v>
-      </c>
-      <c r="U8">
-        <v>67.31</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>17.88</v>
-      </c>
-      <c r="C9">
-        <v>6.8</v>
-      </c>
-      <c r="D9">
-        <v>14.01</v>
-      </c>
-      <c r="E9">
-        <v>85.99</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9">
-        <v>24.48</v>
-      </c>
-      <c r="K9">
-        <v>11.71</v>
-      </c>
-      <c r="L9">
-        <v>20.28</v>
-      </c>
-      <c r="M9">
-        <v>79.72</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>7</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>7</v>
-      </c>
-      <c r="R9">
-        <v>37.75</v>
-      </c>
-      <c r="S9">
-        <v>11.04</v>
-      </c>
-      <c r="T9">
-        <v>29.9</v>
-      </c>
-      <c r="U9">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>18.09</v>
-      </c>
-      <c r="C10">
-        <v>5.65</v>
-      </c>
-      <c r="D10">
-        <v>13.87</v>
-      </c>
-      <c r="E10">
-        <v>86.13</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="I10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <v>24.04</v>
-      </c>
-      <c r="K10">
-        <v>11.57</v>
-      </c>
-      <c r="L10">
-        <v>20.21</v>
-      </c>
-      <c r="M10">
-        <v>79.790000000000006</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>8</v>
-      </c>
-      <c r="R10">
-        <v>44.61</v>
-      </c>
-      <c r="S10">
-        <v>6.27</v>
-      </c>
-      <c r="T10">
-        <v>31.86</v>
-      </c>
-      <c r="U10">
-        <v>68.14</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <f t="shared" ref="B11:G11" si="0">AVERAGE(B6:B10)</f>
-        <v>17.184000000000001</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>6.6579999999999995</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>13.61</v>
-      </c>
-      <c r="E11" s="24">
-        <f t="shared" si="0"/>
-        <v>86.390000000000015</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J11">
-        <f t="shared" ref="J11:O11" si="1">AVERAGE(J6:J10)</f>
-        <v>29.128000000000004</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>9.9740000000000002</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>22.417999999999999</v>
-      </c>
-      <c r="M11" s="24">
-        <f t="shared" si="1"/>
-        <v>77.582000000000008</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
-        <v>6.2</v>
-      </c>
-      <c r="R11">
-        <f t="shared" ref="R11:W11" si="2">AVERAGE(R6:R10)</f>
-        <v>42.160000000000004</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="2"/>
-        <v>8.9559999999999995</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="2"/>
-        <v>31.639999999999997</v>
-      </c>
-      <c r="U11" s="24">
-        <f t="shared" si="2"/>
-        <v>68.359999999999985</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="2"/>
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="I12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="Q12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-    </row>
-    <row r="13" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:31" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14">
-        <f>AVERAGE(J6:L10)</f>
-        <v>20.506666666666664</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14" s="15"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U14" s="15"/>
-      <c r="AA14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE14" s="15"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="19">
-        <v>3404</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="19">
-        <v>3071</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U15" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="V15" t="s">
-        <v>39</v>
-      </c>
-      <c r="W15" s="19">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>17.05</v>
-      </c>
-      <c r="C18">
-        <v>6.59</v>
-      </c>
-      <c r="D18">
-        <v>11.82</v>
-      </c>
-      <c r="E18">
-        <v>88.18</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18">
-        <v>30.66</v>
-      </c>
-      <c r="K18">
-        <v>6.27</v>
-      </c>
-      <c r="L18">
-        <v>18.47</v>
-      </c>
-      <c r="M18">
-        <v>81.53</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>8</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18">
-        <v>41.18</v>
-      </c>
-      <c r="S18">
-        <v>10.31</v>
-      </c>
-      <c r="T18">
-        <v>25.74</v>
-      </c>
-      <c r="U18">
-        <v>74.260000000000005</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="C19">
-        <v>5.18</v>
-      </c>
-      <c r="D19">
-        <v>11.14</v>
-      </c>
-      <c r="E19">
-        <v>88.86</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-      <c r="I19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19">
-        <v>24.48</v>
-      </c>
-      <c r="K19">
-        <v>10.69</v>
-      </c>
-      <c r="L19">
-        <v>17.579999999999998</v>
-      </c>
-      <c r="M19">
-        <v>82.42</v>
-      </c>
-      <c r="N19">
-        <v>2</v>
-      </c>
-      <c r="O19">
-        <v>6</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>5</v>
-      </c>
-      <c r="R19">
-        <v>42.65</v>
-      </c>
-      <c r="S19">
-        <v>7.23</v>
-      </c>
-      <c r="T19">
-        <v>24.94</v>
-      </c>
-      <c r="U19">
-        <v>75.06</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20">
-        <v>17.36</v>
-      </c>
-      <c r="C20">
-        <v>3.89</v>
-      </c>
-      <c r="D20">
-        <v>10.63</v>
-      </c>
-      <c r="E20">
-        <v>89.37</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>8</v>
-      </c>
-      <c r="I20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20">
-        <v>24.56</v>
-      </c>
-      <c r="K20">
-        <v>11.79</v>
-      </c>
-      <c r="L20">
-        <v>18.18</v>
-      </c>
-      <c r="M20">
-        <v>81.819999999999993</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>2</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>6</v>
-      </c>
-      <c r="R20">
-        <v>31.37</v>
-      </c>
-      <c r="S20">
-        <v>19.809999999999999</v>
-      </c>
-      <c r="T20">
-        <v>25.59</v>
-      </c>
-      <c r="U20">
-        <v>74.41</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>17.62</v>
-      </c>
-      <c r="C21">
-        <v>5.56</v>
-      </c>
-      <c r="D21">
-        <v>11.59</v>
-      </c>
-      <c r="E21">
-        <v>88.41</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="I21" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21">
-        <v>24.74</v>
-      </c>
-      <c r="K21">
-        <v>11.02</v>
-      </c>
-      <c r="L21">
-        <v>17.88</v>
-      </c>
-      <c r="M21">
-        <v>82.12</v>
-      </c>
-      <c r="N21">
-        <v>2</v>
-      </c>
-      <c r="O21">
-        <v>8</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>7</v>
-      </c>
-      <c r="R21">
-        <v>41.18</v>
-      </c>
-      <c r="S21">
-        <v>9.06</v>
-      </c>
-      <c r="T21">
-        <v>25.12</v>
-      </c>
-      <c r="U21">
-        <v>74.88</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>19.12</v>
-      </c>
-      <c r="C22">
-        <v>6.25</v>
-      </c>
-      <c r="D22">
-        <v>12.69</v>
-      </c>
-      <c r="E22">
-        <v>87.31</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>4</v>
-      </c>
-      <c r="I22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22">
-        <v>21.33</v>
-      </c>
-      <c r="K22">
-        <v>14.47</v>
-      </c>
-      <c r="L22">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="M22">
-        <v>82.1</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>7</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22">
-        <v>42.65</v>
-      </c>
-      <c r="S22">
-        <v>6.22</v>
-      </c>
-      <c r="T22">
-        <v>24.43</v>
-      </c>
-      <c r="U22">
-        <v>75.569999999999993</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E23" s="24">
-        <f>AVERAGE(E18:E22)</f>
-        <v>88.426000000000016</v>
-      </c>
-      <c r="F23">
-        <f>AVERAGE(F18:F22)</f>
-        <v>1.4</v>
-      </c>
-      <c r="G23">
-        <f>AVERAGE(G18:G22)</f>
-        <v>5.8</v>
-      </c>
-      <c r="M23" s="24">
-        <f>AVERAGE(M18:M22)</f>
-        <v>81.998000000000005</v>
-      </c>
-      <c r="N23">
-        <f>AVERAGE(N18:N22)</f>
-        <v>1.4</v>
-      </c>
-      <c r="O23">
-        <f>AVERAGE(O18:O22)</f>
-        <v>6.2</v>
-      </c>
-      <c r="U23" s="24">
-        <f>AVERAGE(U18:U22)</f>
-        <v>74.835999999999999</v>
-      </c>
-      <c r="V23">
-        <f>AVERAGE(V18:V22)</f>
-        <v>1</v>
-      </c>
-      <c r="W23">
-        <f>AVERAGE(W18:W22)</f>
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="I24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-    </row>
-    <row r="25" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="17"/>
-    </row>
-    <row r="28" spans="1:26" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="I28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="15"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="7"/>
-      <c r="G29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="O29" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="W29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="19">
-        <v>3624</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M30" s="4"/>
-      <c r="N30" t="s">
-        <v>39</v>
-      </c>
-      <c r="O30" s="19">
-        <v>3620</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U30" s="4"/>
-      <c r="V30" t="s">
-        <v>40</v>
-      </c>
-      <c r="W30" s="19">
-        <v>3604</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="V32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="W32" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33">
-        <v>20.11</v>
-      </c>
-      <c r="C33">
-        <v>5.41</v>
-      </c>
-      <c r="D33">
-        <v>12.76</v>
-      </c>
-      <c r="E33">
-        <v>87.24</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>12</v>
-      </c>
-      <c r="I33" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33">
-        <v>21.49</v>
-      </c>
-      <c r="K33">
-        <v>9.42</v>
-      </c>
-      <c r="L33">
-        <v>15.45</v>
-      </c>
-      <c r="M33">
-        <v>84.55</v>
-      </c>
-      <c r="N33">
-        <v>2</v>
-      </c>
-      <c r="O33">
-        <v>9</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>4</v>
-      </c>
-      <c r="R33">
-        <v>31.16</v>
-      </c>
-      <c r="S33">
-        <v>10.91</v>
-      </c>
-      <c r="T33">
-        <v>21.03</v>
-      </c>
-      <c r="U33">
-        <v>78.97</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34">
-        <v>18.48</v>
-      </c>
-      <c r="C34">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="D34">
-        <v>11.41</v>
-      </c>
-      <c r="E34">
-        <v>88.59</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>8</v>
-      </c>
-      <c r="I34" t="s">
-        <v>5</v>
-      </c>
-      <c r="J34">
-        <v>22.63</v>
-      </c>
-      <c r="K34">
-        <v>11.41</v>
-      </c>
-      <c r="L34">
-        <v>17.02</v>
-      </c>
-      <c r="M34">
-        <v>82.98</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>13</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>5</v>
-      </c>
-      <c r="R34">
-        <v>32.28</v>
-      </c>
-      <c r="S34">
-        <v>11.63</v>
-      </c>
-      <c r="T34">
-        <v>21.95</v>
-      </c>
-      <c r="U34">
-        <v>78.05</v>
-      </c>
-      <c r="V34">
-        <v>2</v>
-      </c>
-      <c r="W34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35">
-        <v>25.36</v>
-      </c>
-      <c r="C35">
-        <v>5.88</v>
-      </c>
-      <c r="D35">
-        <v>15.62</v>
-      </c>
-      <c r="E35">
-        <v>84.38</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="I35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35">
-        <v>24.95</v>
-      </c>
-      <c r="K35">
-        <v>10.23</v>
-      </c>
-      <c r="L35">
-        <v>17.59</v>
-      </c>
-      <c r="M35">
-        <v>82.41</v>
-      </c>
-      <c r="N35">
-        <v>2</v>
-      </c>
-      <c r="O35">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>6</v>
-      </c>
-      <c r="R35">
-        <v>31.34</v>
-      </c>
-      <c r="S35">
-        <v>10.14</v>
-      </c>
-      <c r="T35">
-        <v>20.74</v>
-      </c>
-      <c r="U35">
-        <v>79.260000000000005</v>
-      </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-      <c r="W35">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36">
-        <v>11.05</v>
-      </c>
-      <c r="C36">
-        <v>36.47</v>
-      </c>
-      <c r="D36">
-        <v>23.76</v>
-      </c>
-      <c r="E36">
-        <v>76.239999999999995</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>16</v>
-      </c>
-      <c r="I36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36">
-        <v>23.86</v>
-      </c>
-      <c r="K36">
-        <v>10.65</v>
-      </c>
-      <c r="L36">
-        <v>17.260000000000002</v>
-      </c>
-      <c r="M36">
-        <v>82.74</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>6</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>7</v>
-      </c>
-      <c r="R36">
-        <v>36.01</v>
-      </c>
-      <c r="S36">
-        <v>10.44</v>
-      </c>
-      <c r="T36">
-        <v>23.22</v>
-      </c>
-      <c r="U36">
-        <v>76.78</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="C37">
-        <v>70.73</v>
-      </c>
-      <c r="D37">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="E37">
-        <v>60.2</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>10</v>
-      </c>
-      <c r="I37" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37">
-        <v>24.04</v>
-      </c>
-      <c r="K37">
-        <v>11.25</v>
-      </c>
-      <c r="L37">
-        <v>17.649999999999999</v>
-      </c>
-      <c r="M37">
-        <v>82.35</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>11</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>8</v>
-      </c>
-      <c r="R37">
-        <v>44.22</v>
-      </c>
-      <c r="S37">
-        <v>18.920000000000002</v>
-      </c>
-      <c r="T37">
-        <v>31.57</v>
-      </c>
-      <c r="U37">
-        <v>68.430000000000007</v>
-      </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E38" s="2">
-        <f>AVERAGE(E33:E37)</f>
-        <v>79.33</v>
-      </c>
-      <c r="F38">
-        <f>AVERAGE(F33:F37)</f>
-        <v>1.8</v>
-      </c>
-      <c r="G38">
-        <f>AVERAGE(G33:G37)</f>
-        <v>9.6</v>
-      </c>
-      <c r="M38" s="4">
-        <f>AVERAGE(M33:M37)</f>
-        <v>83.006</v>
-      </c>
-      <c r="N38">
-        <f>AVERAGE(N33:N37)</f>
-        <v>1.4</v>
-      </c>
-      <c r="O38">
-        <f>AVERAGE(O33:O37)</f>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="U38" s="4">
-        <f>AVERAGE(U33:U37)</f>
-        <v>76.297999999999988</v>
-      </c>
-      <c r="V38">
-        <f>AVERAGE(V33:V37)</f>
-        <v>1.2</v>
-      </c>
-      <c r="W38">
-        <f>AVERAGE(W33:W37)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="I39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="Q39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D07C55-6007-C646-9152-6264139E81A7}">
   <dimension ref="A1:AL32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="A1:XFD1048576"/>
+      <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9085,4 +7230,3571 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67566EC8-2D20-4A2C-89CA-FD459545D209}">
+  <dimension ref="A1:AB32"/>
+  <sheetViews>
+    <sheetView topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25:AB25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="37"/>
+    <col min="12" max="12" width="14.77734375" customWidth="1"/>
+    <col min="17" max="17" width="15.21875" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" style="37"/>
+    <col min="21" max="21" width="11.44140625" style="21"/>
+    <col min="27" max="27" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="32"/>
+      <c r="V2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="19">
+        <v>561</v>
+      </c>
+      <c r="F3">
+        <v>2926</v>
+      </c>
+      <c r="G3" s="19">
+        <v>3487</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="19">
+        <v>561</v>
+      </c>
+      <c r="Q3">
+        <v>2926</v>
+      </c>
+      <c r="R3" s="19">
+        <v>3487</v>
+      </c>
+      <c r="S3" s="19"/>
+      <c r="V3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="19">
+        <v>702</v>
+      </c>
+      <c r="AA3">
+        <v>2934</v>
+      </c>
+      <c r="AB3" s="19">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="32"/>
+      <c r="W4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="C5">
+        <v>3.21</v>
+      </c>
+      <c r="D5">
+        <v>6.68</v>
+      </c>
+      <c r="E5">
+        <v>93.32</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>11.14</v>
+      </c>
+      <c r="N5">
+        <v>4.49</v>
+      </c>
+      <c r="O5">
+        <v>8.81</v>
+      </c>
+      <c r="P5">
+        <v>91.19</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>7</v>
+      </c>
+      <c r="V5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>5.87</v>
+      </c>
+      <c r="X5">
+        <v>2.9</v>
+      </c>
+      <c r="Y5">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="Z5">
+        <v>95.23</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>22.32</v>
+      </c>
+      <c r="C6">
+        <v>0.98</v>
+      </c>
+      <c r="D6">
+        <v>18.66</v>
+      </c>
+      <c r="E6">
+        <v>81.34</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>9.82</v>
+      </c>
+      <c r="N6">
+        <v>3.2</v>
+      </c>
+      <c r="O6">
+        <v>7.81</v>
+      </c>
+      <c r="P6">
+        <v>92.19</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>7</v>
+      </c>
+      <c r="V6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>7.47</v>
+      </c>
+      <c r="X6">
+        <v>3.2</v>
+      </c>
+      <c r="Y6">
+        <v>5.83</v>
+      </c>
+      <c r="Z6">
+        <v>94.17</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="C7">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="D7">
+        <v>6.01</v>
+      </c>
+      <c r="E7">
+        <v>93.99</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="L7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>5.57</v>
+      </c>
+      <c r="N7">
+        <v>4.83</v>
+      </c>
+      <c r="O7">
+        <v>5.35</v>
+      </c>
+      <c r="P7">
+        <v>94.65</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>11</v>
+      </c>
+      <c r="V7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <v>13.35</v>
+      </c>
+      <c r="X7">
+        <v>1.92</v>
+      </c>
+      <c r="Y7">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="Z7">
+        <v>90.54</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>13.59</v>
+      </c>
+      <c r="C8">
+        <v>0.77</v>
+      </c>
+      <c r="D8">
+        <v>12.45</v>
+      </c>
+      <c r="E8">
+        <v>87.55</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>14.48</v>
+      </c>
+      <c r="N8">
+        <v>2.95</v>
+      </c>
+      <c r="O8">
+        <v>11.59</v>
+      </c>
+      <c r="P8">
+        <v>88.41</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="V8" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <v>7.31</v>
+      </c>
+      <c r="X8">
+        <v>3.41</v>
+      </c>
+      <c r="Y8">
+        <v>7.13</v>
+      </c>
+      <c r="Z8">
+        <v>92.87</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7.35</v>
+      </c>
+      <c r="C9">
+        <v>3.21</v>
+      </c>
+      <c r="D9">
+        <v>6.1</v>
+      </c>
+      <c r="E9">
+        <v>93.9</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>34.520000000000003</v>
+      </c>
+      <c r="N9">
+        <v>0.17</v>
+      </c>
+      <c r="O9">
+        <v>25.73</v>
+      </c>
+      <c r="P9">
+        <v>74.27</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>15</v>
+      </c>
+      <c r="V9" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9">
+        <v>14.08</v>
+      </c>
+      <c r="X9">
+        <v>1.62</v>
+      </c>
+      <c r="Y9">
+        <v>9.81</v>
+      </c>
+      <c r="Z9">
+        <v>90.19</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" ref="B10:G10" si="0">AVERAGE(B5:B9)</f>
+        <v>12.17</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>2.036</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>9.98</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>90.02000000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" ref="M10:R10" si="1">AVERAGE(M5:M9)</f>
+        <v>15.106</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="1"/>
+        <v>3.1279999999999997</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="1"/>
+        <v>11.858000000000001</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="1"/>
+        <v>88.141999999999982</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="5">
+        <f t="shared" ref="W10:AB10" si="2">AVERAGE(W5:W9)</f>
+        <v>9.6159999999999997</v>
+      </c>
+      <c r="X10" s="5">
+        <f t="shared" si="2"/>
+        <v>2.6100000000000003</v>
+      </c>
+      <c r="Y10" s="5">
+        <f t="shared" si="2"/>
+        <v>7.4</v>
+      </c>
+      <c r="Z10" s="5">
+        <f t="shared" si="2"/>
+        <v>92.6</v>
+      </c>
+      <c r="AA10" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB10" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+    </row>
+    <row r="12" spans="1:28" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="V12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="E13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="40"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="P13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="R13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="32"/>
+      <c r="V13" s="2"/>
+      <c r="Z13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA13" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB13" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="34">
+        <v>479</v>
+      </c>
+      <c r="F14" s="34">
+        <v>2842</v>
+      </c>
+      <c r="G14" s="34">
+        <v>3321</v>
+      </c>
+      <c r="I14" s="40"/>
+      <c r="J14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="34">
+        <v>479</v>
+      </c>
+      <c r="Q14" s="34">
+        <v>2842</v>
+      </c>
+      <c r="R14" s="34">
+        <v>3321</v>
+      </c>
+      <c r="S14" s="34"/>
+      <c r="V14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="34">
+        <v>690</v>
+      </c>
+      <c r="AA14" s="34">
+        <v>2934</v>
+      </c>
+      <c r="AB14" s="34">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B15" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="M15" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" s="32"/>
+      <c r="W15" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y15" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB15" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>22.4</v>
+      </c>
+      <c r="C16">
+        <v>7.39</v>
+      </c>
+      <c r="D16">
+        <v>17.66</v>
+      </c>
+      <c r="E16">
+        <v>82.34</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>12.76</v>
+      </c>
+      <c r="N16">
+        <v>9.77</v>
+      </c>
+      <c r="O16">
+        <v>11.46</v>
+      </c>
+      <c r="P16">
+        <v>88.54</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="V16" t="s">
+        <v>4</v>
+      </c>
+      <c r="W16">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="X16">
+        <v>2.85</v>
+      </c>
+      <c r="Y16">
+        <v>13.5</v>
+      </c>
+      <c r="Z16">
+        <v>86.5</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>18.28</v>
+      </c>
+      <c r="C17">
+        <v>6.16</v>
+      </c>
+      <c r="D17">
+        <v>13.8</v>
+      </c>
+      <c r="E17">
+        <v>86.2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>14.62</v>
+      </c>
+      <c r="N17">
+        <v>4.53</v>
+      </c>
+      <c r="O17">
+        <v>10.18</v>
+      </c>
+      <c r="P17">
+        <v>89.82</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>7</v>
+      </c>
+      <c r="V17" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <v>21.2</v>
+      </c>
+      <c r="X17">
+        <v>3.24</v>
+      </c>
+      <c r="Y17">
+        <v>14.13</v>
+      </c>
+      <c r="Z17">
+        <v>85.87</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="C18">
+        <v>6.21</v>
+      </c>
+      <c r="D18">
+        <v>13.32</v>
+      </c>
+      <c r="E18">
+        <v>86.68</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>18.75</v>
+      </c>
+      <c r="N18">
+        <v>3.39</v>
+      </c>
+      <c r="O18">
+        <v>12.9</v>
+      </c>
+      <c r="P18">
+        <v>87.1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>8</v>
+      </c>
+      <c r="V18" t="s">
+        <v>6</v>
+      </c>
+      <c r="W18">
+        <v>19.57</v>
+      </c>
+      <c r="X18">
+        <v>6.65</v>
+      </c>
+      <c r="Y18">
+        <v>15.25</v>
+      </c>
+      <c r="Z18">
+        <v>84.75</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>17.75</v>
+      </c>
+      <c r="C19">
+        <v>5.9</v>
+      </c>
+      <c r="D19">
+        <v>13.98</v>
+      </c>
+      <c r="E19">
+        <v>86.02</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>16.97</v>
+      </c>
+      <c r="N19">
+        <v>5.98</v>
+      </c>
+      <c r="O19">
+        <v>12.97</v>
+      </c>
+      <c r="P19">
+        <v>87.03</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="V19" t="s">
+        <v>7</v>
+      </c>
+      <c r="W19">
+        <v>20.47</v>
+      </c>
+      <c r="X19">
+        <v>2.98</v>
+      </c>
+      <c r="Y19">
+        <v>13.55</v>
+      </c>
+      <c r="Z19">
+        <v>86.45</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="C20">
+        <v>5.63</v>
+      </c>
+      <c r="D20">
+        <v>12.46</v>
+      </c>
+      <c r="E20">
+        <v>87.54</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="21">
+        <v>18.8</v>
+      </c>
+      <c r="N20" s="21">
+        <v>5.98</v>
+      </c>
+      <c r="O20" s="21">
+        <v>14.28</v>
+      </c>
+      <c r="P20" s="21">
+        <v>85.72</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>1</v>
+      </c>
+      <c r="R20" s="21">
+        <v>8</v>
+      </c>
+      <c r="S20" s="21"/>
+      <c r="V20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="W20" s="21">
+        <v>20.65</v>
+      </c>
+      <c r="X20" s="21">
+        <v>3.92</v>
+      </c>
+      <c r="Y20" s="21">
+        <v>14.31</v>
+      </c>
+      <c r="Z20" s="21">
+        <v>85.69</v>
+      </c>
+      <c r="AA20" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" ref="B21:G21" si="3">AVERAGE(B16:B20)</f>
+        <v>18.317999999999998</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="3"/>
+        <v>6.2580000000000009</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="3"/>
+        <v>14.244</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="3"/>
+        <v>85.756</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="3"/>
+        <v>6.6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" ref="M21:R21" si="4">AVERAGE(M16:M20)</f>
+        <v>16.38</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" si="4"/>
+        <v>5.9300000000000006</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="4"/>
+        <v>12.358000000000001</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" si="4"/>
+        <v>87.64200000000001</v>
+      </c>
+      <c r="Q21" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="R21" s="5">
+        <f t="shared" si="4"/>
+        <v>6.2</v>
+      </c>
+      <c r="S21" s="3"/>
+      <c r="V21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="W21" s="5">
+        <f t="shared" ref="W21:AB21" si="5">AVERAGE(W16:W20)</f>
+        <v>20.189999999999998</v>
+      </c>
+      <c r="X21" s="5">
+        <f t="shared" si="5"/>
+        <v>3.9279999999999999</v>
+      </c>
+      <c r="Y21" s="5">
+        <f t="shared" si="5"/>
+        <v>14.148000000000001</v>
+      </c>
+      <c r="Z21" s="5">
+        <f t="shared" si="5"/>
+        <v>85.852000000000004</v>
+      </c>
+      <c r="AA21" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB21" s="5">
+        <f t="shared" si="5"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="E22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="J22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="L22" s="2"/>
+      <c r="P22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="V22" s="2"/>
+      <c r="Z22" s="19"/>
+      <c r="AB22" s="19"/>
+    </row>
+    <row r="23" spans="1:28" ht="21" x14ac:dyDescent="0.4">
+      <c r="A23" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="J23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+    </row>
+    <row r="24" spans="1:28" ht="21" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="34">
+        <v>355</v>
+      </c>
+      <c r="F24" s="34">
+        <v>2638</v>
+      </c>
+      <c r="G24" s="34">
+        <v>2993</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="R24" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S24" s="32"/>
+      <c r="V24" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z24" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA24" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB24" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B25" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="34">
+        <v>355</v>
+      </c>
+      <c r="Q25" s="34">
+        <v>2638</v>
+      </c>
+      <c r="R25" s="34">
+        <v>2993</v>
+      </c>
+      <c r="S25" s="34"/>
+      <c r="V25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="34">
+        <v>686</v>
+      </c>
+      <c r="AA25" s="34">
+        <v>2934</v>
+      </c>
+      <c r="AB25" s="34">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>29.58</v>
+      </c>
+      <c r="C26">
+        <v>12.18</v>
+      </c>
+      <c r="D26">
+        <v>24.99</v>
+      </c>
+      <c r="E26">
+        <v>75.010000000000005</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="M26" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="O26" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="R26" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" s="32"/>
+      <c r="W26" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="X26" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y26" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB26" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>28.52</v>
+      </c>
+      <c r="C27">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="D27">
+        <v>21.95</v>
+      </c>
+      <c r="E27">
+        <v>78.05</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="L27" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>24.3</v>
+      </c>
+      <c r="N27">
+        <v>10.9</v>
+      </c>
+      <c r="O27">
+        <v>20.51</v>
+      </c>
+      <c r="P27">
+        <v>79.489999999999995</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+      <c r="V27" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27">
+        <v>22.4</v>
+      </c>
+      <c r="X27">
+        <v>5.45</v>
+      </c>
+      <c r="Y27">
+        <v>16.57</v>
+      </c>
+      <c r="Z27">
+        <v>83.43</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>25.35</v>
+      </c>
+      <c r="C28">
+        <v>11.52</v>
+      </c>
+      <c r="D28">
+        <v>21.5</v>
+      </c>
+      <c r="E28">
+        <v>78.5</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="L28" t="s">
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <v>23.94</v>
+      </c>
+      <c r="N28">
+        <v>10.95</v>
+      </c>
+      <c r="O28">
+        <v>19.89</v>
+      </c>
+      <c r="P28">
+        <v>80.11</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="V28" t="s">
+        <v>5</v>
+      </c>
+      <c r="W28">
+        <v>22.99</v>
+      </c>
+      <c r="X28">
+        <v>6.69</v>
+      </c>
+      <c r="Y28">
+        <v>16.72</v>
+      </c>
+      <c r="Z28">
+        <v>83.28</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>23.24</v>
+      </c>
+      <c r="C29">
+        <v>11.71</v>
+      </c>
+      <c r="D29">
+        <v>19.68</v>
+      </c>
+      <c r="E29">
+        <v>80.319999999999993</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="L29" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>28.87</v>
+      </c>
+      <c r="N29">
+        <v>8.25</v>
+      </c>
+      <c r="O29">
+        <v>22.42</v>
+      </c>
+      <c r="P29">
+        <v>77.58</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>11</v>
+      </c>
+      <c r="V29" t="s">
+        <v>6</v>
+      </c>
+      <c r="W29">
+        <v>21.86</v>
+      </c>
+      <c r="X29">
+        <v>7.2</v>
+      </c>
+      <c r="Y29">
+        <v>16.16</v>
+      </c>
+      <c r="Z29">
+        <v>83.84</v>
+      </c>
+      <c r="AA29">
+        <v>2</v>
+      </c>
+      <c r="AB29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A30" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>28.62</v>
+      </c>
+      <c r="C30">
+        <v>7.53</v>
+      </c>
+      <c r="D30">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="E30">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="L30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30">
+        <v>24.65</v>
+      </c>
+      <c r="N30">
+        <v>12.32</v>
+      </c>
+      <c r="O30">
+        <v>21.64</v>
+      </c>
+      <c r="P30">
+        <v>78.36</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="V30" t="s">
+        <v>7</v>
+      </c>
+      <c r="W30">
+        <v>22.95</v>
+      </c>
+      <c r="X30">
+        <v>6.56</v>
+      </c>
+      <c r="Y30">
+        <v>16.21</v>
+      </c>
+      <c r="Z30">
+        <v>83.79</v>
+      </c>
+      <c r="AA30">
+        <v>2</v>
+      </c>
+      <c r="AB30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="5">
+        <f t="shared" ref="B31:G31" si="6">AVERAGE(B26:B30)</f>
+        <v>27.061999999999994</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="6"/>
+        <v>10.464</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="6"/>
+        <v>21.626000000000001</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="6"/>
+        <v>78.373999999999995</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="6"/>
+        <v>5.2</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="21">
+        <v>22.89</v>
+      </c>
+      <c r="N31" s="21">
+        <v>10.57</v>
+      </c>
+      <c r="O31" s="21">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="P31" s="21">
+        <v>81.260000000000005</v>
+      </c>
+      <c r="Q31" s="21">
+        <v>1</v>
+      </c>
+      <c r="R31" s="21">
+        <v>7</v>
+      </c>
+      <c r="S31" s="21"/>
+      <c r="V31" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="W31" s="21">
+        <v>22.95</v>
+      </c>
+      <c r="X31" s="21">
+        <v>5.58</v>
+      </c>
+      <c r="Y31" s="21">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="Z31" s="21">
+        <v>83.24</v>
+      </c>
+      <c r="AA31" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="21" x14ac:dyDescent="0.4">
+      <c r="A32" s="33"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="L32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" ref="M32:R32" si="7">AVERAGE(M27:M31)</f>
+        <v>24.93</v>
+      </c>
+      <c r="N32" s="5">
+        <f t="shared" si="7"/>
+        <v>10.598000000000001</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="7"/>
+        <v>20.64</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="7"/>
+        <v>79.36</v>
+      </c>
+      <c r="Q32" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R32" s="5">
+        <f t="shared" si="7"/>
+        <v>6.8</v>
+      </c>
+      <c r="S32" s="3"/>
+      <c r="V32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="W32" s="5">
+        <f t="shared" ref="W32:AB32" si="8">AVERAGE(W27:W31)</f>
+        <v>22.630000000000003</v>
+      </c>
+      <c r="X32" s="5">
+        <f t="shared" si="8"/>
+        <v>6.2959999999999994</v>
+      </c>
+      <c r="Y32" s="5">
+        <f t="shared" si="8"/>
+        <v>16.484000000000002</v>
+      </c>
+      <c r="Z32" s="5">
+        <f t="shared" si="8"/>
+        <v>83.516000000000005</v>
+      </c>
+      <c r="AA32" s="5">
+        <f t="shared" si="8"/>
+        <v>1.4</v>
+      </c>
+      <c r="AB32" s="5">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBC2BF5-CA36-4037-80F7-043C0B98B69C}">
+  <dimension ref="A1:AE54"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="15"/>
+      <c r="V2" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="G3" s="19">
+        <v>3404</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="19">
+        <v>3071</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="4"/>
+      <c r="V3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="19">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>17.57</v>
+      </c>
+      <c r="C6">
+        <v>7.23</v>
+      </c>
+      <c r="D6">
+        <v>14.49</v>
+      </c>
+      <c r="E6">
+        <v>85.51</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>25.09</v>
+      </c>
+      <c r="K6">
+        <v>11.3</v>
+      </c>
+      <c r="L6">
+        <v>21.6</v>
+      </c>
+      <c r="M6">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>45.59</v>
+      </c>
+      <c r="S6">
+        <v>5.45</v>
+      </c>
+      <c r="T6">
+        <v>32.270000000000003</v>
+      </c>
+      <c r="U6">
+        <v>67.73</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C7">
+        <v>6.25</v>
+      </c>
+      <c r="D7">
+        <v>13.59</v>
+      </c>
+      <c r="E7">
+        <v>86.41</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>38.81</v>
+      </c>
+      <c r="K7">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="L7">
+        <v>25.87</v>
+      </c>
+      <c r="M7">
+        <v>74.13</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>8</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="S7">
+        <v>10.84</v>
+      </c>
+      <c r="T7">
+        <v>31.48</v>
+      </c>
+      <c r="U7">
+        <v>68.52</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>15.28</v>
+      </c>
+      <c r="C8">
+        <v>7.36</v>
+      </c>
+      <c r="D8">
+        <v>12.09</v>
+      </c>
+      <c r="E8">
+        <v>87.91</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>33.22</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>24.13</v>
+      </c>
+      <c r="M8">
+        <v>75.87</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>42.65</v>
+      </c>
+      <c r="S8">
+        <v>11.18</v>
+      </c>
+      <c r="T8">
+        <v>32.69</v>
+      </c>
+      <c r="U8">
+        <v>67.31</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>17.88</v>
+      </c>
+      <c r="C9">
+        <v>6.8</v>
+      </c>
+      <c r="D9">
+        <v>14.01</v>
+      </c>
+      <c r="E9">
+        <v>85.99</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>24.48</v>
+      </c>
+      <c r="K9">
+        <v>11.71</v>
+      </c>
+      <c r="L9">
+        <v>20.28</v>
+      </c>
+      <c r="M9">
+        <v>79.72</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>37.75</v>
+      </c>
+      <c r="S9">
+        <v>11.04</v>
+      </c>
+      <c r="T9">
+        <v>29.9</v>
+      </c>
+      <c r="U9">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>18.09</v>
+      </c>
+      <c r="C10">
+        <v>5.65</v>
+      </c>
+      <c r="D10">
+        <v>13.87</v>
+      </c>
+      <c r="E10">
+        <v>86.13</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>24.04</v>
+      </c>
+      <c r="K10">
+        <v>11.57</v>
+      </c>
+      <c r="L10">
+        <v>20.21</v>
+      </c>
+      <c r="M10">
+        <v>79.790000000000006</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>44.61</v>
+      </c>
+      <c r="S10">
+        <v>6.27</v>
+      </c>
+      <c r="T10">
+        <v>31.86</v>
+      </c>
+      <c r="U10">
+        <v>68.14</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f t="shared" ref="B11:G11" si="0">AVERAGE(B6:B10)</f>
+        <v>17.184000000000001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>6.6579999999999995</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>13.61</v>
+      </c>
+      <c r="E11" s="24">
+        <f t="shared" si="0"/>
+        <v>86.390000000000015</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:O11" si="1">AVERAGE(J6:J10)</f>
+        <v>29.128000000000004</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>9.9740000000000002</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>22.417999999999999</v>
+      </c>
+      <c r="M11" s="24">
+        <f t="shared" si="1"/>
+        <v>77.582000000000008</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>6.2</v>
+      </c>
+      <c r="R11">
+        <f t="shared" ref="R11:W11" si="2">AVERAGE(R6:R10)</f>
+        <v>42.160000000000004</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>8.9559999999999995</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>31.639999999999997</v>
+      </c>
+      <c r="U11" s="24">
+        <f t="shared" si="2"/>
+        <v>68.359999999999985</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="Q12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:31" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14">
+        <f>AVERAGE(J6:L10)</f>
+        <v>20.506666666666664</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" s="15"/>
+      <c r="AA14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE14" s="15"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="19">
+        <v>3404</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="19">
+        <v>3071</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="V15" t="s">
+        <v>39</v>
+      </c>
+      <c r="W15" s="19">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>17.05</v>
+      </c>
+      <c r="C18">
+        <v>6.59</v>
+      </c>
+      <c r="D18">
+        <v>11.82</v>
+      </c>
+      <c r="E18">
+        <v>88.18</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>30.66</v>
+      </c>
+      <c r="K18">
+        <v>6.27</v>
+      </c>
+      <c r="L18">
+        <v>18.47</v>
+      </c>
+      <c r="M18">
+        <v>81.53</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>8</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>41.18</v>
+      </c>
+      <c r="S18">
+        <v>10.31</v>
+      </c>
+      <c r="T18">
+        <v>25.74</v>
+      </c>
+      <c r="U18">
+        <v>74.260000000000005</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C19">
+        <v>5.18</v>
+      </c>
+      <c r="D19">
+        <v>11.14</v>
+      </c>
+      <c r="E19">
+        <v>88.86</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>24.48</v>
+      </c>
+      <c r="K19">
+        <v>10.69</v>
+      </c>
+      <c r="L19">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="M19">
+        <v>82.42</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>42.65</v>
+      </c>
+      <c r="S19">
+        <v>7.23</v>
+      </c>
+      <c r="T19">
+        <v>24.94</v>
+      </c>
+      <c r="U19">
+        <v>75.06</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>17.36</v>
+      </c>
+      <c r="C20">
+        <v>3.89</v>
+      </c>
+      <c r="D20">
+        <v>10.63</v>
+      </c>
+      <c r="E20">
+        <v>89.37</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>24.56</v>
+      </c>
+      <c r="K20">
+        <v>11.79</v>
+      </c>
+      <c r="L20">
+        <v>18.18</v>
+      </c>
+      <c r="M20">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20">
+        <v>31.37</v>
+      </c>
+      <c r="S20">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="T20">
+        <v>25.59</v>
+      </c>
+      <c r="U20">
+        <v>74.41</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>17.62</v>
+      </c>
+      <c r="C21">
+        <v>5.56</v>
+      </c>
+      <c r="D21">
+        <v>11.59</v>
+      </c>
+      <c r="E21">
+        <v>88.41</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>24.74</v>
+      </c>
+      <c r="K21">
+        <v>11.02</v>
+      </c>
+      <c r="L21">
+        <v>17.88</v>
+      </c>
+      <c r="M21">
+        <v>82.12</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>8</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>7</v>
+      </c>
+      <c r="R21">
+        <v>41.18</v>
+      </c>
+      <c r="S21">
+        <v>9.06</v>
+      </c>
+      <c r="T21">
+        <v>25.12</v>
+      </c>
+      <c r="U21">
+        <v>74.88</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>19.12</v>
+      </c>
+      <c r="C22">
+        <v>6.25</v>
+      </c>
+      <c r="D22">
+        <v>12.69</v>
+      </c>
+      <c r="E22">
+        <v>87.31</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>21.33</v>
+      </c>
+      <c r="K22">
+        <v>14.47</v>
+      </c>
+      <c r="L22">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="M22">
+        <v>82.1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>7</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22">
+        <v>42.65</v>
+      </c>
+      <c r="S22">
+        <v>6.22</v>
+      </c>
+      <c r="T22">
+        <v>24.43</v>
+      </c>
+      <c r="U22">
+        <v>75.569999999999993</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E23" s="24">
+        <f>AVERAGE(E18:E22)</f>
+        <v>88.426000000000016</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(F18:F22)</f>
+        <v>1.4</v>
+      </c>
+      <c r="G23">
+        <f>AVERAGE(G18:G22)</f>
+        <v>5.8</v>
+      </c>
+      <c r="M23" s="24">
+        <f>AVERAGE(M18:M22)</f>
+        <v>81.998000000000005</v>
+      </c>
+      <c r="N23">
+        <f>AVERAGE(N18:N22)</f>
+        <v>1.4</v>
+      </c>
+      <c r="O23">
+        <f>AVERAGE(O18:O22)</f>
+        <v>6.2</v>
+      </c>
+      <c r="U23" s="24">
+        <f>AVERAGE(U18:U22)</f>
+        <v>74.835999999999999</v>
+      </c>
+      <c r="V23">
+        <f>AVERAGE(V18:V22)</f>
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <f>AVERAGE(W18:W22)</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="I24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+    </row>
+    <row r="25" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="17"/>
+    </row>
+    <row r="28" spans="1:26" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="I28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="7"/>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="W29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="19">
+        <v>3624</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" s="19">
+        <v>3620</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U30" s="4"/>
+      <c r="V30" t="s">
+        <v>40</v>
+      </c>
+      <c r="W30" s="19">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W32" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>20.11</v>
+      </c>
+      <c r="C33">
+        <v>5.41</v>
+      </c>
+      <c r="D33">
+        <v>12.76</v>
+      </c>
+      <c r="E33">
+        <v>87.24</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>21.49</v>
+      </c>
+      <c r="K33">
+        <v>9.42</v>
+      </c>
+      <c r="L33">
+        <v>15.45</v>
+      </c>
+      <c r="M33">
+        <v>84.55</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>9</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33">
+        <v>31.16</v>
+      </c>
+      <c r="S33">
+        <v>10.91</v>
+      </c>
+      <c r="T33">
+        <v>21.03</v>
+      </c>
+      <c r="U33">
+        <v>78.97</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>18.48</v>
+      </c>
+      <c r="C34">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="D34">
+        <v>11.41</v>
+      </c>
+      <c r="E34">
+        <v>88.59</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>8</v>
+      </c>
+      <c r="I34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>22.63</v>
+      </c>
+      <c r="K34">
+        <v>11.41</v>
+      </c>
+      <c r="L34">
+        <v>17.02</v>
+      </c>
+      <c r="M34">
+        <v>82.98</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>13</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>5</v>
+      </c>
+      <c r="R34">
+        <v>32.28</v>
+      </c>
+      <c r="S34">
+        <v>11.63</v>
+      </c>
+      <c r="T34">
+        <v>21.95</v>
+      </c>
+      <c r="U34">
+        <v>78.05</v>
+      </c>
+      <c r="V34">
+        <v>2</v>
+      </c>
+      <c r="W34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>25.36</v>
+      </c>
+      <c r="C35">
+        <v>5.88</v>
+      </c>
+      <c r="D35">
+        <v>15.62</v>
+      </c>
+      <c r="E35">
+        <v>84.38</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <v>24.95</v>
+      </c>
+      <c r="K35">
+        <v>10.23</v>
+      </c>
+      <c r="L35">
+        <v>17.59</v>
+      </c>
+      <c r="M35">
+        <v>82.41</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>6</v>
+      </c>
+      <c r="R35">
+        <v>31.34</v>
+      </c>
+      <c r="S35">
+        <v>10.14</v>
+      </c>
+      <c r="T35">
+        <v>20.74</v>
+      </c>
+      <c r="U35">
+        <v>79.260000000000005</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>11.05</v>
+      </c>
+      <c r="C36">
+        <v>36.47</v>
+      </c>
+      <c r="D36">
+        <v>23.76</v>
+      </c>
+      <c r="E36">
+        <v>76.239999999999995</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36">
+        <v>23.86</v>
+      </c>
+      <c r="K36">
+        <v>10.65</v>
+      </c>
+      <c r="L36">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="M36">
+        <v>82.74</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>6</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>7</v>
+      </c>
+      <c r="R36">
+        <v>36.01</v>
+      </c>
+      <c r="S36">
+        <v>10.44</v>
+      </c>
+      <c r="T36">
+        <v>23.22</v>
+      </c>
+      <c r="U36">
+        <v>76.78</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="C37">
+        <v>70.73</v>
+      </c>
+      <c r="D37">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="E37">
+        <v>60.2</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <v>24.04</v>
+      </c>
+      <c r="K37">
+        <v>11.25</v>
+      </c>
+      <c r="L37">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="M37">
+        <v>82.35</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>11</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>8</v>
+      </c>
+      <c r="R37">
+        <v>44.22</v>
+      </c>
+      <c r="S37">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="T37">
+        <v>31.57</v>
+      </c>
+      <c r="U37">
+        <v>68.430000000000007</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E38" s="2">
+        <f>AVERAGE(E33:E37)</f>
+        <v>79.33</v>
+      </c>
+      <c r="F38">
+        <f>AVERAGE(F33:F37)</f>
+        <v>1.8</v>
+      </c>
+      <c r="G38">
+        <f>AVERAGE(G33:G37)</f>
+        <v>9.6</v>
+      </c>
+      <c r="M38" s="4">
+        <f>AVERAGE(M33:M37)</f>
+        <v>83.006</v>
+      </c>
+      <c r="N38">
+        <f>AVERAGE(N33:N37)</f>
+        <v>1.4</v>
+      </c>
+      <c r="O38">
+        <f>AVERAGE(O33:O37)</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="U38" s="4">
+        <f>AVERAGE(U33:U37)</f>
+        <v>76.297999999999988</v>
+      </c>
+      <c r="V38">
+        <f>AVERAGE(V33:V37)</f>
+        <v>1.2</v>
+      </c>
+      <c r="W38">
+        <f>AVERAGE(W33:W37)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="I39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="Q39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>